--- a/data/registrations.xlsx
+++ b/data/registrations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Desktop\college_event_system\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B5400341-C527-453F-B48E-D8C1DD78DF59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E944184-4771-4983-8C6D-F02FC4113B3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A78E6900-CB8C-478F-88A0-BEADC8C2A408}"/>
   </bookViews>
@@ -1570,9 +1570,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEFE6ACB-CC5C-483F-B714-2D54DB436A9F}">
   <dimension ref="A1:AN24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="46.5546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A1" t="s">

--- a/data/registrations.xlsx
+++ b/data/registrations.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Desktop\college_event_system\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Desktop\carnivalesque portal\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E944184-4771-4983-8C6D-F02FC4113B3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B9B5586-B3D2-4551-91BA-34DFC699116D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A78E6900-CB8C-478F-88A0-BEADC8C2A408}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1909" uniqueCount="426">
   <si>
     <t>Registration No</t>
   </si>
@@ -722,6 +722,582 @@
   </si>
   <si>
     <t>https://events.stfranciscollege.edu.in/pdf/696b658e400b3/10976/</t>
+  </si>
+  <si>
+    <t>C260024</t>
+  </si>
+  <si>
+    <t>C260025</t>
+  </si>
+  <si>
+    <t>C260026</t>
+  </si>
+  <si>
+    <t>C260027</t>
+  </si>
+  <si>
+    <t>C260028</t>
+  </si>
+  <si>
+    <t>C260029</t>
+  </si>
+  <si>
+    <t>C260030</t>
+  </si>
+  <si>
+    <t>C260031</t>
+  </si>
+  <si>
+    <t>C260032</t>
+  </si>
+  <si>
+    <t>C260033</t>
+  </si>
+  <si>
+    <t>C260034</t>
+  </si>
+  <si>
+    <t>C260035</t>
+  </si>
+  <si>
+    <t>C260036</t>
+  </si>
+  <si>
+    <t>C260037</t>
+  </si>
+  <si>
+    <t>C260038</t>
+  </si>
+  <si>
+    <t>C260039</t>
+  </si>
+  <si>
+    <t>C260040</t>
+  </si>
+  <si>
+    <t>C260041</t>
+  </si>
+  <si>
+    <t>C260042</t>
+  </si>
+  <si>
+    <t>C260043</t>
+  </si>
+  <si>
+    <t>C260044</t>
+  </si>
+  <si>
+    <t>C260045</t>
+  </si>
+  <si>
+    <t>C260046</t>
+  </si>
+  <si>
+    <t>C260047</t>
+  </si>
+  <si>
+    <t>C260048</t>
+  </si>
+  <si>
+    <t>C260049</t>
+  </si>
+  <si>
+    <t>C260050</t>
+  </si>
+  <si>
+    <t>C260051</t>
+  </si>
+  <si>
+    <t>C260052</t>
+  </si>
+  <si>
+    <t>C260053</t>
+  </si>
+  <si>
+    <t>C260054</t>
+  </si>
+  <si>
+    <t>C260055</t>
+  </si>
+  <si>
+    <t>C260056</t>
+  </si>
+  <si>
+    <t>C260057</t>
+  </si>
+  <si>
+    <t>C260058</t>
+  </si>
+  <si>
+    <t>C260059</t>
+  </si>
+  <si>
+    <t>C260060</t>
+  </si>
+  <si>
+    <t>C260061</t>
+  </si>
+  <si>
+    <t>C260062</t>
+  </si>
+  <si>
+    <t>C260063</t>
+  </si>
+  <si>
+    <t>C260064</t>
+  </si>
+  <si>
+    <t>C260065</t>
+  </si>
+  <si>
+    <t>C260066</t>
+  </si>
+  <si>
+    <t>C260067</t>
+  </si>
+  <si>
+    <t>C260068</t>
+  </si>
+  <si>
+    <t>C260069</t>
+  </si>
+  <si>
+    <t>C260070</t>
+  </si>
+  <si>
+    <t>C260071</t>
+  </si>
+  <si>
+    <t>C260072</t>
+  </si>
+  <si>
+    <t>C260073</t>
+  </si>
+  <si>
+    <t>C260074</t>
+  </si>
+  <si>
+    <t>C260075</t>
+  </si>
+  <si>
+    <t>C260076</t>
+  </si>
+  <si>
+    <t>C260077</t>
+  </si>
+  <si>
+    <t>C260078</t>
+  </si>
+  <si>
+    <t>C260079</t>
+  </si>
+  <si>
+    <t>C260080</t>
+  </si>
+  <si>
+    <t>C260081</t>
+  </si>
+  <si>
+    <t>C260082</t>
+  </si>
+  <si>
+    <t>C260083</t>
+  </si>
+  <si>
+    <t>C260084</t>
+  </si>
+  <si>
+    <t>C260085</t>
+  </si>
+  <si>
+    <t>C260086</t>
+  </si>
+  <si>
+    <t>C260087</t>
+  </si>
+  <si>
+    <t>C260088</t>
+  </si>
+  <si>
+    <t>C260089</t>
+  </si>
+  <si>
+    <t>C260090</t>
+  </si>
+  <si>
+    <t>C260091</t>
+  </si>
+  <si>
+    <t>C260092</t>
+  </si>
+  <si>
+    <t>C260093</t>
+  </si>
+  <si>
+    <t>C260094</t>
+  </si>
+  <si>
+    <t>C260095</t>
+  </si>
+  <si>
+    <t>C260096</t>
+  </si>
+  <si>
+    <t>C260097</t>
+  </si>
+  <si>
+    <t>C260098</t>
+  </si>
+  <si>
+    <t>C260099</t>
+  </si>
+  <si>
+    <t>C260100</t>
+  </si>
+  <si>
+    <t>C260101</t>
+  </si>
+  <si>
+    <t>C260102</t>
+  </si>
+  <si>
+    <t>C260103</t>
+  </si>
+  <si>
+    <t>C260104</t>
+  </si>
+  <si>
+    <t>C260105</t>
+  </si>
+  <si>
+    <t>C260106</t>
+  </si>
+  <si>
+    <t>C260107</t>
+  </si>
+  <si>
+    <t>C260108</t>
+  </si>
+  <si>
+    <t>C260109</t>
+  </si>
+  <si>
+    <t>C260110</t>
+  </si>
+  <si>
+    <t>C260111</t>
+  </si>
+  <si>
+    <t>C260112</t>
+  </si>
+  <si>
+    <t>C260113</t>
+  </si>
+  <si>
+    <t>C260114</t>
+  </si>
+  <si>
+    <t>C260115</t>
+  </si>
+  <si>
+    <t>C260116</t>
+  </si>
+  <si>
+    <t>C260117</t>
+  </si>
+  <si>
+    <t>C260118</t>
+  </si>
+  <si>
+    <t>C260119</t>
+  </si>
+  <si>
+    <t>C260120</t>
+  </si>
+  <si>
+    <t>C260121</t>
+  </si>
+  <si>
+    <t>C260122</t>
+  </si>
+  <si>
+    <t>C260123</t>
+  </si>
+  <si>
+    <t>C260124</t>
+  </si>
+  <si>
+    <t>C260125</t>
+  </si>
+  <si>
+    <t>C260126</t>
+  </si>
+  <si>
+    <t>C260127</t>
+  </si>
+  <si>
+    <t>C260128</t>
+  </si>
+  <si>
+    <t>C260129</t>
+  </si>
+  <si>
+    <t>C260130</t>
+  </si>
+  <si>
+    <t>C260131</t>
+  </si>
+  <si>
+    <t>C260132</t>
+  </si>
+  <si>
+    <t>C260133</t>
+  </si>
+  <si>
+    <t>C260134</t>
+  </si>
+  <si>
+    <t>C260135</t>
+  </si>
+  <si>
+    <t>C260136</t>
+  </si>
+  <si>
+    <t>C260137</t>
+  </si>
+  <si>
+    <t>C260138</t>
+  </si>
+  <si>
+    <t>C260139</t>
+  </si>
+  <si>
+    <t>C260140</t>
+  </si>
+  <si>
+    <t>C260141</t>
+  </si>
+  <si>
+    <t>C260142</t>
+  </si>
+  <si>
+    <t>C260143</t>
+  </si>
+  <si>
+    <t>C260144</t>
+  </si>
+  <si>
+    <t>C260145</t>
+  </si>
+  <si>
+    <t>C260146</t>
+  </si>
+  <si>
+    <t>C260147</t>
+  </si>
+  <si>
+    <t>C260148</t>
+  </si>
+  <si>
+    <t>C260149</t>
+  </si>
+  <si>
+    <t>C260150</t>
+  </si>
+  <si>
+    <t>C260151</t>
+  </si>
+  <si>
+    <t>C260152</t>
+  </si>
+  <si>
+    <t>C260153</t>
+  </si>
+  <si>
+    <t>C260154</t>
+  </si>
+  <si>
+    <t>C260155</t>
+  </si>
+  <si>
+    <t>C260156</t>
+  </si>
+  <si>
+    <t>C260157</t>
+  </si>
+  <si>
+    <t>C260158</t>
+  </si>
+  <si>
+    <t>C260159</t>
+  </si>
+  <si>
+    <t>C260160</t>
+  </si>
+  <si>
+    <t>C260161</t>
+  </si>
+  <si>
+    <t>C260162</t>
+  </si>
+  <si>
+    <t>C260163</t>
+  </si>
+  <si>
+    <t>C260164</t>
+  </si>
+  <si>
+    <t>C260165</t>
+  </si>
+  <si>
+    <t>C260166</t>
+  </si>
+  <si>
+    <t>C260167</t>
+  </si>
+  <si>
+    <t>C260168</t>
+  </si>
+  <si>
+    <t>C260169</t>
+  </si>
+  <si>
+    <t>C260170</t>
+  </si>
+  <si>
+    <t>C260171</t>
+  </si>
+  <si>
+    <t>C260172</t>
+  </si>
+  <si>
+    <t>C260173</t>
+  </si>
+  <si>
+    <t>C260174</t>
+  </si>
+  <si>
+    <t>C260175</t>
+  </si>
+  <si>
+    <t>C260176</t>
+  </si>
+  <si>
+    <t>C260177</t>
+  </si>
+  <si>
+    <t>C260178</t>
+  </si>
+  <si>
+    <t>C260179</t>
+  </si>
+  <si>
+    <t>C260180</t>
+  </si>
+  <si>
+    <t>C260181</t>
+  </si>
+  <si>
+    <t>C260182</t>
+  </si>
+  <si>
+    <t>C260183</t>
+  </si>
+  <si>
+    <t>C260184</t>
+  </si>
+  <si>
+    <t>C260185</t>
+  </si>
+  <si>
+    <t>C260186</t>
+  </si>
+  <si>
+    <t>C260187</t>
+  </si>
+  <si>
+    <t>C260188</t>
+  </si>
+  <si>
+    <t>C260189</t>
+  </si>
+  <si>
+    <t>C260190</t>
+  </si>
+  <si>
+    <t>C260191</t>
+  </si>
+  <si>
+    <t>C260192</t>
+  </si>
+  <si>
+    <t>C260193</t>
+  </si>
+  <si>
+    <t>C260194</t>
+  </si>
+  <si>
+    <t>C260195</t>
+  </si>
+  <si>
+    <t>C260196</t>
+  </si>
+  <si>
+    <t>C260197</t>
+  </si>
+  <si>
+    <t>C260198</t>
+  </si>
+  <si>
+    <t>C260199</t>
+  </si>
+  <si>
+    <t>Tuesday, 24-Feb-2027</t>
+  </si>
+  <si>
+    <t>Wednesday, 25-Feb-2027</t>
+  </si>
+  <si>
+    <t>Tuesday, 24-Feb-2028</t>
+  </si>
+  <si>
+    <t>Wednesday, 25-Feb-2028</t>
+  </si>
+  <si>
+    <t>Tuesday, 24-Feb-2029</t>
+  </si>
+  <si>
+    <t>Wednesday, 25-Feb-2029</t>
+  </si>
+  <si>
+    <t>Tuesday, 24-Feb-2030</t>
+  </si>
+  <si>
+    <t>Wednesday, 25-Feb-2030</t>
+  </si>
+  <si>
+    <t>Tuesday, 24-Feb-2031</t>
+  </si>
+  <si>
+    <t>Wednesday, 25-Feb-2031</t>
+  </si>
+  <si>
+    <t>Tuesday, 24-Feb-2032</t>
+  </si>
+  <si>
+    <t>Wednesday, 25-Feb-2032</t>
+  </si>
+  <si>
+    <t>Tuesday, 24-Feb-2033</t>
+  </si>
+  <si>
+    <t>Wednesday, 25-Feb-2033</t>
+  </si>
+  <si>
+    <t>Tuesday, 24-Feb-2034</t>
+  </si>
+  <si>
+    <t>Wednesday, 25-Feb-2034</t>
   </si>
 </sst>
 </file>
@@ -731,7 +1307,7 @@
   <numFmts count="1">
     <numFmt numFmtId="8" formatCode="&quot;₹&quot;\ #,##0.00;[Red]&quot;₹&quot;\ \-#,##0.00"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -862,6 +1438,12 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1568,15 +2150,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEFE6ACB-CC5C-483F-B714-2D54DB436A9F}">
-  <dimension ref="A1:AN24"/>
+  <dimension ref="A1:AN200"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="D141" workbookViewId="0">
+      <selection activeCell="K205" sqref="K205"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="46.5546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="42.109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40" x14ac:dyDescent="0.3">
@@ -1703,105 +2287,105 @@
     </row>
     <row r="2" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>40</v>
+        <v>224</v>
       </c>
       <c r="B2" s="1">
-        <v>46056</v>
+        <v>46043</v>
       </c>
       <c r="C2" t="s">
-        <v>41</v>
+        <v>225</v>
       </c>
       <c r="E2">
-        <v>9743990703</v>
+        <v>9986597385</v>
       </c>
       <c r="F2" t="s">
-        <v>42</v>
+        <v>226</v>
       </c>
       <c r="G2" t="s">
-        <v>43</v>
+        <v>176</v>
       </c>
       <c r="H2" t="s">
         <v>44</v>
       </c>
       <c r="I2" t="s">
-        <v>45</v>
+        <v>227</v>
       </c>
       <c r="K2" t="s">
         <v>46</v>
       </c>
       <c r="L2" s="2">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="M2">
         <v>1</v>
       </c>
       <c r="N2" t="s">
-        <v>47</v>
-      </c>
-      <c r="O2" t="s">
-        <v>48</v>
-      </c>
-      <c r="P2" t="s">
-        <v>49</v>
+        <v>228</v>
       </c>
       <c r="Z2">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="AB2">
-        <v>10998</v>
+        <v>10976</v>
       </c>
       <c r="AC2" s="3">
-        <v>46056.565266203703</v>
+        <v>46043.596192129633</v>
       </c>
       <c r="AD2" s="3">
-        <v>46056.336099537039</v>
+        <v>46046.369745370372</v>
       </c>
       <c r="AE2" t="s">
         <v>50</v>
       </c>
+      <c r="AF2" t="s">
+        <v>229</v>
+      </c>
       <c r="AG2">
-        <v>500</v>
+        <v>250</v>
+      </c>
+      <c r="AH2" s="3">
+        <v>46043.597777777781</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>73</v>
       </c>
       <c r="AK2" t="s">
-        <v>51</v>
+        <v>230</v>
       </c>
       <c r="AL2" t="s">
-        <v>52</v>
+        <v>231</v>
       </c>
       <c r="AM2" t="s">
-        <v>53</v>
+        <v>232</v>
       </c>
       <c r="AN2" t="s">
-        <v>54</v>
+        <v>233</v>
       </c>
     </row>
     <row r="3" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>55</v>
+        <v>218</v>
       </c>
       <c r="B3" s="1">
-        <v>46056</v>
+        <v>46044</v>
       </c>
       <c r="C3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D3" t="s">
-        <v>57</v>
+        <v>117</v>
       </c>
       <c r="E3">
-        <v>7760248799</v>
+        <v>9513865494</v>
       </c>
       <c r="F3" t="s">
-        <v>58</v>
+        <v>219</v>
       </c>
       <c r="G3" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="H3" t="s">
-        <v>60</v>
-      </c>
-      <c r="J3" t="s">
-        <v>61</v>
+        <v>44</v>
+      </c>
+      <c r="I3" t="s">
+        <v>201</v>
       </c>
       <c r="K3" t="s">
         <v>46</v>
@@ -1813,19 +2397,19 @@
         <v>1</v>
       </c>
       <c r="N3" t="s">
-        <v>62</v>
+        <v>220</v>
       </c>
       <c r="Z3">
         <v>250</v>
       </c>
       <c r="AB3">
-        <v>10997</v>
+        <v>10977</v>
       </c>
       <c r="AC3" s="3">
-        <v>46056.501666666663</v>
+        <v>46044.958495370367</v>
       </c>
       <c r="AD3" s="3">
-        <v>46056.272499999999</v>
+        <v>46046.369479166664</v>
       </c>
       <c r="AE3" t="s">
         <v>50</v>
@@ -1833,120 +2417,129 @@
       <c r="AG3">
         <v>250</v>
       </c>
+      <c r="AH3" s="3">
+        <v>46046.595127314817</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>126</v>
+      </c>
       <c r="AK3" t="s">
-        <v>63</v>
+        <v>164</v>
       </c>
       <c r="AL3" t="s">
-        <v>64</v>
+        <v>221</v>
       </c>
       <c r="AM3" t="s">
-        <v>65</v>
+        <v>222</v>
       </c>
       <c r="AN3" t="s">
-        <v>66</v>
+        <v>223</v>
       </c>
     </row>
     <row r="4" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>67</v>
+        <v>207</v>
       </c>
       <c r="B4" s="1">
-        <v>46056</v>
+        <v>46047</v>
       </c>
       <c r="C4" t="s">
-        <v>68</v>
-      </c>
-      <c r="E4">
-        <v>9550090201</v>
+        <v>117</v>
+      </c>
+      <c r="E4" t="s">
+        <v>208</v>
       </c>
       <c r="F4" t="s">
-        <v>69</v>
+        <v>209</v>
       </c>
       <c r="G4" t="s">
-        <v>43</v>
+        <v>194</v>
       </c>
       <c r="H4" t="s">
-        <v>60</v>
-      </c>
-      <c r="J4" t="s">
-        <v>70</v>
+        <v>44</v>
+      </c>
+      <c r="I4" t="s">
+        <v>210</v>
       </c>
       <c r="K4" t="s">
         <v>46</v>
       </c>
       <c r="L4" s="2">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="M4">
         <v>1</v>
       </c>
       <c r="N4" t="s">
-        <v>71</v>
+        <v>211</v>
+      </c>
+      <c r="O4" t="s">
+        <v>212</v>
+      </c>
+      <c r="P4" t="s">
+        <v>213</v>
       </c>
       <c r="Z4">
-        <v>250</v>
+        <v>500</v>
+      </c>
+      <c r="AA4">
+        <v>5</v>
       </c>
       <c r="AB4">
-        <v>10996</v>
+        <v>10978</v>
       </c>
       <c r="AC4" s="3">
-        <v>46056.500578703701</v>
+        <v>46047.799675925926</v>
       </c>
       <c r="AD4" s="3">
-        <v>46056.271412037036</v>
+        <v>46047.570509259262</v>
       </c>
       <c r="AE4" t="s">
         <v>50</v>
       </c>
-      <c r="AF4" t="s">
-        <v>72</v>
-      </c>
       <c r="AG4">
-        <v>250</v>
-      </c>
-      <c r="AH4" s="3">
-        <v>46056.501030092593</v>
+        <v>500</v>
       </c>
       <c r="AI4" t="s">
-        <v>73</v>
+        <v>126</v>
       </c>
       <c r="AK4" t="s">
-        <v>63</v>
+        <v>214</v>
       </c>
       <c r="AL4" t="s">
-        <v>74</v>
+        <v>215</v>
       </c>
       <c r="AM4" t="s">
-        <v>75</v>
+        <v>216</v>
       </c>
       <c r="AN4" t="s">
-        <v>76</v>
+        <v>217</v>
       </c>
     </row>
     <row r="5" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>77</v>
+        <v>199</v>
       </c>
       <c r="B5" s="1">
-        <v>46056</v>
+        <v>46048</v>
       </c>
       <c r="C5" t="s">
-        <v>68</v>
+        <v>117</v>
       </c>
       <c r="E5">
-        <v>9550090201</v>
+        <v>8088039266</v>
       </c>
       <c r="F5" t="s">
-        <v>69</v>
+        <v>200</v>
       </c>
       <c r="G5" t="s">
         <v>43</v>
       </c>
       <c r="H5" t="s">
-        <v>60</v>
-      </c>
-      <c r="J5" t="s">
-        <v>70</v>
+        <v>44</v>
+      </c>
+      <c r="I5" t="s">
+        <v>201</v>
       </c>
       <c r="K5" t="s">
         <v>46</v>
@@ -1958,19 +2551,19 @@
         <v>1</v>
       </c>
       <c r="N5" t="s">
-        <v>71</v>
+        <v>202</v>
       </c>
       <c r="Z5">
         <v>250</v>
       </c>
       <c r="AB5">
-        <v>10995</v>
+        <v>10979</v>
       </c>
       <c r="AC5" s="3">
-        <v>46056.495879629627</v>
+        <v>46048.402708333335</v>
       </c>
       <c r="AD5" s="3">
-        <v>46056.266712962963</v>
+        <v>46048.173541666663</v>
       </c>
       <c r="AE5" t="s">
         <v>50</v>
@@ -1978,508 +2571,475 @@
       <c r="AG5">
         <v>250</v>
       </c>
+      <c r="AI5" t="s">
+        <v>126</v>
+      </c>
       <c r="AK5" t="s">
-        <v>63</v>
+        <v>203</v>
       </c>
       <c r="AL5" t="s">
-        <v>78</v>
+        <v>204</v>
       </c>
       <c r="AM5" t="s">
-        <v>79</v>
+        <v>205</v>
       </c>
       <c r="AN5" t="s">
-        <v>80</v>
+        <v>206</v>
       </c>
     </row>
     <row r="6" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>81</v>
+        <v>191</v>
       </c>
       <c r="B6" s="1">
-        <v>46055</v>
+        <v>46048</v>
       </c>
       <c r="C6" t="s">
-        <v>82</v>
+        <v>192</v>
       </c>
       <c r="E6">
-        <v>9345986156</v>
+        <v>7338555271</v>
       </c>
       <c r="F6" t="s">
-        <v>83</v>
+        <v>193</v>
       </c>
       <c r="G6" t="s">
-        <v>43</v>
+        <v>194</v>
       </c>
       <c r="H6" t="s">
         <v>44</v>
       </c>
       <c r="I6" t="s">
-        <v>84</v>
+        <v>195</v>
       </c>
       <c r="K6" t="s">
         <v>46</v>
       </c>
       <c r="L6" s="2">
-        <v>500</v>
+        <v>2000</v>
       </c>
       <c r="M6">
         <v>1</v>
       </c>
-      <c r="N6" t="s">
-        <v>85</v>
-      </c>
-      <c r="O6" t="s">
-        <v>86</v>
-      </c>
-      <c r="P6" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>88</v>
-      </c>
       <c r="Z6">
-        <v>500</v>
+        <v>2000</v>
       </c>
       <c r="AB6">
-        <v>10994</v>
+        <v>10980</v>
       </c>
       <c r="AC6" s="3">
-        <v>46055.574965277781</v>
+        <v>46048.933738425927</v>
       </c>
       <c r="AD6" s="3">
-        <v>46055.34579861111</v>
+        <v>46048.704571759263</v>
       </c>
       <c r="AE6" t="s">
         <v>50</v>
       </c>
-      <c r="AF6" t="s">
-        <v>89</v>
-      </c>
       <c r="AG6">
-        <v>500</v>
-      </c>
-      <c r="AH6" s="3">
-        <v>46055.579826388886</v>
+        <v>2000</v>
       </c>
       <c r="AI6" t="s">
-        <v>73</v>
+        <v>126</v>
       </c>
       <c r="AK6" t="s">
-        <v>90</v>
+        <v>164</v>
       </c>
       <c r="AL6" t="s">
-        <v>91</v>
+        <v>196</v>
       </c>
       <c r="AM6" t="s">
-        <v>92</v>
+        <v>197</v>
       </c>
       <c r="AN6" t="s">
-        <v>93</v>
+        <v>198</v>
       </c>
     </row>
     <row r="7" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>94</v>
+        <v>183</v>
       </c>
       <c r="B7" s="1">
-        <v>46055</v>
+        <v>46048</v>
       </c>
       <c r="C7" t="s">
-        <v>82</v>
+        <v>56</v>
+      </c>
+      <c r="D7" t="s">
+        <v>184</v>
       </c>
       <c r="E7">
-        <v>7760432520</v>
+        <v>9500346257</v>
       </c>
       <c r="F7" t="s">
-        <v>95</v>
+        <v>185</v>
       </c>
       <c r="G7" t="s">
-        <v>43</v>
+        <v>130</v>
       </c>
       <c r="H7" t="s">
         <v>44</v>
       </c>
       <c r="I7" t="s">
-        <v>84</v>
+        <v>186</v>
       </c>
       <c r="K7" t="s">
         <v>46</v>
       </c>
       <c r="L7" s="2">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="M7">
         <v>1</v>
       </c>
-      <c r="N7" t="s">
-        <v>96</v>
-      </c>
-      <c r="O7" t="s">
-        <v>97</v>
-      </c>
-      <c r="P7" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>99</v>
-      </c>
       <c r="Z7">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="AB7">
-        <v>10993</v>
+        <v>10981</v>
       </c>
       <c r="AC7" s="3">
-        <v>46055.572141203702</v>
+        <v>46048.966412037036</v>
       </c>
       <c r="AD7" s="3">
-        <v>46055.342974537038</v>
+        <v>46048.737245370372</v>
       </c>
       <c r="AE7" t="s">
         <v>50</v>
       </c>
-      <c r="AF7" t="s">
-        <v>100</v>
-      </c>
       <c r="AG7">
-        <v>500</v>
-      </c>
-      <c r="AH7" s="3">
-        <v>46055.572557870371</v>
+        <v>1500</v>
       </c>
       <c r="AI7" t="s">
-        <v>73</v>
+        <v>126</v>
       </c>
       <c r="AK7" t="s">
-        <v>63</v>
+        <v>187</v>
       </c>
       <c r="AL7" t="s">
-        <v>101</v>
+        <v>188</v>
       </c>
       <c r="AM7" t="s">
-        <v>102</v>
+        <v>189</v>
       </c>
       <c r="AN7" t="s">
-        <v>103</v>
+        <v>190</v>
       </c>
     </row>
     <row r="8" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>104</v>
+        <v>173</v>
       </c>
       <c r="B8" s="1">
-        <v>46055</v>
+        <v>46050</v>
       </c>
       <c r="C8" t="s">
-        <v>82</v>
+        <v>174</v>
       </c>
       <c r="E8">
-        <v>9345986156</v>
+        <v>9901649673</v>
       </c>
       <c r="F8" t="s">
-        <v>83</v>
+        <v>175</v>
       </c>
       <c r="G8" t="s">
-        <v>43</v>
+        <v>176</v>
       </c>
       <c r="H8" t="s">
         <v>60</v>
       </c>
       <c r="J8" t="s">
-        <v>70</v>
+        <v>177</v>
       </c>
       <c r="K8" t="s">
         <v>46</v>
       </c>
       <c r="L8" s="2">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="M8">
         <v>1</v>
       </c>
       <c r="N8" t="s">
-        <v>105</v>
+        <v>178</v>
       </c>
       <c r="Z8">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="AB8">
-        <v>10992</v>
+        <v>10982</v>
       </c>
       <c r="AC8" s="3">
-        <v>46055.564791666664</v>
+        <v>46050.778807870367</v>
       </c>
       <c r="AD8" s="3">
-        <v>46055.335625</v>
+        <v>46050.549641203703</v>
       </c>
       <c r="AE8" t="s">
         <v>50</v>
       </c>
-      <c r="AF8" t="s">
-        <v>106</v>
-      </c>
       <c r="AG8">
-        <v>250</v>
-      </c>
-      <c r="AH8" s="3">
-        <v>46055.565763888888</v>
+        <v>500</v>
       </c>
       <c r="AI8" t="s">
-        <v>73</v>
+        <v>126</v>
       </c>
       <c r="AK8" t="s">
-        <v>90</v>
+        <v>179</v>
       </c>
       <c r="AL8" t="s">
-        <v>91</v>
+        <v>180</v>
       </c>
       <c r="AM8" t="s">
-        <v>107</v>
+        <v>181</v>
       </c>
       <c r="AN8" t="s">
-        <v>108</v>
+        <v>182</v>
       </c>
     </row>
     <row r="9" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>109</v>
+        <v>168</v>
       </c>
       <c r="B9" s="1">
-        <v>46055</v>
+        <v>46050</v>
       </c>
       <c r="C9" t="s">
-        <v>82</v>
+        <v>159</v>
       </c>
       <c r="E9">
-        <v>9902879824</v>
+        <v>8217068239</v>
       </c>
       <c r="F9" t="s">
-        <v>110</v>
+        <v>160</v>
       </c>
       <c r="G9" t="s">
-        <v>59</v>
+        <v>130</v>
       </c>
       <c r="H9" t="s">
         <v>60</v>
       </c>
       <c r="J9" t="s">
-        <v>111</v>
+        <v>152</v>
       </c>
       <c r="K9" t="s">
         <v>46</v>
       </c>
       <c r="L9" s="2">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="M9">
         <v>1</v>
       </c>
       <c r="N9" t="s">
-        <v>96</v>
+        <v>162</v>
+      </c>
+      <c r="O9" t="s">
+        <v>163</v>
+      </c>
+      <c r="P9" t="s">
+        <v>169</v>
       </c>
       <c r="Z9">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="AB9">
-        <v>10991</v>
+        <v>10983</v>
       </c>
       <c r="AC9" s="3">
-        <v>46055.564004629632</v>
+        <v>46050.789479166669</v>
       </c>
       <c r="AD9" s="3">
-        <v>46055.334837962961</v>
+        <v>46050.560312499998</v>
       </c>
       <c r="AE9" t="s">
         <v>50</v>
       </c>
-      <c r="AF9" t="s">
-        <v>112</v>
-      </c>
       <c r="AG9">
-        <v>250</v>
-      </c>
-      <c r="AH9" s="3">
-        <v>46055.565520833334</v>
+        <v>500</v>
       </c>
       <c r="AI9" t="s">
-        <v>73</v>
+        <v>126</v>
       </c>
       <c r="AK9" t="s">
-        <v>51</v>
+        <v>164</v>
       </c>
       <c r="AL9" t="s">
-        <v>113</v>
+        <v>170</v>
       </c>
       <c r="AM9" t="s">
-        <v>114</v>
+        <v>171</v>
       </c>
       <c r="AN9" t="s">
-        <v>115</v>
+        <v>172</v>
       </c>
     </row>
     <row r="10" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>116</v>
+        <v>158</v>
       </c>
       <c r="B10" s="1">
-        <v>46054</v>
+        <v>46051</v>
       </c>
       <c r="C10" t="s">
-        <v>117</v>
+        <v>159</v>
       </c>
       <c r="E10">
-        <v>9535724836</v>
+        <v>8217068269</v>
       </c>
       <c r="F10" t="s">
-        <v>118</v>
+        <v>160</v>
       </c>
       <c r="G10" t="s">
-        <v>59</v>
+        <v>130</v>
       </c>
       <c r="H10" t="s">
         <v>44</v>
       </c>
       <c r="I10" t="s">
-        <v>119</v>
+        <v>161</v>
       </c>
       <c r="K10" t="s">
         <v>46</v>
       </c>
       <c r="L10" s="2">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="M10">
         <v>1</v>
       </c>
       <c r="N10" t="s">
-        <v>120</v>
+        <v>162</v>
+      </c>
+      <c r="O10" t="s">
+        <v>163</v>
       </c>
       <c r="Z10">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="AB10">
-        <v>10990</v>
+        <v>10984</v>
       </c>
       <c r="AC10" s="3">
-        <v>46054.439432870371</v>
+        <v>46051.490763888891</v>
       </c>
       <c r="AD10" s="3">
-        <v>46055.224143518521</v>
+        <v>46051.261597222219</v>
       </c>
       <c r="AE10" t="s">
         <v>50</v>
       </c>
-      <c r="AF10" t="s">
-        <v>121</v>
-      </c>
       <c r="AG10">
-        <v>250</v>
-      </c>
-      <c r="AH10" s="3">
-        <v>46055.453043981484</v>
+        <v>500</v>
       </c>
       <c r="AI10" t="s">
-        <v>73</v>
+        <v>126</v>
       </c>
       <c r="AK10" t="s">
-        <v>63</v>
+        <v>164</v>
       </c>
       <c r="AL10" t="s">
-        <v>122</v>
+        <v>165</v>
       </c>
       <c r="AM10" t="s">
-        <v>123</v>
+        <v>166</v>
       </c>
       <c r="AN10" t="s">
-        <v>124</v>
+        <v>167</v>
       </c>
     </row>
     <row r="11" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>125</v>
+        <v>149</v>
       </c>
       <c r="B11" s="1">
-        <v>46054</v>
+        <v>46053</v>
       </c>
       <c r="C11" t="s">
-        <v>117</v>
+        <v>150</v>
       </c>
       <c r="E11">
-        <v>9535724836</v>
+        <v>9663926668</v>
       </c>
       <c r="F11" t="s">
-        <v>118</v>
+        <v>151</v>
       </c>
       <c r="G11" t="s">
-        <v>43</v>
+        <v>130</v>
       </c>
       <c r="H11" t="s">
-        <v>44</v>
-      </c>
-      <c r="I11" t="s">
-        <v>119</v>
+        <v>60</v>
+      </c>
+      <c r="J11" t="s">
+        <v>152</v>
       </c>
       <c r="K11" t="s">
         <v>46</v>
       </c>
       <c r="L11" s="2">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="M11">
         <v>1</v>
       </c>
       <c r="N11" t="s">
-        <v>120</v>
+        <v>153</v>
+      </c>
+      <c r="O11" t="s">
+        <v>153</v>
+      </c>
+      <c r="P11" t="s">
+        <v>153</v>
       </c>
       <c r="Z11">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="AB11">
-        <v>10989</v>
+        <v>10985</v>
       </c>
       <c r="AC11" s="3">
-        <v>46054.4378125</v>
+        <v>46053.079340277778</v>
       </c>
       <c r="AD11" s="3">
-        <v>46054.208645833336</v>
+        <v>46052.850173611114</v>
       </c>
       <c r="AE11" t="s">
         <v>50</v>
       </c>
       <c r="AG11">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="AI11" t="s">
         <v>126</v>
       </c>
       <c r="AK11" t="s">
-        <v>63</v>
+        <v>154</v>
       </c>
       <c r="AL11" t="s">
-        <v>122</v>
+        <v>155</v>
       </c>
       <c r="AM11" t="s">
-        <v>127</v>
+        <v>156</v>
       </c>
       <c r="AN11" t="s">
-        <v>128</v>
+        <v>157</v>
       </c>
     </row>
     <row r="12" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="B12" s="1">
-        <v>46054</v>
+        <v>46053</v>
       </c>
       <c r="C12" t="s">
-        <v>117</v>
+        <v>142</v>
       </c>
       <c r="E12">
-        <v>9535724836</v>
+        <v>8123518986</v>
       </c>
       <c r="F12" t="s">
-        <v>118</v>
+        <v>143</v>
       </c>
       <c r="G12" t="s">
         <v>130</v>
@@ -2488,52 +3048,49 @@
         <v>44</v>
       </c>
       <c r="I12" t="s">
-        <v>119</v>
+        <v>144</v>
       </c>
       <c r="K12" t="s">
         <v>46</v>
       </c>
       <c r="L12" s="2">
-        <v>250</v>
+        <v>1500</v>
       </c>
       <c r="M12">
         <v>1</v>
       </c>
-      <c r="N12" t="s">
-        <v>120</v>
-      </c>
       <c r="Z12">
-        <v>250</v>
+        <v>1500</v>
       </c>
       <c r="AB12">
-        <v>10988</v>
+        <v>10986</v>
       </c>
       <c r="AC12" s="3">
-        <v>46054.43513888889</v>
+        <v>46053.55128472222</v>
       </c>
       <c r="AD12" s="3">
-        <v>46054.205972222226</v>
+        <v>46053.322118055556</v>
       </c>
       <c r="AE12" t="s">
         <v>50</v>
       </c>
       <c r="AG12">
-        <v>250</v>
+        <v>1500</v>
       </c>
       <c r="AI12" t="s">
         <v>126</v>
       </c>
       <c r="AK12" t="s">
-        <v>63</v>
+        <v>145</v>
       </c>
       <c r="AL12" t="s">
-        <v>122</v>
+        <v>146</v>
       </c>
       <c r="AM12" t="s">
-        <v>131</v>
+        <v>147</v>
       </c>
       <c r="AN12" t="s">
-        <v>132</v>
+        <v>148</v>
       </c>
     </row>
     <row r="13" spans="1:40" x14ac:dyDescent="0.3">
@@ -2612,19 +3169,19 @@
     </row>
     <row r="14" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="B14" s="1">
-        <v>46053</v>
+        <v>46054</v>
       </c>
       <c r="C14" t="s">
-        <v>142</v>
+        <v>117</v>
       </c>
       <c r="E14">
-        <v>8123518986</v>
+        <v>9535724836</v>
       </c>
       <c r="F14" t="s">
-        <v>143</v>
+        <v>118</v>
       </c>
       <c r="G14" t="s">
         <v>130</v>
@@ -2633,513 +3190,552 @@
         <v>44</v>
       </c>
       <c r="I14" t="s">
-        <v>144</v>
+        <v>119</v>
       </c>
       <c r="K14" t="s">
         <v>46</v>
       </c>
       <c r="L14" s="2">
-        <v>1500</v>
+        <v>250</v>
       </c>
       <c r="M14">
         <v>1</v>
       </c>
+      <c r="N14" t="s">
+        <v>120</v>
+      </c>
       <c r="Z14">
-        <v>1500</v>
+        <v>250</v>
       </c>
       <c r="AB14">
-        <v>10986</v>
+        <v>10988</v>
       </c>
       <c r="AC14" s="3">
-        <v>46053.55128472222</v>
+        <v>46054.43513888889</v>
       </c>
       <c r="AD14" s="3">
-        <v>46053.322118055556</v>
+        <v>46054.205972222226</v>
       </c>
       <c r="AE14" t="s">
         <v>50</v>
       </c>
       <c r="AG14">
-        <v>1500</v>
+        <v>250</v>
       </c>
       <c r="AI14" t="s">
         <v>126</v>
       </c>
       <c r="AK14" t="s">
-        <v>145</v>
+        <v>63</v>
       </c>
       <c r="AL14" t="s">
-        <v>146</v>
+        <v>122</v>
       </c>
       <c r="AM14" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="AN14" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
     </row>
     <row r="15" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>149</v>
+        <v>125</v>
       </c>
       <c r="B15" s="1">
-        <v>46053</v>
+        <v>46054</v>
       </c>
       <c r="C15" t="s">
-        <v>150</v>
+        <v>117</v>
       </c>
       <c r="E15">
-        <v>9663926668</v>
+        <v>9535724836</v>
       </c>
       <c r="F15" t="s">
-        <v>151</v>
+        <v>118</v>
       </c>
       <c r="G15" t="s">
-        <v>130</v>
+        <v>43</v>
       </c>
       <c r="H15" t="s">
-        <v>60</v>
-      </c>
-      <c r="J15" t="s">
-        <v>152</v>
+        <v>44</v>
+      </c>
+      <c r="I15" t="s">
+        <v>119</v>
       </c>
       <c r="K15" t="s">
         <v>46</v>
       </c>
       <c r="L15" s="2">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="M15">
         <v>1</v>
       </c>
       <c r="N15" t="s">
-        <v>153</v>
-      </c>
-      <c r="O15" t="s">
-        <v>153</v>
-      </c>
-      <c r="P15" t="s">
-        <v>153</v>
+        <v>120</v>
       </c>
       <c r="Z15">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="AB15">
-        <v>10985</v>
+        <v>10989</v>
       </c>
       <c r="AC15" s="3">
-        <v>46053.079340277778</v>
+        <v>46054.4378125</v>
       </c>
       <c r="AD15" s="3">
-        <v>46052.850173611114</v>
+        <v>46054.208645833336</v>
       </c>
       <c r="AE15" t="s">
         <v>50</v>
       </c>
       <c r="AG15">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="AI15" t="s">
         <v>126</v>
       </c>
       <c r="AK15" t="s">
-        <v>154</v>
+        <v>63</v>
       </c>
       <c r="AL15" t="s">
-        <v>155</v>
+        <v>122</v>
       </c>
       <c r="AM15" t="s">
-        <v>156</v>
+        <v>127</v>
       </c>
       <c r="AN15" t="s">
-        <v>157</v>
+        <v>128</v>
       </c>
     </row>
     <row r="16" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>158</v>
+        <v>116</v>
       </c>
       <c r="B16" s="1">
-        <v>46051</v>
+        <v>46054</v>
       </c>
       <c r="C16" t="s">
-        <v>159</v>
+        <v>117</v>
       </c>
       <c r="E16">
-        <v>8217068269</v>
+        <v>9535724836</v>
       </c>
       <c r="F16" t="s">
-        <v>160</v>
+        <v>118</v>
       </c>
       <c r="G16" t="s">
-        <v>130</v>
+        <v>59</v>
       </c>
       <c r="H16" t="s">
         <v>44</v>
       </c>
       <c r="I16" t="s">
-        <v>161</v>
+        <v>119</v>
       </c>
       <c r="K16" t="s">
         <v>46</v>
       </c>
       <c r="L16" s="2">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="M16">
         <v>1</v>
       </c>
       <c r="N16" t="s">
-        <v>162</v>
-      </c>
-      <c r="O16" t="s">
-        <v>163</v>
+        <v>120</v>
       </c>
       <c r="Z16">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="AB16">
-        <v>10984</v>
+        <v>10990</v>
       </c>
       <c r="AC16" s="3">
-        <v>46051.490763888891</v>
+        <v>46054.439432870371</v>
       </c>
       <c r="AD16" s="3">
-        <v>46051.261597222219</v>
+        <v>46055.224143518521</v>
       </c>
       <c r="AE16" t="s">
         <v>50</v>
       </c>
+      <c r="AF16" t="s">
+        <v>121</v>
+      </c>
       <c r="AG16">
-        <v>500</v>
+        <v>250</v>
+      </c>
+      <c r="AH16" s="3">
+        <v>46055.453043981484</v>
       </c>
       <c r="AI16" t="s">
-        <v>126</v>
+        <v>73</v>
       </c>
       <c r="AK16" t="s">
-        <v>164</v>
+        <v>63</v>
       </c>
       <c r="AL16" t="s">
-        <v>165</v>
+        <v>122</v>
       </c>
       <c r="AM16" t="s">
-        <v>166</v>
+        <v>123</v>
       </c>
       <c r="AN16" t="s">
-        <v>167</v>
+        <v>124</v>
       </c>
     </row>
     <row r="17" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>168</v>
+        <v>109</v>
       </c>
       <c r="B17" s="1">
-        <v>46050</v>
+        <v>46055</v>
       </c>
       <c r="C17" t="s">
-        <v>159</v>
+        <v>82</v>
       </c>
       <c r="E17">
-        <v>8217068239</v>
+        <v>9902879824</v>
       </c>
       <c r="F17" t="s">
-        <v>160</v>
+        <v>110</v>
       </c>
       <c r="G17" t="s">
-        <v>130</v>
+        <v>59</v>
       </c>
       <c r="H17" t="s">
         <v>60</v>
       </c>
       <c r="J17" t="s">
-        <v>152</v>
+        <v>111</v>
       </c>
       <c r="K17" t="s">
         <v>46</v>
       </c>
       <c r="L17" s="2">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="M17">
         <v>1</v>
       </c>
       <c r="N17" t="s">
-        <v>162</v>
-      </c>
-      <c r="O17" t="s">
-        <v>163</v>
-      </c>
-      <c r="P17" t="s">
-        <v>169</v>
+        <v>96</v>
       </c>
       <c r="Z17">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="AB17">
-        <v>10983</v>
+        <v>10991</v>
       </c>
       <c r="AC17" s="3">
-        <v>46050.789479166669</v>
+        <v>46055.564004629632</v>
       </c>
       <c r="AD17" s="3">
-        <v>46050.560312499998</v>
+        <v>46055.334837962961</v>
       </c>
       <c r="AE17" t="s">
         <v>50</v>
       </c>
+      <c r="AF17" t="s">
+        <v>112</v>
+      </c>
       <c r="AG17">
-        <v>500</v>
+        <v>250</v>
+      </c>
+      <c r="AH17" s="3">
+        <v>46055.565520833334</v>
       </c>
       <c r="AI17" t="s">
-        <v>126</v>
+        <v>73</v>
       </c>
       <c r="AK17" t="s">
-        <v>164</v>
+        <v>51</v>
       </c>
       <c r="AL17" t="s">
-        <v>170</v>
+        <v>113</v>
       </c>
       <c r="AM17" t="s">
-        <v>171</v>
+        <v>114</v>
       </c>
       <c r="AN17" t="s">
-        <v>172</v>
+        <v>115</v>
       </c>
     </row>
     <row r="18" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>173</v>
+        <v>104</v>
       </c>
       <c r="B18" s="1">
-        <v>46050</v>
+        <v>46055</v>
       </c>
       <c r="C18" t="s">
-        <v>174</v>
+        <v>82</v>
       </c>
       <c r="E18">
-        <v>9901649673</v>
+        <v>9345986156</v>
       </c>
       <c r="F18" t="s">
-        <v>175</v>
+        <v>83</v>
       </c>
       <c r="G18" t="s">
-        <v>176</v>
+        <v>43</v>
       </c>
       <c r="H18" t="s">
         <v>60</v>
       </c>
       <c r="J18" t="s">
-        <v>177</v>
+        <v>70</v>
       </c>
       <c r="K18" t="s">
         <v>46</v>
       </c>
       <c r="L18" s="2">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="M18">
         <v>1</v>
       </c>
       <c r="N18" t="s">
-        <v>178</v>
+        <v>105</v>
       </c>
       <c r="Z18">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="AB18">
-        <v>10982</v>
+        <v>10992</v>
       </c>
       <c r="AC18" s="3">
-        <v>46050.778807870367</v>
+        <v>46055.564791666664</v>
       </c>
       <c r="AD18" s="3">
-        <v>46050.549641203703</v>
+        <v>46055.335625</v>
       </c>
       <c r="AE18" t="s">
         <v>50</v>
       </c>
+      <c r="AF18" t="s">
+        <v>106</v>
+      </c>
       <c r="AG18">
-        <v>500</v>
+        <v>250</v>
+      </c>
+      <c r="AH18" s="3">
+        <v>46055.565763888888</v>
       </c>
       <c r="AI18" t="s">
-        <v>126</v>
+        <v>73</v>
       </c>
       <c r="AK18" t="s">
-        <v>179</v>
+        <v>90</v>
       </c>
       <c r="AL18" t="s">
-        <v>180</v>
+        <v>91</v>
       </c>
       <c r="AM18" t="s">
-        <v>181</v>
+        <v>107</v>
       </c>
       <c r="AN18" t="s">
-        <v>182</v>
+        <v>108</v>
       </c>
     </row>
     <row r="19" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>183</v>
+        <v>94</v>
       </c>
       <c r="B19" s="1">
-        <v>46048</v>
+        <v>46055</v>
       </c>
       <c r="C19" t="s">
-        <v>56</v>
-      </c>
-      <c r="D19" t="s">
-        <v>184</v>
+        <v>82</v>
       </c>
       <c r="E19">
-        <v>9500346257</v>
+        <v>7760432520</v>
       </c>
       <c r="F19" t="s">
-        <v>185</v>
+        <v>95</v>
       </c>
       <c r="G19" t="s">
-        <v>130</v>
+        <v>43</v>
       </c>
       <c r="H19" t="s">
         <v>44</v>
       </c>
       <c r="I19" t="s">
-        <v>186</v>
+        <v>84</v>
       </c>
       <c r="K19" t="s">
         <v>46</v>
       </c>
       <c r="L19" s="2">
-        <v>1500</v>
+        <v>500</v>
       </c>
       <c r="M19">
         <v>1</v>
       </c>
+      <c r="N19" t="s">
+        <v>96</v>
+      </c>
+      <c r="O19" t="s">
+        <v>97</v>
+      </c>
+      <c r="P19" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>99</v>
+      </c>
       <c r="Z19">
-        <v>1500</v>
+        <v>500</v>
       </c>
       <c r="AB19">
-        <v>10981</v>
+        <v>10993</v>
       </c>
       <c r="AC19" s="3">
-        <v>46048.966412037036</v>
+        <v>46055.572141203702</v>
       </c>
       <c r="AD19" s="3">
-        <v>46048.737245370372</v>
+        <v>46055.342974537038</v>
       </c>
       <c r="AE19" t="s">
         <v>50</v>
       </c>
+      <c r="AF19" t="s">
+        <v>100</v>
+      </c>
       <c r="AG19">
-        <v>1500</v>
+        <v>500</v>
+      </c>
+      <c r="AH19" s="3">
+        <v>46055.572557870371</v>
       </c>
       <c r="AI19" t="s">
-        <v>126</v>
+        <v>73</v>
       </c>
       <c r="AK19" t="s">
-        <v>187</v>
+        <v>63</v>
       </c>
       <c r="AL19" t="s">
-        <v>188</v>
+        <v>101</v>
       </c>
       <c r="AM19" t="s">
-        <v>189</v>
+        <v>102</v>
       </c>
       <c r="AN19" t="s">
-        <v>190</v>
+        <v>103</v>
       </c>
     </row>
     <row r="20" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>191</v>
+        <v>81</v>
       </c>
       <c r="B20" s="1">
-        <v>46048</v>
+        <v>46055</v>
       </c>
       <c r="C20" t="s">
-        <v>192</v>
+        <v>82</v>
       </c>
       <c r="E20">
-        <v>7338555271</v>
+        <v>9345986156</v>
       </c>
       <c r="F20" t="s">
-        <v>193</v>
+        <v>83</v>
       </c>
       <c r="G20" t="s">
-        <v>194</v>
+        <v>43</v>
       </c>
       <c r="H20" t="s">
         <v>44</v>
       </c>
       <c r="I20" t="s">
-        <v>195</v>
+        <v>84</v>
       </c>
       <c r="K20" t="s">
         <v>46</v>
       </c>
       <c r="L20" s="2">
-        <v>2000</v>
+        <v>500</v>
       </c>
       <c r="M20">
         <v>1</v>
       </c>
+      <c r="N20" t="s">
+        <v>85</v>
+      </c>
+      <c r="O20" t="s">
+        <v>86</v>
+      </c>
+      <c r="P20" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>88</v>
+      </c>
       <c r="Z20">
-        <v>2000</v>
+        <v>500</v>
       </c>
       <c r="AB20">
-        <v>10980</v>
+        <v>10994</v>
       </c>
       <c r="AC20" s="3">
-        <v>46048.933738425927</v>
+        <v>46055.574965277781</v>
       </c>
       <c r="AD20" s="3">
-        <v>46048.704571759263</v>
+        <v>46055.34579861111</v>
       </c>
       <c r="AE20" t="s">
         <v>50</v>
       </c>
+      <c r="AF20" t="s">
+        <v>89</v>
+      </c>
       <c r="AG20">
-        <v>2000</v>
+        <v>500</v>
+      </c>
+      <c r="AH20" s="3">
+        <v>46055.579826388886</v>
       </c>
       <c r="AI20" t="s">
-        <v>126</v>
+        <v>73</v>
       </c>
       <c r="AK20" t="s">
-        <v>164</v>
+        <v>90</v>
       </c>
       <c r="AL20" t="s">
-        <v>196</v>
+        <v>91</v>
       </c>
       <c r="AM20" t="s">
-        <v>197</v>
+        <v>92</v>
       </c>
       <c r="AN20" t="s">
-        <v>198</v>
+        <v>93</v>
       </c>
     </row>
     <row r="21" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>199</v>
+        <v>77</v>
       </c>
       <c r="B21" s="1">
-        <v>46048</v>
+        <v>46056</v>
       </c>
       <c r="C21" t="s">
-        <v>117</v>
+        <v>68</v>
       </c>
       <c r="E21">
-        <v>8088039266</v>
+        <v>9550090201</v>
       </c>
       <c r="F21" t="s">
-        <v>200</v>
+        <v>69</v>
       </c>
       <c r="G21" t="s">
         <v>43</v>
       </c>
       <c r="H21" t="s">
-        <v>44</v>
-      </c>
-      <c r="I21" t="s">
-        <v>201</v>
+        <v>60</v>
+      </c>
+      <c r="J21" t="s">
+        <v>70</v>
       </c>
       <c r="K21" t="s">
         <v>46</v>
@@ -3151,19 +3747,19 @@
         <v>1</v>
       </c>
       <c r="N21" t="s">
-        <v>202</v>
+        <v>71</v>
       </c>
       <c r="Z21">
         <v>250</v>
       </c>
       <c r="AB21">
-        <v>10979</v>
+        <v>10995</v>
       </c>
       <c r="AC21" s="3">
-        <v>46048.402708333335</v>
+        <v>46056.495879629627</v>
       </c>
       <c r="AD21" s="3">
-        <v>46048.173541666663</v>
+        <v>46056.266712962963</v>
       </c>
       <c r="AE21" t="s">
         <v>50</v>
@@ -3171,126 +3767,123 @@
       <c r="AG21">
         <v>250</v>
       </c>
-      <c r="AI21" t="s">
-        <v>126</v>
-      </c>
       <c r="AK21" t="s">
-        <v>203</v>
+        <v>63</v>
       </c>
       <c r="AL21" t="s">
-        <v>204</v>
+        <v>78</v>
       </c>
       <c r="AM21" t="s">
-        <v>205</v>
+        <v>79</v>
       </c>
       <c r="AN21" t="s">
-        <v>206</v>
+        <v>80</v>
       </c>
     </row>
     <row r="22" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>207</v>
+        <v>67</v>
       </c>
       <c r="B22" s="1">
-        <v>46047</v>
+        <v>46056</v>
       </c>
       <c r="C22" t="s">
-        <v>117</v>
-      </c>
-      <c r="E22" t="s">
-        <v>208</v>
+        <v>68</v>
+      </c>
+      <c r="E22">
+        <v>9550090201</v>
       </c>
       <c r="F22" t="s">
-        <v>209</v>
+        <v>69</v>
       </c>
       <c r="G22" t="s">
-        <v>194</v>
+        <v>43</v>
       </c>
       <c r="H22" t="s">
-        <v>44</v>
-      </c>
-      <c r="I22" t="s">
-        <v>210</v>
+        <v>60</v>
+      </c>
+      <c r="J22" t="s">
+        <v>70</v>
       </c>
       <c r="K22" t="s">
         <v>46</v>
       </c>
       <c r="L22" s="2">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="M22">
         <v>1</v>
       </c>
       <c r="N22" t="s">
-        <v>211</v>
-      </c>
-      <c r="O22" t="s">
-        <v>212</v>
-      </c>
-      <c r="P22" t="s">
-        <v>213</v>
+        <v>71</v>
       </c>
       <c r="Z22">
-        <v>500</v>
-      </c>
-      <c r="AA22">
-        <v>5</v>
+        <v>250</v>
       </c>
       <c r="AB22">
-        <v>10978</v>
+        <v>10996</v>
       </c>
       <c r="AC22" s="3">
-        <v>46047.799675925926</v>
+        <v>46056.500578703701</v>
       </c>
       <c r="AD22" s="3">
-        <v>46047.570509259262</v>
+        <v>46056.271412037036</v>
       </c>
       <c r="AE22" t="s">
         <v>50</v>
       </c>
+      <c r="AF22" t="s">
+        <v>72</v>
+      </c>
       <c r="AG22">
-        <v>500</v>
+        <v>250</v>
+      </c>
+      <c r="AH22" s="3">
+        <v>46056.501030092593</v>
       </c>
       <c r="AI22" t="s">
-        <v>126</v>
+        <v>73</v>
       </c>
       <c r="AK22" t="s">
-        <v>214</v>
+        <v>63</v>
       </c>
       <c r="AL22" t="s">
-        <v>215</v>
+        <v>74</v>
       </c>
       <c r="AM22" t="s">
-        <v>216</v>
+        <v>75</v>
       </c>
       <c r="AN22" t="s">
-        <v>217</v>
+        <v>76</v>
       </c>
     </row>
     <row r="23" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>218</v>
+        <v>55</v>
       </c>
       <c r="B23" s="1">
-        <v>46044</v>
+        <v>46056</v>
       </c>
       <c r="C23" t="s">
-        <v>117</v>
+        <v>56</v>
+      </c>
+      <c r="D23" t="s">
+        <v>57</v>
       </c>
       <c r="E23">
-        <v>9513865494</v>
+        <v>7760248799</v>
       </c>
       <c r="F23" t="s">
-        <v>219</v>
+        <v>58</v>
       </c>
       <c r="G23" t="s">
-        <v>176</v>
+        <v>59</v>
       </c>
       <c r="H23" t="s">
-        <v>44</v>
-      </c>
-      <c r="I23" t="s">
-        <v>201</v>
+        <v>60</v>
+      </c>
+      <c r="J23" t="s">
+        <v>61</v>
       </c>
       <c r="K23" t="s">
         <v>46</v>
@@ -3302,19 +3895,19 @@
         <v>1</v>
       </c>
       <c r="N23" t="s">
-        <v>220</v>
+        <v>62</v>
       </c>
       <c r="Z23">
         <v>250</v>
       </c>
       <c r="AB23">
-        <v>10977</v>
+        <v>10997</v>
       </c>
       <c r="AC23" s="3">
-        <v>46044.958495370367</v>
+        <v>46056.501666666663</v>
       </c>
       <c r="AD23" s="3">
-        <v>46046.369479166664</v>
+        <v>46056.272499999999</v>
       </c>
       <c r="AE23" t="s">
         <v>50</v>
@@ -3322,103 +3915,7119 @@
       <c r="AG23">
         <v>250</v>
       </c>
-      <c r="AH23" s="3">
-        <v>46046.595127314817</v>
-      </c>
-      <c r="AI23" t="s">
-        <v>126</v>
-      </c>
       <c r="AK23" t="s">
-        <v>164</v>
+        <v>63</v>
       </c>
       <c r="AL23" t="s">
-        <v>221</v>
+        <v>64</v>
       </c>
       <c r="AM23" t="s">
-        <v>222</v>
+        <v>65</v>
       </c>
       <c r="AN23" t="s">
-        <v>223</v>
+        <v>66</v>
       </c>
     </row>
     <row r="24" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>224</v>
+        <v>40</v>
       </c>
       <c r="B24" s="1">
-        <v>46043</v>
+        <v>46056</v>
       </c>
       <c r="C24" t="s">
-        <v>225</v>
+        <v>41</v>
       </c>
       <c r="E24">
-        <v>9986597385</v>
+        <v>9743990703</v>
       </c>
       <c r="F24" t="s">
-        <v>226</v>
+        <v>42</v>
       </c>
       <c r="G24" t="s">
-        <v>176</v>
+        <v>43</v>
       </c>
       <c r="H24" t="s">
         <v>44</v>
       </c>
       <c r="I24" t="s">
-        <v>227</v>
+        <v>45</v>
       </c>
       <c r="K24" t="s">
         <v>46</v>
       </c>
       <c r="L24" s="2">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="M24">
         <v>1</v>
       </c>
       <c r="N24" t="s">
-        <v>228</v>
+        <v>47</v>
+      </c>
+      <c r="O24" t="s">
+        <v>48</v>
+      </c>
+      <c r="P24" t="s">
+        <v>49</v>
       </c>
       <c r="Z24">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="AB24">
-        <v>10976</v>
+        <v>10998</v>
       </c>
       <c r="AC24" s="3">
-        <v>46043.596192129633</v>
+        <v>46056.565266203703</v>
       </c>
       <c r="AD24" s="3">
-        <v>46046.369745370372</v>
+        <v>46056.336099537039</v>
       </c>
       <c r="AE24" t="s">
         <v>50</v>
       </c>
-      <c r="AF24" t="s">
-        <v>229</v>
-      </c>
       <c r="AG24">
+        <v>500</v>
+      </c>
+      <c r="AK24" t="s">
+        <v>51</v>
+      </c>
+      <c r="AL24" t="s">
+        <v>52</v>
+      </c>
+      <c r="AM24" t="s">
+        <v>53</v>
+      </c>
+      <c r="AN24" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>234</v>
+      </c>
+      <c r="B25" s="1">
+        <v>46043</v>
+      </c>
+      <c r="C25" t="s">
+        <v>225</v>
+      </c>
+      <c r="E25">
+        <v>9041133603</v>
+      </c>
+      <c r="F25" t="s">
+        <v>226</v>
+      </c>
+      <c r="G25" t="s">
+        <v>176</v>
+      </c>
+      <c r="H25" t="s">
+        <v>44</v>
+      </c>
+      <c r="I25" t="s">
+        <v>227</v>
+      </c>
+      <c r="K25" t="s">
+        <v>46</v>
+      </c>
+      <c r="L25" s="2">
+        <v>275.69169960474301</v>
+      </c>
+      <c r="M25">
+        <v>1</v>
+      </c>
+      <c r="N25" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="26" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>235</v>
+      </c>
+      <c r="B26" s="1">
+        <v>46044</v>
+      </c>
+      <c r="C26" t="s">
+        <v>117</v>
+      </c>
+      <c r="E26">
+        <v>8568401712</v>
+      </c>
+      <c r="F26" t="s">
+        <v>219</v>
+      </c>
+      <c r="G26" t="s">
+        <v>176</v>
+      </c>
+      <c r="H26" t="s">
+        <v>44</v>
+      </c>
+      <c r="I26" t="s">
+        <v>201</v>
+      </c>
+      <c r="K26" t="s">
+        <v>46</v>
+      </c>
+      <c r="L26" s="2">
+        <v>255.18774703557301</v>
+      </c>
+      <c r="M26">
+        <v>1</v>
+      </c>
+      <c r="N26" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="27" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>236</v>
+      </c>
+      <c r="B27" s="1">
+        <v>46047</v>
+      </c>
+      <c r="C27" t="s">
+        <v>117</v>
+      </c>
+      <c r="E27" t="s">
+        <v>208</v>
+      </c>
+      <c r="F27" t="s">
+        <v>209</v>
+      </c>
+      <c r="G27" t="s">
+        <v>194</v>
+      </c>
+      <c r="H27" t="s">
+        <v>44</v>
+      </c>
+      <c r="I27" t="s">
+        <v>210</v>
+      </c>
+      <c r="K27" t="s">
+        <v>46</v>
+      </c>
+      <c r="L27" s="2">
+        <v>234.68379446640299</v>
+      </c>
+      <c r="M27">
+        <v>1</v>
+      </c>
+      <c r="N27" t="s">
+        <v>211</v>
+      </c>
+      <c r="O27" t="s">
+        <v>212</v>
+      </c>
+      <c r="P27" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="28" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>237</v>
+      </c>
+      <c r="B28" s="1">
+        <v>46048</v>
+      </c>
+      <c r="C28" t="s">
+        <v>117</v>
+      </c>
+      <c r="E28">
+        <v>9400682561.6894703</v>
+      </c>
+      <c r="F28" t="s">
+        <v>200</v>
+      </c>
+      <c r="G28" t="s">
+        <v>43</v>
+      </c>
+      <c r="H28" t="s">
+        <v>44</v>
+      </c>
+      <c r="I28" t="s">
+        <v>201</v>
+      </c>
+      <c r="K28" t="s">
+        <v>46</v>
+      </c>
+      <c r="L28" s="2">
+        <v>214.17984189723299</v>
+      </c>
+      <c r="M28">
+        <v>1</v>
+      </c>
+      <c r="N28" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="29" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>238</v>
+      </c>
+      <c r="B29" s="1">
+        <v>46048</v>
+      </c>
+      <c r="C29" t="s">
+        <v>192</v>
+      </c>
+      <c r="E29">
+        <v>9438117883.3360901</v>
+      </c>
+      <c r="F29" t="s">
+        <v>193</v>
+      </c>
+      <c r="G29" t="s">
+        <v>194</v>
+      </c>
+      <c r="H29" t="s">
+        <v>44</v>
+      </c>
+      <c r="I29" t="s">
+        <v>195</v>
+      </c>
+      <c r="K29" t="s">
+        <v>46</v>
+      </c>
+      <c r="L29" s="2">
+        <v>193.67588932806299</v>
+      </c>
+      <c r="M29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>239</v>
+      </c>
+      <c r="B30" s="1">
+        <v>46048</v>
+      </c>
+      <c r="C30" t="s">
+        <v>56</v>
+      </c>
+      <c r="D30" t="s">
+        <v>184</v>
+      </c>
+      <c r="E30">
+        <v>9475553204.9827003</v>
+      </c>
+      <c r="F30" t="s">
+        <v>185</v>
+      </c>
+      <c r="G30" t="s">
+        <v>130</v>
+      </c>
+      <c r="H30" t="s">
+        <v>44</v>
+      </c>
+      <c r="I30" t="s">
+        <v>186</v>
+      </c>
+      <c r="K30" t="s">
+        <v>46</v>
+      </c>
+      <c r="L30" s="2">
+        <v>173.171936758893</v>
+      </c>
+      <c r="M30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>240</v>
+      </c>
+      <c r="B31" s="1">
+        <v>46050</v>
+      </c>
+      <c r="C31" t="s">
+        <v>174</v>
+      </c>
+      <c r="E31">
+        <v>9512988526.6293201</v>
+      </c>
+      <c r="F31" t="s">
+        <v>175</v>
+      </c>
+      <c r="G31" t="s">
+        <v>176</v>
+      </c>
+      <c r="H31" t="s">
+        <v>60</v>
+      </c>
+      <c r="J31" t="s">
+        <v>177</v>
+      </c>
+      <c r="K31" t="s">
+        <v>46</v>
+      </c>
+      <c r="L31" s="2">
+        <v>152.667984189723</v>
+      </c>
+      <c r="M31">
+        <v>1</v>
+      </c>
+      <c r="N31" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="32" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>241</v>
+      </c>
+      <c r="B32" s="1">
+        <v>46050</v>
+      </c>
+      <c r="C32" t="s">
+        <v>159</v>
+      </c>
+      <c r="E32">
+        <v>9550423848.2759399</v>
+      </c>
+      <c r="F32" t="s">
+        <v>160</v>
+      </c>
+      <c r="G32" t="s">
+        <v>130</v>
+      </c>
+      <c r="H32" t="s">
+        <v>60</v>
+      </c>
+      <c r="J32" t="s">
+        <v>152</v>
+      </c>
+      <c r="K32" t="s">
+        <v>46</v>
+      </c>
+      <c r="L32" s="2">
+        <v>132.164031620553</v>
+      </c>
+      <c r="M32">
+        <v>1</v>
+      </c>
+      <c r="N32" t="s">
+        <v>162</v>
+      </c>
+      <c r="O32" t="s">
+        <v>163</v>
+      </c>
+      <c r="P32" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>242</v>
+      </c>
+      <c r="B33" s="1">
+        <v>46051</v>
+      </c>
+      <c r="C33" t="s">
+        <v>159</v>
+      </c>
+      <c r="E33">
+        <v>9587859169.9225597</v>
+      </c>
+      <c r="F33" t="s">
+        <v>160</v>
+      </c>
+      <c r="G33" t="s">
+        <v>130</v>
+      </c>
+      <c r="H33" t="s">
+        <v>410</v>
+      </c>
+      <c r="I33" t="s">
+        <v>161</v>
+      </c>
+      <c r="K33" t="s">
+        <v>46</v>
+      </c>
+      <c r="L33" s="2">
+        <v>111.66007905138299</v>
+      </c>
+      <c r="M33">
+        <v>1</v>
+      </c>
+      <c r="N33" t="s">
+        <v>162</v>
+      </c>
+      <c r="O33" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>243</v>
+      </c>
+      <c r="B34" s="1">
+        <v>46053</v>
+      </c>
+      <c r="C34" t="s">
+        <v>150</v>
+      </c>
+      <c r="E34">
+        <v>9625294491.56917</v>
+      </c>
+      <c r="F34" t="s">
+        <v>151</v>
+      </c>
+      <c r="G34" t="s">
+        <v>130</v>
+      </c>
+      <c r="H34" t="s">
+        <v>411</v>
+      </c>
+      <c r="J34" t="s">
+        <v>152</v>
+      </c>
+      <c r="K34" t="s">
+        <v>46</v>
+      </c>
+      <c r="L34" s="2">
+        <v>91.156126482213196</v>
+      </c>
+      <c r="M34">
+        <v>1</v>
+      </c>
+      <c r="N34" t="s">
+        <v>153</v>
+      </c>
+      <c r="O34" t="s">
+        <v>153</v>
+      </c>
+      <c r="P34" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>244</v>
+      </c>
+      <c r="B35" s="1">
+        <v>46053</v>
+      </c>
+      <c r="C35" t="s">
+        <v>142</v>
+      </c>
+      <c r="E35">
+        <v>9662729813.2157898</v>
+      </c>
+      <c r="F35" t="s">
+        <v>143</v>
+      </c>
+      <c r="G35" t="s">
+        <v>130</v>
+      </c>
+      <c r="H35" t="s">
+        <v>44</v>
+      </c>
+      <c r="I35" t="s">
+        <v>144</v>
+      </c>
+      <c r="K35" t="s">
+        <v>46</v>
+      </c>
+      <c r="L35" s="2">
+        <v>70.6521739130432</v>
+      </c>
+      <c r="M35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>245</v>
+      </c>
+      <c r="B36" s="1">
+        <v>46053</v>
+      </c>
+      <c r="C36" t="s">
+        <v>56</v>
+      </c>
+      <c r="D36" t="s">
+        <v>134</v>
+      </c>
+      <c r="E36">
+        <v>9700165134.8624001</v>
+      </c>
+      <c r="F36" t="s">
+        <v>135</v>
+      </c>
+      <c r="G36" t="s">
+        <v>43</v>
+      </c>
+      <c r="H36" t="s">
+        <v>44</v>
+      </c>
+      <c r="I36" t="s">
+        <v>136</v>
+      </c>
+      <c r="K36" t="s">
+        <v>46</v>
+      </c>
+      <c r="L36" s="2">
+        <v>50.148221343873203</v>
+      </c>
+      <c r="M36">
+        <v>1</v>
+      </c>
+      <c r="N36" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>246</v>
+      </c>
+      <c r="B37" s="1">
+        <v>46054</v>
+      </c>
+      <c r="C37" t="s">
+        <v>117</v>
+      </c>
+      <c r="E37">
+        <v>9737600456.5090199</v>
+      </c>
+      <c r="F37" t="s">
+        <v>118</v>
+      </c>
+      <c r="G37" t="s">
+        <v>130</v>
+      </c>
+      <c r="H37" t="s">
+        <v>44</v>
+      </c>
+      <c r="I37" t="s">
+        <v>119</v>
+      </c>
+      <c r="K37" t="s">
+        <v>46</v>
+      </c>
+      <c r="L37" s="2">
+        <v>29.6442687747032</v>
+      </c>
+      <c r="M37">
+        <v>1</v>
+      </c>
+      <c r="N37" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>247</v>
+      </c>
+      <c r="B38" s="1">
+        <v>46054</v>
+      </c>
+      <c r="C38" t="s">
+        <v>117</v>
+      </c>
+      <c r="E38">
+        <v>9775035778.1556396</v>
+      </c>
+      <c r="F38" t="s">
+        <v>118</v>
+      </c>
+      <c r="G38" t="s">
+        <v>43</v>
+      </c>
+      <c r="H38" t="s">
+        <v>44</v>
+      </c>
+      <c r="I38" t="s">
+        <v>119</v>
+      </c>
+      <c r="K38" t="s">
+        <v>46</v>
+      </c>
+      <c r="L38" s="2">
+        <v>9.1403162055331695</v>
+      </c>
+      <c r="M38">
+        <v>1</v>
+      </c>
+      <c r="N38" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>248</v>
+      </c>
+      <c r="B39" s="1">
+        <v>46054</v>
+      </c>
+      <c r="C39" t="s">
+        <v>117</v>
+      </c>
+      <c r="E39">
+        <v>9812471099.8022499</v>
+      </c>
+      <c r="F39" t="s">
+        <v>118</v>
+      </c>
+      <c r="G39" t="s">
+        <v>59</v>
+      </c>
+      <c r="H39" t="s">
+        <v>44</v>
+      </c>
+      <c r="I39" t="s">
+        <v>119</v>
+      </c>
+      <c r="K39" t="s">
+        <v>46</v>
+      </c>
+      <c r="L39" s="2">
+        <v>-11.3636363636359</v>
+      </c>
+      <c r="M39">
+        <v>1</v>
+      </c>
+      <c r="N39" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>249</v>
+      </c>
+      <c r="B40" s="1">
+        <v>46055</v>
+      </c>
+      <c r="C40" t="s">
+        <v>82</v>
+      </c>
+      <c r="E40">
+        <v>9849906421.4488697</v>
+      </c>
+      <c r="F40" t="s">
+        <v>110</v>
+      </c>
+      <c r="G40" t="s">
+        <v>59</v>
+      </c>
+      <c r="H40" t="s">
+        <v>60</v>
+      </c>
+      <c r="J40" t="s">
+        <v>111</v>
+      </c>
+      <c r="K40" t="s">
+        <v>46</v>
+      </c>
+      <c r="L40" s="2">
+        <v>-31.867588932805901</v>
+      </c>
+      <c r="M40">
+        <v>1</v>
+      </c>
+      <c r="N40" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
         <v>250</v>
       </c>
-      <c r="AH24" s="3">
-        <v>46043.597777777781</v>
-      </c>
-      <c r="AI24" t="s">
-        <v>73</v>
-      </c>
-      <c r="AK24" t="s">
-        <v>230</v>
-      </c>
-      <c r="AL24" t="s">
-        <v>231</v>
-      </c>
-      <c r="AM24" t="s">
-        <v>232</v>
-      </c>
-      <c r="AN24" t="s">
-        <v>233</v>
+      <c r="B41" s="1">
+        <v>46055</v>
+      </c>
+      <c r="C41" t="s">
+        <v>82</v>
+      </c>
+      <c r="E41">
+        <v>9887341743.0954895</v>
+      </c>
+      <c r="F41" t="s">
+        <v>83</v>
+      </c>
+      <c r="G41" t="s">
+        <v>43</v>
+      </c>
+      <c r="H41" t="s">
+        <v>60</v>
+      </c>
+      <c r="J41" t="s">
+        <v>70</v>
+      </c>
+      <c r="K41" t="s">
+        <v>46</v>
+      </c>
+      <c r="L41" s="2">
+        <v>-52.371541501975898</v>
+      </c>
+      <c r="M41">
+        <v>1</v>
+      </c>
+      <c r="N41" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>251</v>
+      </c>
+      <c r="B42" s="1">
+        <v>46055</v>
+      </c>
+      <c r="C42" t="s">
+        <v>82</v>
+      </c>
+      <c r="E42">
+        <v>9924777064.7420998</v>
+      </c>
+      <c r="F42" t="s">
+        <v>95</v>
+      </c>
+      <c r="G42" t="s">
+        <v>43</v>
+      </c>
+      <c r="H42" t="s">
+        <v>44</v>
+      </c>
+      <c r="I42" t="s">
+        <v>84</v>
+      </c>
+      <c r="K42" t="s">
+        <v>46</v>
+      </c>
+      <c r="L42" s="2">
+        <v>-72.875494071145894</v>
+      </c>
+      <c r="M42">
+        <v>1</v>
+      </c>
+      <c r="N42" t="s">
+        <v>96</v>
+      </c>
+      <c r="O42" t="s">
+        <v>97</v>
+      </c>
+      <c r="P42" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>252</v>
+      </c>
+      <c r="B43" s="1">
+        <v>46055</v>
+      </c>
+      <c r="C43" t="s">
+        <v>82</v>
+      </c>
+      <c r="E43">
+        <v>9962212386.3887196</v>
+      </c>
+      <c r="F43" t="s">
+        <v>83</v>
+      </c>
+      <c r="G43" t="s">
+        <v>43</v>
+      </c>
+      <c r="H43" t="s">
+        <v>44</v>
+      </c>
+      <c r="I43" t="s">
+        <v>84</v>
+      </c>
+      <c r="K43" t="s">
+        <v>46</v>
+      </c>
+      <c r="L43" s="2">
+        <v>-93.379446640315905</v>
+      </c>
+      <c r="M43">
+        <v>1</v>
+      </c>
+      <c r="N43" t="s">
+        <v>85</v>
+      </c>
+      <c r="O43" t="s">
+        <v>86</v>
+      </c>
+      <c r="P43" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>253</v>
+      </c>
+      <c r="B44" s="1">
+        <v>46056</v>
+      </c>
+      <c r="C44" t="s">
+        <v>68</v>
+      </c>
+      <c r="E44">
+        <v>9999647708.0353394</v>
+      </c>
+      <c r="F44" t="s">
+        <v>69</v>
+      </c>
+      <c r="G44" t="s">
+        <v>43</v>
+      </c>
+      <c r="H44" t="s">
+        <v>60</v>
+      </c>
+      <c r="J44" t="s">
+        <v>70</v>
+      </c>
+      <c r="K44" t="s">
+        <v>46</v>
+      </c>
+      <c r="L44" s="2">
+        <v>-113.883399209486</v>
+      </c>
+      <c r="M44">
+        <v>1</v>
+      </c>
+      <c r="N44" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>254</v>
+      </c>
+      <c r="B45" s="1">
+        <v>46056</v>
+      </c>
+      <c r="C45" t="s">
+        <v>68</v>
+      </c>
+      <c r="E45">
+        <v>10037083029.681999</v>
+      </c>
+      <c r="F45" t="s">
+        <v>69</v>
+      </c>
+      <c r="G45" t="s">
+        <v>43</v>
+      </c>
+      <c r="H45" t="s">
+        <v>60</v>
+      </c>
+      <c r="J45" t="s">
+        <v>70</v>
+      </c>
+      <c r="K45" t="s">
+        <v>46</v>
+      </c>
+      <c r="L45" s="2">
+        <v>-134.38735177865601</v>
+      </c>
+      <c r="M45">
+        <v>1</v>
+      </c>
+      <c r="N45" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>255</v>
+      </c>
+      <c r="B46" s="1">
+        <v>46056</v>
+      </c>
+      <c r="C46" t="s">
+        <v>56</v>
+      </c>
+      <c r="D46" t="s">
+        <v>57</v>
+      </c>
+      <c r="E46">
+        <v>10074518351.3286</v>
+      </c>
+      <c r="F46" t="s">
+        <v>58</v>
+      </c>
+      <c r="G46" t="s">
+        <v>59</v>
+      </c>
+      <c r="H46" t="s">
+        <v>60</v>
+      </c>
+      <c r="J46" t="s">
+        <v>61</v>
+      </c>
+      <c r="K46" t="s">
+        <v>46</v>
+      </c>
+      <c r="L46" s="2">
+        <v>-154.89130434782601</v>
+      </c>
+      <c r="M46">
+        <v>1</v>
+      </c>
+      <c r="N46" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>256</v>
+      </c>
+      <c r="B47" s="1">
+        <v>46056</v>
+      </c>
+      <c r="C47" t="s">
+        <v>41</v>
+      </c>
+      <c r="E47">
+        <v>10111953672.975201</v>
+      </c>
+      <c r="F47" t="s">
+        <v>42</v>
+      </c>
+      <c r="G47" t="s">
+        <v>43</v>
+      </c>
+      <c r="H47" t="s">
+        <v>410</v>
+      </c>
+      <c r="I47" t="s">
+        <v>45</v>
+      </c>
+      <c r="K47" t="s">
+        <v>46</v>
+      </c>
+      <c r="L47" s="2">
+        <v>-175.395256916996</v>
+      </c>
+      <c r="M47">
+        <v>1</v>
+      </c>
+      <c r="N47" t="s">
+        <v>47</v>
+      </c>
+      <c r="O47" t="s">
+        <v>48</v>
+      </c>
+      <c r="P47" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>257</v>
+      </c>
+      <c r="B48" s="1">
+        <v>46043</v>
+      </c>
+      <c r="C48" t="s">
+        <v>225</v>
+      </c>
+      <c r="E48">
+        <v>8095669821</v>
+      </c>
+      <c r="F48" t="s">
+        <v>226</v>
+      </c>
+      <c r="G48" t="s">
+        <v>176</v>
+      </c>
+      <c r="H48" t="s">
+        <v>44</v>
+      </c>
+      <c r="I48" t="s">
+        <v>227</v>
+      </c>
+      <c r="K48" t="s">
+        <v>46</v>
+      </c>
+      <c r="L48" s="2">
+        <v>-195.899209486166</v>
+      </c>
+      <c r="M48">
+        <v>1</v>
+      </c>
+      <c r="N48" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>258</v>
+      </c>
+      <c r="B49" s="1">
+        <v>46044</v>
+      </c>
+      <c r="C49" t="s">
+        <v>117</v>
+      </c>
+      <c r="E49">
+        <v>7622937930</v>
+      </c>
+      <c r="F49" t="s">
+        <v>219</v>
+      </c>
+      <c r="G49" t="s">
+        <v>176</v>
+      </c>
+      <c r="H49" t="s">
+        <v>44</v>
+      </c>
+      <c r="I49" t="s">
+        <v>201</v>
+      </c>
+      <c r="K49" t="s">
+        <v>46</v>
+      </c>
+      <c r="L49" s="2">
+        <v>-216.403162055336</v>
+      </c>
+      <c r="M49">
+        <v>1</v>
+      </c>
+      <c r="N49" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>259</v>
+      </c>
+      <c r="B50" s="1">
+        <v>46047</v>
+      </c>
+      <c r="C50" t="s">
+        <v>117</v>
+      </c>
+      <c r="E50" t="s">
+        <v>208</v>
+      </c>
+      <c r="F50" t="s">
+        <v>209</v>
+      </c>
+      <c r="G50" t="s">
+        <v>194</v>
+      </c>
+      <c r="H50" t="s">
+        <v>44</v>
+      </c>
+      <c r="I50" t="s">
+        <v>210</v>
+      </c>
+      <c r="K50" t="s">
+        <v>46</v>
+      </c>
+      <c r="L50" s="2">
+        <v>-236.90711462450599</v>
+      </c>
+      <c r="M50">
+        <v>1</v>
+      </c>
+      <c r="N50" t="s">
+        <v>211</v>
+      </c>
+      <c r="O50" t="s">
+        <v>212</v>
+      </c>
+      <c r="P50" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>260</v>
+      </c>
+      <c r="B51" s="1">
+        <v>46048</v>
+      </c>
+      <c r="C51" t="s">
+        <v>117</v>
+      </c>
+      <c r="E51">
+        <v>10149388994.621799</v>
+      </c>
+      <c r="F51" t="s">
+        <v>200</v>
+      </c>
+      <c r="G51" t="s">
+        <v>43</v>
+      </c>
+      <c r="H51" t="s">
+        <v>44</v>
+      </c>
+      <c r="I51" t="s">
+        <v>201</v>
+      </c>
+      <c r="K51" t="s">
+        <v>46</v>
+      </c>
+      <c r="L51" s="2">
+        <v>-257.41106719367798</v>
+      </c>
+      <c r="M51">
+        <v>1</v>
+      </c>
+      <c r="N51" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>261</v>
+      </c>
+      <c r="B52" s="1">
+        <v>46048</v>
+      </c>
+      <c r="C52" t="s">
+        <v>192</v>
+      </c>
+      <c r="E52">
+        <v>10186824316.2684</v>
+      </c>
+      <c r="F52" t="s">
+        <v>193</v>
+      </c>
+      <c r="G52" t="s">
+        <v>194</v>
+      </c>
+      <c r="H52" t="s">
+        <v>44</v>
+      </c>
+      <c r="I52" t="s">
+        <v>195</v>
+      </c>
+      <c r="K52" t="s">
+        <v>46</v>
+      </c>
+      <c r="L52" s="2">
+        <v>-277.91501976284798</v>
+      </c>
+      <c r="M52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>262</v>
+      </c>
+      <c r="B53" s="1">
+        <v>46048</v>
+      </c>
+      <c r="C53" t="s">
+        <v>56</v>
+      </c>
+      <c r="D53" t="s">
+        <v>184</v>
+      </c>
+      <c r="E53">
+        <v>10224259637.915001</v>
+      </c>
+      <c r="F53" t="s">
+        <v>185</v>
+      </c>
+      <c r="G53" t="s">
+        <v>130</v>
+      </c>
+      <c r="H53" t="s">
+        <v>44</v>
+      </c>
+      <c r="I53" t="s">
+        <v>186</v>
+      </c>
+      <c r="K53" t="s">
+        <v>46</v>
+      </c>
+      <c r="L53" s="2">
+        <v>-298.41897233201797</v>
+      </c>
+      <c r="M53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>263</v>
+      </c>
+      <c r="B54" s="1">
+        <v>46050</v>
+      </c>
+      <c r="C54" t="s">
+        <v>174</v>
+      </c>
+      <c r="E54">
+        <v>10261694959.561701</v>
+      </c>
+      <c r="F54" t="s">
+        <v>175</v>
+      </c>
+      <c r="G54" t="s">
+        <v>176</v>
+      </c>
+      <c r="H54" t="s">
+        <v>60</v>
+      </c>
+      <c r="J54" t="s">
+        <v>177</v>
+      </c>
+      <c r="K54" t="s">
+        <v>46</v>
+      </c>
+      <c r="L54" s="2">
+        <v>-318.92292490118803</v>
+      </c>
+      <c r="M54">
+        <v>1</v>
+      </c>
+      <c r="N54" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>264</v>
+      </c>
+      <c r="B55" s="1">
+        <v>46050</v>
+      </c>
+      <c r="C55" t="s">
+        <v>159</v>
+      </c>
+      <c r="E55">
+        <v>10299130281.2083</v>
+      </c>
+      <c r="F55" t="s">
+        <v>160</v>
+      </c>
+      <c r="G55" t="s">
+        <v>130</v>
+      </c>
+      <c r="H55" t="s">
+        <v>60</v>
+      </c>
+      <c r="J55" t="s">
+        <v>152</v>
+      </c>
+      <c r="K55" t="s">
+        <v>46</v>
+      </c>
+      <c r="L55" s="2">
+        <v>-339.42687747035802</v>
+      </c>
+      <c r="M55">
+        <v>1</v>
+      </c>
+      <c r="N55" t="s">
+        <v>162</v>
+      </c>
+      <c r="O55" t="s">
+        <v>163</v>
+      </c>
+      <c r="P55" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>265</v>
+      </c>
+      <c r="B56" s="1">
+        <v>46051</v>
+      </c>
+      <c r="C56" t="s">
+        <v>159</v>
+      </c>
+      <c r="E56">
+        <v>10336565602.8549</v>
+      </c>
+      <c r="F56" t="s">
+        <v>160</v>
+      </c>
+      <c r="G56" t="s">
+        <v>130</v>
+      </c>
+      <c r="H56" t="s">
+        <v>412</v>
+      </c>
+      <c r="I56" t="s">
+        <v>161</v>
+      </c>
+      <c r="K56" t="s">
+        <v>46</v>
+      </c>
+      <c r="L56" s="2">
+        <v>-359.93083003952802</v>
+      </c>
+      <c r="M56">
+        <v>1</v>
+      </c>
+      <c r="N56" t="s">
+        <v>162</v>
+      </c>
+      <c r="O56" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>266</v>
+      </c>
+      <c r="B57" s="1">
+        <v>46053</v>
+      </c>
+      <c r="C57" t="s">
+        <v>150</v>
+      </c>
+      <c r="E57">
+        <v>10374000924.501499</v>
+      </c>
+      <c r="F57" t="s">
+        <v>151</v>
+      </c>
+      <c r="G57" t="s">
+        <v>130</v>
+      </c>
+      <c r="H57" t="s">
+        <v>413</v>
+      </c>
+      <c r="J57" t="s">
+        <v>152</v>
+      </c>
+      <c r="K57" t="s">
+        <v>46</v>
+      </c>
+      <c r="L57" s="2">
+        <v>-380.43478260869801</v>
+      </c>
+      <c r="M57">
+        <v>1</v>
+      </c>
+      <c r="N57" t="s">
+        <v>153</v>
+      </c>
+      <c r="O57" t="s">
+        <v>153</v>
+      </c>
+      <c r="P57" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>267</v>
+      </c>
+      <c r="B58" s="1">
+        <v>46053</v>
+      </c>
+      <c r="C58" t="s">
+        <v>142</v>
+      </c>
+      <c r="E58">
+        <v>10411436246.1481</v>
+      </c>
+      <c r="F58" t="s">
+        <v>143</v>
+      </c>
+      <c r="G58" t="s">
+        <v>130</v>
+      </c>
+      <c r="H58" t="s">
+        <v>44</v>
+      </c>
+      <c r="I58" t="s">
+        <v>144</v>
+      </c>
+      <c r="K58" t="s">
+        <v>46</v>
+      </c>
+      <c r="L58" s="2">
+        <v>-400.93873517786801</v>
+      </c>
+      <c r="M58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>268</v>
+      </c>
+      <c r="B59" s="1">
+        <v>46053</v>
+      </c>
+      <c r="C59" t="s">
+        <v>56</v>
+      </c>
+      <c r="D59" t="s">
+        <v>134</v>
+      </c>
+      <c r="E59">
+        <v>10448871567.794701</v>
+      </c>
+      <c r="F59" t="s">
+        <v>135</v>
+      </c>
+      <c r="G59" t="s">
+        <v>43</v>
+      </c>
+      <c r="H59" t="s">
+        <v>44</v>
+      </c>
+      <c r="I59" t="s">
+        <v>136</v>
+      </c>
+      <c r="K59" t="s">
+        <v>46</v>
+      </c>
+      <c r="L59" s="2">
+        <v>-421.44268774703801</v>
+      </c>
+      <c r="M59">
+        <v>1</v>
+      </c>
+      <c r="N59" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>269</v>
+      </c>
+      <c r="B60" s="1">
+        <v>46054</v>
+      </c>
+      <c r="C60" t="s">
+        <v>117</v>
+      </c>
+      <c r="E60">
+        <v>10486306889.441401</v>
+      </c>
+      <c r="F60" t="s">
+        <v>118</v>
+      </c>
+      <c r="G60" t="s">
+        <v>130</v>
+      </c>
+      <c r="H60" t="s">
+        <v>44</v>
+      </c>
+      <c r="I60" t="s">
+        <v>119</v>
+      </c>
+      <c r="K60" t="s">
+        <v>46</v>
+      </c>
+      <c r="L60" s="2">
+        <v>-441.946640316208</v>
+      </c>
+      <c r="M60">
+        <v>1</v>
+      </c>
+      <c r="N60" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>270</v>
+      </c>
+      <c r="B61" s="1">
+        <v>46054</v>
+      </c>
+      <c r="C61" t="s">
+        <v>117</v>
+      </c>
+      <c r="E61">
+        <v>10523742211.087999</v>
+      </c>
+      <c r="F61" t="s">
+        <v>118</v>
+      </c>
+      <c r="G61" t="s">
+        <v>43</v>
+      </c>
+      <c r="H61" t="s">
+        <v>44</v>
+      </c>
+      <c r="I61" t="s">
+        <v>119</v>
+      </c>
+      <c r="K61" t="s">
+        <v>46</v>
+      </c>
+      <c r="L61" s="2">
+        <v>-462.450592885378</v>
+      </c>
+      <c r="M61">
+        <v>1</v>
+      </c>
+      <c r="N61" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>271</v>
+      </c>
+      <c r="B62" s="1">
+        <v>46054</v>
+      </c>
+      <c r="C62" t="s">
+        <v>117</v>
+      </c>
+      <c r="E62">
+        <v>10561177532.7346</v>
+      </c>
+      <c r="F62" t="s">
+        <v>118</v>
+      </c>
+      <c r="G62" t="s">
+        <v>59</v>
+      </c>
+      <c r="H62" t="s">
+        <v>44</v>
+      </c>
+      <c r="I62" t="s">
+        <v>119</v>
+      </c>
+      <c r="K62" t="s">
+        <v>46</v>
+      </c>
+      <c r="L62" s="2">
+        <v>-482.954545454548</v>
+      </c>
+      <c r="M62">
+        <v>1</v>
+      </c>
+      <c r="N62" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>272</v>
+      </c>
+      <c r="B63" s="1">
+        <v>46055</v>
+      </c>
+      <c r="C63" t="s">
+        <v>82</v>
+      </c>
+      <c r="E63">
+        <v>10598612854.381201</v>
+      </c>
+      <c r="F63" t="s">
+        <v>110</v>
+      </c>
+      <c r="G63" t="s">
+        <v>59</v>
+      </c>
+      <c r="H63" t="s">
+        <v>60</v>
+      </c>
+      <c r="J63" t="s">
+        <v>111</v>
+      </c>
+      <c r="K63" t="s">
+        <v>46</v>
+      </c>
+      <c r="L63" s="2">
+        <v>-503.45849802371799</v>
+      </c>
+      <c r="M63">
+        <v>1</v>
+      </c>
+      <c r="N63" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>273</v>
+      </c>
+      <c r="B64" s="1">
+        <v>46055</v>
+      </c>
+      <c r="C64" t="s">
+        <v>82</v>
+      </c>
+      <c r="E64">
+        <v>10636048176.0278</v>
+      </c>
+      <c r="F64" t="s">
+        <v>83</v>
+      </c>
+      <c r="G64" t="s">
+        <v>43</v>
+      </c>
+      <c r="H64" t="s">
+        <v>60</v>
+      </c>
+      <c r="J64" t="s">
+        <v>70</v>
+      </c>
+      <c r="K64" t="s">
+        <v>46</v>
+      </c>
+      <c r="L64" s="2">
+        <v>-523.96245059288799</v>
+      </c>
+      <c r="M64">
+        <v>1</v>
+      </c>
+      <c r="N64" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>274</v>
+      </c>
+      <c r="B65" s="1">
+        <v>46055</v>
+      </c>
+      <c r="C65" t="s">
+        <v>82</v>
+      </c>
+      <c r="E65">
+        <v>10673483497.6744</v>
+      </c>
+      <c r="F65" t="s">
+        <v>95</v>
+      </c>
+      <c r="G65" t="s">
+        <v>43</v>
+      </c>
+      <c r="H65" t="s">
+        <v>44</v>
+      </c>
+      <c r="I65" t="s">
+        <v>84</v>
+      </c>
+      <c r="K65" t="s">
+        <v>46</v>
+      </c>
+      <c r="L65" s="2">
+        <v>-544.46640316205799</v>
+      </c>
+      <c r="M65">
+        <v>1</v>
+      </c>
+      <c r="N65" t="s">
+        <v>96</v>
+      </c>
+      <c r="O65" t="s">
+        <v>97</v>
+      </c>
+      <c r="P65" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q65" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>275</v>
+      </c>
+      <c r="B66" s="1">
+        <v>46055</v>
+      </c>
+      <c r="C66" t="s">
+        <v>82</v>
+      </c>
+      <c r="E66">
+        <v>10710918819.3211</v>
+      </c>
+      <c r="F66" t="s">
+        <v>83</v>
+      </c>
+      <c r="G66" t="s">
+        <v>43</v>
+      </c>
+      <c r="H66" t="s">
+        <v>44</v>
+      </c>
+      <c r="I66" t="s">
+        <v>84</v>
+      </c>
+      <c r="K66" t="s">
+        <v>46</v>
+      </c>
+      <c r="L66" s="2">
+        <v>-564.97035573122798</v>
+      </c>
+      <c r="M66">
+        <v>1</v>
+      </c>
+      <c r="N66" t="s">
+        <v>85</v>
+      </c>
+      <c r="O66" t="s">
+        <v>86</v>
+      </c>
+      <c r="P66" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q66" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>276</v>
+      </c>
+      <c r="B67" s="1">
+        <v>46056</v>
+      </c>
+      <c r="C67" t="s">
+        <v>68</v>
+      </c>
+      <c r="E67">
+        <v>10748354140.967699</v>
+      </c>
+      <c r="F67" t="s">
+        <v>69</v>
+      </c>
+      <c r="G67" t="s">
+        <v>43</v>
+      </c>
+      <c r="H67" t="s">
+        <v>60</v>
+      </c>
+      <c r="J67" t="s">
+        <v>70</v>
+      </c>
+      <c r="K67" t="s">
+        <v>46</v>
+      </c>
+      <c r="L67" s="2">
+        <v>-585.47430830039798</v>
+      </c>
+      <c r="M67">
+        <v>1</v>
+      </c>
+      <c r="N67" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>277</v>
+      </c>
+      <c r="B68" s="1">
+        <v>46056</v>
+      </c>
+      <c r="C68" t="s">
+        <v>68</v>
+      </c>
+      <c r="E68">
+        <v>10785789462.6143</v>
+      </c>
+      <c r="F68" t="s">
+        <v>69</v>
+      </c>
+      <c r="G68" t="s">
+        <v>43</v>
+      </c>
+      <c r="H68" t="s">
+        <v>60</v>
+      </c>
+      <c r="J68" t="s">
+        <v>70</v>
+      </c>
+      <c r="K68" t="s">
+        <v>46</v>
+      </c>
+      <c r="L68" s="2">
+        <v>-605.97826086956798</v>
+      </c>
+      <c r="M68">
+        <v>1</v>
+      </c>
+      <c r="N68" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>278</v>
+      </c>
+      <c r="B69" s="1">
+        <v>46056</v>
+      </c>
+      <c r="C69" t="s">
+        <v>56</v>
+      </c>
+      <c r="D69" t="s">
+        <v>57</v>
+      </c>
+      <c r="E69">
+        <v>10823224784.2609</v>
+      </c>
+      <c r="F69" t="s">
+        <v>58</v>
+      </c>
+      <c r="G69" t="s">
+        <v>59</v>
+      </c>
+      <c r="H69" t="s">
+        <v>60</v>
+      </c>
+      <c r="J69" t="s">
+        <v>61</v>
+      </c>
+      <c r="K69" t="s">
+        <v>46</v>
+      </c>
+      <c r="L69" s="2">
+        <v>-626.48221343873797</v>
+      </c>
+      <c r="M69">
+        <v>1</v>
+      </c>
+      <c r="N69" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>279</v>
+      </c>
+      <c r="B70" s="1">
+        <v>46056</v>
+      </c>
+      <c r="C70" t="s">
+        <v>41</v>
+      </c>
+      <c r="E70">
+        <v>10860660105.907499</v>
+      </c>
+      <c r="F70" t="s">
+        <v>42</v>
+      </c>
+      <c r="G70" t="s">
+        <v>43</v>
+      </c>
+      <c r="H70" t="s">
+        <v>412</v>
+      </c>
+      <c r="I70" t="s">
+        <v>45</v>
+      </c>
+      <c r="K70" t="s">
+        <v>46</v>
+      </c>
+      <c r="L70" s="2">
+        <v>-646.98616600790797</v>
+      </c>
+      <c r="M70">
+        <v>1</v>
+      </c>
+      <c r="N70" t="s">
+        <v>47</v>
+      </c>
+      <c r="O70" t="s">
+        <v>48</v>
+      </c>
+      <c r="P70" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>280</v>
+      </c>
+      <c r="B71" s="1">
+        <v>46043</v>
+      </c>
+      <c r="C71" t="s">
+        <v>225</v>
+      </c>
+      <c r="E71">
+        <v>7150206039</v>
+      </c>
+      <c r="F71" t="s">
+        <v>226</v>
+      </c>
+      <c r="G71" t="s">
+        <v>176</v>
+      </c>
+      <c r="H71" t="s">
+        <v>44</v>
+      </c>
+      <c r="I71" t="s">
+        <v>227</v>
+      </c>
+      <c r="K71" t="s">
+        <v>46</v>
+      </c>
+      <c r="L71" s="2">
+        <v>-667.49011857707796</v>
+      </c>
+      <c r="M71">
+        <v>1</v>
+      </c>
+      <c r="N71" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>281</v>
+      </c>
+      <c r="B72" s="1">
+        <v>46044</v>
+      </c>
+      <c r="C72" t="s">
+        <v>117</v>
+      </c>
+      <c r="E72">
+        <v>6677474148</v>
+      </c>
+      <c r="F72" t="s">
+        <v>219</v>
+      </c>
+      <c r="G72" t="s">
+        <v>176</v>
+      </c>
+      <c r="H72" t="s">
+        <v>44</v>
+      </c>
+      <c r="I72" t="s">
+        <v>201</v>
+      </c>
+      <c r="K72" t="s">
+        <v>46</v>
+      </c>
+      <c r="L72" s="2">
+        <v>-687.99407114624796</v>
+      </c>
+      <c r="M72">
+        <v>1</v>
+      </c>
+      <c r="N72" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>282</v>
+      </c>
+      <c r="B73" s="1">
+        <v>46047</v>
+      </c>
+      <c r="C73" t="s">
+        <v>117</v>
+      </c>
+      <c r="E73" t="s">
+        <v>208</v>
+      </c>
+      <c r="F73" t="s">
+        <v>209</v>
+      </c>
+      <c r="G73" t="s">
+        <v>194</v>
+      </c>
+      <c r="H73" t="s">
+        <v>44</v>
+      </c>
+      <c r="I73" t="s">
+        <v>210</v>
+      </c>
+      <c r="K73" t="s">
+        <v>46</v>
+      </c>
+      <c r="L73" s="2">
+        <v>-708.49802371541796</v>
+      </c>
+      <c r="M73">
+        <v>1</v>
+      </c>
+      <c r="N73" t="s">
+        <v>211</v>
+      </c>
+      <c r="O73" t="s">
+        <v>212</v>
+      </c>
+      <c r="P73" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>283</v>
+      </c>
+      <c r="B74" s="1">
+        <v>46048</v>
+      </c>
+      <c r="C74" t="s">
+        <v>117</v>
+      </c>
+      <c r="E74">
+        <v>10898095427.5541</v>
+      </c>
+      <c r="F74" t="s">
+        <v>200</v>
+      </c>
+      <c r="G74" t="s">
+        <v>43</v>
+      </c>
+      <c r="H74" t="s">
+        <v>44</v>
+      </c>
+      <c r="I74" t="s">
+        <v>201</v>
+      </c>
+      <c r="K74" t="s">
+        <v>46</v>
+      </c>
+      <c r="L74" s="2">
+        <v>-729.00197628458795</v>
+      </c>
+      <c r="M74">
+        <v>1</v>
+      </c>
+      <c r="N74" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>284</v>
+      </c>
+      <c r="B75" s="1">
+        <v>46048</v>
+      </c>
+      <c r="C75" t="s">
+        <v>192</v>
+      </c>
+      <c r="E75">
+        <v>10935530749.2008</v>
+      </c>
+      <c r="F75" t="s">
+        <v>193</v>
+      </c>
+      <c r="G75" t="s">
+        <v>194</v>
+      </c>
+      <c r="H75" t="s">
+        <v>44</v>
+      </c>
+      <c r="I75" t="s">
+        <v>195</v>
+      </c>
+      <c r="K75" t="s">
+        <v>46</v>
+      </c>
+      <c r="L75" s="2">
+        <v>-749.50592885375795</v>
+      </c>
+      <c r="M75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>285</v>
+      </c>
+      <c r="B76" s="1">
+        <v>46048</v>
+      </c>
+      <c r="C76" t="s">
+        <v>56</v>
+      </c>
+      <c r="D76" t="s">
+        <v>184</v>
+      </c>
+      <c r="E76">
+        <v>10972966070.847401</v>
+      </c>
+      <c r="F76" t="s">
+        <v>185</v>
+      </c>
+      <c r="G76" t="s">
+        <v>130</v>
+      </c>
+      <c r="H76" t="s">
+        <v>44</v>
+      </c>
+      <c r="I76" t="s">
+        <v>186</v>
+      </c>
+      <c r="K76" t="s">
+        <v>46</v>
+      </c>
+      <c r="L76" s="2">
+        <v>-770.00988142292795</v>
+      </c>
+      <c r="M76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>286</v>
+      </c>
+      <c r="B77" s="1">
+        <v>46050</v>
+      </c>
+      <c r="C77" t="s">
+        <v>174</v>
+      </c>
+      <c r="E77">
+        <v>11010401392.493999</v>
+      </c>
+      <c r="F77" t="s">
+        <v>175</v>
+      </c>
+      <c r="G77" t="s">
+        <v>176</v>
+      </c>
+      <c r="H77" t="s">
+        <v>60</v>
+      </c>
+      <c r="J77" t="s">
+        <v>177</v>
+      </c>
+      <c r="K77" t="s">
+        <v>46</v>
+      </c>
+      <c r="L77" s="2">
+        <v>-790.51383399209794</v>
+      </c>
+      <c r="M77">
+        <v>1</v>
+      </c>
+      <c r="N77" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>287</v>
+      </c>
+      <c r="B78" s="1">
+        <v>46050</v>
+      </c>
+      <c r="C78" t="s">
+        <v>159</v>
+      </c>
+      <c r="E78">
+        <v>11047836714.1406</v>
+      </c>
+      <c r="F78" t="s">
+        <v>160</v>
+      </c>
+      <c r="G78" t="s">
+        <v>130</v>
+      </c>
+      <c r="H78" t="s">
+        <v>60</v>
+      </c>
+      <c r="J78" t="s">
+        <v>152</v>
+      </c>
+      <c r="K78" t="s">
+        <v>46</v>
+      </c>
+      <c r="L78" s="2">
+        <v>-811.01778656126805</v>
+      </c>
+      <c r="M78">
+        <v>1</v>
+      </c>
+      <c r="N78" t="s">
+        <v>162</v>
+      </c>
+      <c r="O78" t="s">
+        <v>163</v>
+      </c>
+      <c r="P78" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>288</v>
+      </c>
+      <c r="B79" s="1">
+        <v>46051</v>
+      </c>
+      <c r="C79" t="s">
+        <v>159</v>
+      </c>
+      <c r="E79">
+        <v>11085272035.787201</v>
+      </c>
+      <c r="F79" t="s">
+        <v>160</v>
+      </c>
+      <c r="G79" t="s">
+        <v>130</v>
+      </c>
+      <c r="H79" t="s">
+        <v>414</v>
+      </c>
+      <c r="I79" t="s">
+        <v>161</v>
+      </c>
+      <c r="K79" t="s">
+        <v>46</v>
+      </c>
+      <c r="L79" s="2">
+        <v>-831.52173913043805</v>
+      </c>
+      <c r="M79">
+        <v>1</v>
+      </c>
+      <c r="N79" t="s">
+        <v>162</v>
+      </c>
+      <c r="O79" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>289</v>
+      </c>
+      <c r="B80" s="1">
+        <v>46053</v>
+      </c>
+      <c r="C80" t="s">
+        <v>150</v>
+      </c>
+      <c r="E80">
+        <v>11122707357.4338</v>
+      </c>
+      <c r="F80" t="s">
+        <v>151</v>
+      </c>
+      <c r="G80" t="s">
+        <v>130</v>
+      </c>
+      <c r="H80" t="s">
+        <v>415</v>
+      </c>
+      <c r="J80" t="s">
+        <v>152</v>
+      </c>
+      <c r="K80" t="s">
+        <v>46</v>
+      </c>
+      <c r="L80" s="2">
+        <v>-852.02569169960805</v>
+      </c>
+      <c r="M80">
+        <v>1</v>
+      </c>
+      <c r="N80" t="s">
+        <v>153</v>
+      </c>
+      <c r="O80" t="s">
+        <v>153</v>
+      </c>
+      <c r="P80" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="81" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>290</v>
+      </c>
+      <c r="B81" s="1">
+        <v>46053</v>
+      </c>
+      <c r="C81" t="s">
+        <v>142</v>
+      </c>
+      <c r="E81">
+        <v>11160142679.0805</v>
+      </c>
+      <c r="F81" t="s">
+        <v>143</v>
+      </c>
+      <c r="G81" t="s">
+        <v>130</v>
+      </c>
+      <c r="H81" t="s">
+        <v>44</v>
+      </c>
+      <c r="I81" t="s">
+        <v>144</v>
+      </c>
+      <c r="K81" t="s">
+        <v>46</v>
+      </c>
+      <c r="L81" s="2">
+        <v>-872.52964426877804</v>
+      </c>
+      <c r="M81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>291</v>
+      </c>
+      <c r="B82" s="1">
+        <v>46053</v>
+      </c>
+      <c r="C82" t="s">
+        <v>56</v>
+      </c>
+      <c r="D82" t="s">
+        <v>134</v>
+      </c>
+      <c r="E82">
+        <v>11197578000.7271</v>
+      </c>
+      <c r="F82" t="s">
+        <v>135</v>
+      </c>
+      <c r="G82" t="s">
+        <v>43</v>
+      </c>
+      <c r="H82" t="s">
+        <v>44</v>
+      </c>
+      <c r="I82" t="s">
+        <v>136</v>
+      </c>
+      <c r="K82" t="s">
+        <v>46</v>
+      </c>
+      <c r="L82" s="2">
+        <v>-893.03359683794804</v>
+      </c>
+      <c r="M82">
+        <v>1</v>
+      </c>
+      <c r="N82" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="83" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>292</v>
+      </c>
+      <c r="B83" s="1">
+        <v>46054</v>
+      </c>
+      <c r="C83" t="s">
+        <v>117</v>
+      </c>
+      <c r="E83">
+        <v>11235013322.373699</v>
+      </c>
+      <c r="F83" t="s">
+        <v>118</v>
+      </c>
+      <c r="G83" t="s">
+        <v>130</v>
+      </c>
+      <c r="H83" t="s">
+        <v>44</v>
+      </c>
+      <c r="I83" t="s">
+        <v>119</v>
+      </c>
+      <c r="K83" t="s">
+        <v>46</v>
+      </c>
+      <c r="L83" s="2">
+        <v>-913.53754940711804</v>
+      </c>
+      <c r="M83">
+        <v>1</v>
+      </c>
+      <c r="N83" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="84" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>293</v>
+      </c>
+      <c r="B84" s="1">
+        <v>46054</v>
+      </c>
+      <c r="C84" t="s">
+        <v>117</v>
+      </c>
+      <c r="E84">
+        <v>11272448644.0203</v>
+      </c>
+      <c r="F84" t="s">
+        <v>118</v>
+      </c>
+      <c r="G84" t="s">
+        <v>43</v>
+      </c>
+      <c r="H84" t="s">
+        <v>44</v>
+      </c>
+      <c r="I84" t="s">
+        <v>119</v>
+      </c>
+      <c r="K84" t="s">
+        <v>46</v>
+      </c>
+      <c r="L84" s="2">
+        <v>-934.04150197628803</v>
+      </c>
+      <c r="M84">
+        <v>1</v>
+      </c>
+      <c r="N84" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="85" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>294</v>
+      </c>
+      <c r="B85" s="1">
+        <v>46054</v>
+      </c>
+      <c r="C85" t="s">
+        <v>117</v>
+      </c>
+      <c r="E85">
+        <v>11309883965.666901</v>
+      </c>
+      <c r="F85" t="s">
+        <v>118</v>
+      </c>
+      <c r="G85" t="s">
+        <v>59</v>
+      </c>
+      <c r="H85" t="s">
+        <v>44</v>
+      </c>
+      <c r="I85" t="s">
+        <v>119</v>
+      </c>
+      <c r="K85" t="s">
+        <v>46</v>
+      </c>
+      <c r="L85" s="2">
+        <v>-954.54545454545803</v>
+      </c>
+      <c r="M85">
+        <v>1</v>
+      </c>
+      <c r="N85" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="86" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>295</v>
+      </c>
+      <c r="B86" s="1">
+        <v>46055</v>
+      </c>
+      <c r="C86" t="s">
+        <v>82</v>
+      </c>
+      <c r="E86">
+        <v>11347319287.313499</v>
+      </c>
+      <c r="F86" t="s">
+        <v>110</v>
+      </c>
+      <c r="G86" t="s">
+        <v>59</v>
+      </c>
+      <c r="H86" t="s">
+        <v>60</v>
+      </c>
+      <c r="J86" t="s">
+        <v>111</v>
+      </c>
+      <c r="K86" t="s">
+        <v>46</v>
+      </c>
+      <c r="L86" s="2">
+        <v>-975.04940711462802</v>
+      </c>
+      <c r="M86">
+        <v>1</v>
+      </c>
+      <c r="N86" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="87" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>296</v>
+      </c>
+      <c r="B87" s="1">
+        <v>46055</v>
+      </c>
+      <c r="C87" t="s">
+        <v>82</v>
+      </c>
+      <c r="E87">
+        <v>11384754608.960199</v>
+      </c>
+      <c r="F87" t="s">
+        <v>83</v>
+      </c>
+      <c r="G87" t="s">
+        <v>43</v>
+      </c>
+      <c r="H87" t="s">
+        <v>60</v>
+      </c>
+      <c r="J87" t="s">
+        <v>70</v>
+      </c>
+      <c r="K87" t="s">
+        <v>46</v>
+      </c>
+      <c r="L87" s="2">
+        <v>-995.55335968379802</v>
+      </c>
+      <c r="M87">
+        <v>1</v>
+      </c>
+      <c r="N87" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="88" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>297</v>
+      </c>
+      <c r="B88" s="1">
+        <v>46055</v>
+      </c>
+      <c r="C88" t="s">
+        <v>82</v>
+      </c>
+      <c r="E88">
+        <v>11422189930.6068</v>
+      </c>
+      <c r="F88" t="s">
+        <v>95</v>
+      </c>
+      <c r="G88" t="s">
+        <v>43</v>
+      </c>
+      <c r="H88" t="s">
+        <v>44</v>
+      </c>
+      <c r="I88" t="s">
+        <v>84</v>
+      </c>
+      <c r="K88" t="s">
+        <v>46</v>
+      </c>
+      <c r="L88" s="2">
+        <v>-1016.05731225297</v>
+      </c>
+      <c r="M88">
+        <v>1</v>
+      </c>
+      <c r="N88" t="s">
+        <v>96</v>
+      </c>
+      <c r="O88" t="s">
+        <v>97</v>
+      </c>
+      <c r="P88" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q88" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="89" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>298</v>
+      </c>
+      <c r="B89" s="1">
+        <v>46055</v>
+      </c>
+      <c r="C89" t="s">
+        <v>82</v>
+      </c>
+      <c r="E89">
+        <v>11459625252.253401</v>
+      </c>
+      <c r="F89" t="s">
+        <v>83</v>
+      </c>
+      <c r="G89" t="s">
+        <v>43</v>
+      </c>
+      <c r="H89" t="s">
+        <v>44</v>
+      </c>
+      <c r="I89" t="s">
+        <v>84</v>
+      </c>
+      <c r="K89" t="s">
+        <v>46</v>
+      </c>
+      <c r="L89" s="2">
+        <v>-1036.5612648221399</v>
+      </c>
+      <c r="M89">
+        <v>1</v>
+      </c>
+      <c r="N89" t="s">
+        <v>85</v>
+      </c>
+      <c r="O89" t="s">
+        <v>86</v>
+      </c>
+      <c r="P89" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q89" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="90" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>299</v>
+      </c>
+      <c r="B90" s="1">
+        <v>46056</v>
+      </c>
+      <c r="C90" t="s">
+        <v>68</v>
+      </c>
+      <c r="E90">
+        <v>11497060573.9</v>
+      </c>
+      <c r="F90" t="s">
+        <v>69</v>
+      </c>
+      <c r="G90" t="s">
+        <v>43</v>
+      </c>
+      <c r="H90" t="s">
+        <v>60</v>
+      </c>
+      <c r="J90" t="s">
+        <v>70</v>
+      </c>
+      <c r="K90" t="s">
+        <v>46</v>
+      </c>
+      <c r="L90" s="2">
+        <v>-1057.0652173913099</v>
+      </c>
+      <c r="M90">
+        <v>1</v>
+      </c>
+      <c r="N90" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="91" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>300</v>
+      </c>
+      <c r="B91" s="1">
+        <v>46056</v>
+      </c>
+      <c r="C91" t="s">
+        <v>68</v>
+      </c>
+      <c r="E91">
+        <v>11534495895.5466</v>
+      </c>
+      <c r="F91" t="s">
+        <v>69</v>
+      </c>
+      <c r="G91" t="s">
+        <v>43</v>
+      </c>
+      <c r="H91" t="s">
+        <v>60</v>
+      </c>
+      <c r="J91" t="s">
+        <v>70</v>
+      </c>
+      <c r="K91" t="s">
+        <v>46</v>
+      </c>
+      <c r="L91" s="2">
+        <v>-1077.5691699604799</v>
+      </c>
+      <c r="M91">
+        <v>1</v>
+      </c>
+      <c r="N91" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="92" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>301</v>
+      </c>
+      <c r="B92" s="1">
+        <v>46056</v>
+      </c>
+      <c r="C92" t="s">
+        <v>56</v>
+      </c>
+      <c r="D92" t="s">
+        <v>57</v>
+      </c>
+      <c r="E92">
+        <v>11571931217.193199</v>
+      </c>
+      <c r="F92" t="s">
+        <v>58</v>
+      </c>
+      <c r="G92" t="s">
+        <v>59</v>
+      </c>
+      <c r="H92" t="s">
+        <v>60</v>
+      </c>
+      <c r="J92" t="s">
+        <v>61</v>
+      </c>
+      <c r="K92" t="s">
+        <v>46</v>
+      </c>
+      <c r="L92" s="2">
+        <v>-1098.0731225296499</v>
+      </c>
+      <c r="M92">
+        <v>1</v>
+      </c>
+      <c r="N92" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="93" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>302</v>
+      </c>
+      <c r="B93" s="1">
+        <v>46056</v>
+      </c>
+      <c r="C93" t="s">
+        <v>41</v>
+      </c>
+      <c r="E93">
+        <v>11609366538.839899</v>
+      </c>
+      <c r="F93" t="s">
+        <v>42</v>
+      </c>
+      <c r="G93" t="s">
+        <v>43</v>
+      </c>
+      <c r="H93" t="s">
+        <v>414</v>
+      </c>
+      <c r="I93" t="s">
+        <v>45</v>
+      </c>
+      <c r="K93" t="s">
+        <v>46</v>
+      </c>
+      <c r="L93" s="2">
+        <v>-1118.5770750988199</v>
+      </c>
+      <c r="M93">
+        <v>1</v>
+      </c>
+      <c r="N93" t="s">
+        <v>47</v>
+      </c>
+      <c r="O93" t="s">
+        <v>48</v>
+      </c>
+      <c r="P93" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="94" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>303</v>
+      </c>
+      <c r="B94" s="1">
+        <v>46043</v>
+      </c>
+      <c r="C94" t="s">
+        <v>225</v>
+      </c>
+      <c r="E94">
+        <v>6204742257</v>
+      </c>
+      <c r="F94" t="s">
+        <v>226</v>
+      </c>
+      <c r="G94" t="s">
+        <v>176</v>
+      </c>
+      <c r="H94" t="s">
+        <v>44</v>
+      </c>
+      <c r="I94" t="s">
+        <v>227</v>
+      </c>
+      <c r="K94" t="s">
+        <v>46</v>
+      </c>
+      <c r="L94" s="2">
+        <v>-1139.0810276679899</v>
+      </c>
+      <c r="M94">
+        <v>1</v>
+      </c>
+      <c r="N94" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="95" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>304</v>
+      </c>
+      <c r="B95" s="1">
+        <v>46044</v>
+      </c>
+      <c r="C95" t="s">
+        <v>117</v>
+      </c>
+      <c r="E95">
+        <v>5732010366</v>
+      </c>
+      <c r="F95" t="s">
+        <v>219</v>
+      </c>
+      <c r="G95" t="s">
+        <v>176</v>
+      </c>
+      <c r="H95" t="s">
+        <v>44</v>
+      </c>
+      <c r="I95" t="s">
+        <v>201</v>
+      </c>
+      <c r="K95" t="s">
+        <v>46</v>
+      </c>
+      <c r="L95" s="2">
+        <v>-1159.5849802371599</v>
+      </c>
+      <c r="M95">
+        <v>1</v>
+      </c>
+      <c r="N95" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="96" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>305</v>
+      </c>
+      <c r="B96" s="1">
+        <v>46047</v>
+      </c>
+      <c r="C96" t="s">
+        <v>117</v>
+      </c>
+      <c r="E96" t="s">
+        <v>208</v>
+      </c>
+      <c r="F96" t="s">
+        <v>209</v>
+      </c>
+      <c r="G96" t="s">
+        <v>194</v>
+      </c>
+      <c r="H96" t="s">
+        <v>44</v>
+      </c>
+      <c r="I96" t="s">
+        <v>210</v>
+      </c>
+      <c r="K96" t="s">
+        <v>46</v>
+      </c>
+      <c r="L96" s="2">
+        <v>-1180.0889328063299</v>
+      </c>
+      <c r="M96">
+        <v>1</v>
+      </c>
+      <c r="N96" t="s">
+        <v>211</v>
+      </c>
+      <c r="O96" t="s">
+        <v>212</v>
+      </c>
+      <c r="P96" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="97" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>306</v>
+      </c>
+      <c r="B97" s="1">
+        <v>46048</v>
+      </c>
+      <c r="C97" t="s">
+        <v>117</v>
+      </c>
+      <c r="E97">
+        <v>11646801860.4865</v>
+      </c>
+      <c r="F97" t="s">
+        <v>200</v>
+      </c>
+      <c r="G97" t="s">
+        <v>43</v>
+      </c>
+      <c r="H97" t="s">
+        <v>44</v>
+      </c>
+      <c r="I97" t="s">
+        <v>201</v>
+      </c>
+      <c r="K97" t="s">
+        <v>46</v>
+      </c>
+      <c r="L97" s="2">
+        <v>-1200.5928853754999</v>
+      </c>
+      <c r="M97">
+        <v>1</v>
+      </c>
+      <c r="N97" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="98" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>307</v>
+      </c>
+      <c r="B98" s="1">
+        <v>46048</v>
+      </c>
+      <c r="C98" t="s">
+        <v>192</v>
+      </c>
+      <c r="E98">
+        <v>11684237182.133101</v>
+      </c>
+      <c r="F98" t="s">
+        <v>193</v>
+      </c>
+      <c r="G98" t="s">
+        <v>194</v>
+      </c>
+      <c r="H98" t="s">
+        <v>44</v>
+      </c>
+      <c r="I98" t="s">
+        <v>195</v>
+      </c>
+      <c r="K98" t="s">
+        <v>46</v>
+      </c>
+      <c r="L98" s="2">
+        <v>-1221.0968379446699</v>
+      </c>
+      <c r="M98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>308</v>
+      </c>
+      <c r="B99" s="1">
+        <v>46048</v>
+      </c>
+      <c r="C99" t="s">
+        <v>56</v>
+      </c>
+      <c r="D99" t="s">
+        <v>184</v>
+      </c>
+      <c r="E99">
+        <v>11721672503.779699</v>
+      </c>
+      <c r="F99" t="s">
+        <v>185</v>
+      </c>
+      <c r="G99" t="s">
+        <v>130</v>
+      </c>
+      <c r="H99" t="s">
+        <v>44</v>
+      </c>
+      <c r="I99" t="s">
+        <v>186</v>
+      </c>
+      <c r="K99" t="s">
+        <v>46</v>
+      </c>
+      <c r="L99" s="2">
+        <v>-1241.6007905138399</v>
+      </c>
+      <c r="M99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>309</v>
+      </c>
+      <c r="B100" s="1">
+        <v>46050</v>
+      </c>
+      <c r="C100" t="s">
+        <v>174</v>
+      </c>
+      <c r="E100">
+        <v>11759107825.4263</v>
+      </c>
+      <c r="F100" t="s">
+        <v>175</v>
+      </c>
+      <c r="G100" t="s">
+        <v>176</v>
+      </c>
+      <c r="H100" t="s">
+        <v>60</v>
+      </c>
+      <c r="J100" t="s">
+        <v>177</v>
+      </c>
+      <c r="K100" t="s">
+        <v>46</v>
+      </c>
+      <c r="L100" s="2">
+        <v>-1262.1047430830099</v>
+      </c>
+      <c r="M100">
+        <v>1</v>
+      </c>
+      <c r="N100" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="101" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>310</v>
+      </c>
+      <c r="B101" s="1">
+        <v>46050</v>
+      </c>
+      <c r="C101" t="s">
+        <v>159</v>
+      </c>
+      <c r="E101">
+        <v>11796543147.072901</v>
+      </c>
+      <c r="F101" t="s">
+        <v>160</v>
+      </c>
+      <c r="G101" t="s">
+        <v>130</v>
+      </c>
+      <c r="H101" t="s">
+        <v>60</v>
+      </c>
+      <c r="J101" t="s">
+        <v>152</v>
+      </c>
+      <c r="K101" t="s">
+        <v>46</v>
+      </c>
+      <c r="L101" s="2">
+        <v>-1282.6086956521799</v>
+      </c>
+      <c r="M101">
+        <v>1</v>
+      </c>
+      <c r="N101" t="s">
+        <v>162</v>
+      </c>
+      <c r="O101" t="s">
+        <v>163</v>
+      </c>
+      <c r="P101" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="102" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>311</v>
+      </c>
+      <c r="B102" s="1">
+        <v>46051</v>
+      </c>
+      <c r="C102" t="s">
+        <v>159</v>
+      </c>
+      <c r="E102">
+        <v>11833978468.719601</v>
+      </c>
+      <c r="F102" t="s">
+        <v>160</v>
+      </c>
+      <c r="G102" t="s">
+        <v>130</v>
+      </c>
+      <c r="H102" t="s">
+        <v>416</v>
+      </c>
+      <c r="I102" t="s">
+        <v>161</v>
+      </c>
+      <c r="K102" t="s">
+        <v>46</v>
+      </c>
+      <c r="L102" s="2">
+        <v>-1303.1126482213499</v>
+      </c>
+      <c r="M102">
+        <v>1</v>
+      </c>
+      <c r="N102" t="s">
+        <v>162</v>
+      </c>
+      <c r="O102" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="103" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>312</v>
+      </c>
+      <c r="B103" s="1">
+        <v>46053</v>
+      </c>
+      <c r="C103" t="s">
+        <v>150</v>
+      </c>
+      <c r="E103">
+        <v>11871413790.366199</v>
+      </c>
+      <c r="F103" t="s">
+        <v>151</v>
+      </c>
+      <c r="G103" t="s">
+        <v>130</v>
+      </c>
+      <c r="H103" t="s">
+        <v>417</v>
+      </c>
+      <c r="J103" t="s">
+        <v>152</v>
+      </c>
+      <c r="K103" t="s">
+        <v>46</v>
+      </c>
+      <c r="L103" s="2">
+        <v>-1323.6166007905199</v>
+      </c>
+      <c r="M103">
+        <v>1</v>
+      </c>
+      <c r="N103" t="s">
+        <v>153</v>
+      </c>
+      <c r="O103" t="s">
+        <v>153</v>
+      </c>
+      <c r="P103" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="104" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>313</v>
+      </c>
+      <c r="B104" s="1">
+        <v>46053</v>
+      </c>
+      <c r="C104" t="s">
+        <v>142</v>
+      </c>
+      <c r="E104">
+        <v>11908849112.0128</v>
+      </c>
+      <c r="F104" t="s">
+        <v>143</v>
+      </c>
+      <c r="G104" t="s">
+        <v>130</v>
+      </c>
+      <c r="H104" t="s">
+        <v>44</v>
+      </c>
+      <c r="I104" t="s">
+        <v>144</v>
+      </c>
+      <c r="K104" t="s">
+        <v>46</v>
+      </c>
+      <c r="L104" s="2">
+        <v>-1344.1205533596899</v>
+      </c>
+      <c r="M104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>314</v>
+      </c>
+      <c r="B105" s="1">
+        <v>46053</v>
+      </c>
+      <c r="C105" t="s">
+        <v>56</v>
+      </c>
+      <c r="D105" t="s">
+        <v>134</v>
+      </c>
+      <c r="E105">
+        <v>11946284433.659401</v>
+      </c>
+      <c r="F105" t="s">
+        <v>135</v>
+      </c>
+      <c r="G105" t="s">
+        <v>43</v>
+      </c>
+      <c r="H105" t="s">
+        <v>44</v>
+      </c>
+      <c r="I105" t="s">
+        <v>136</v>
+      </c>
+      <c r="K105" t="s">
+        <v>46</v>
+      </c>
+      <c r="L105" s="2">
+        <v>-1364.6245059288599</v>
+      </c>
+      <c r="M105">
+        <v>1</v>
+      </c>
+      <c r="N105" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="106" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>315</v>
+      </c>
+      <c r="B106" s="1">
+        <v>46054</v>
+      </c>
+      <c r="C106" t="s">
+        <v>117</v>
+      </c>
+      <c r="E106">
+        <v>11983719755.306</v>
+      </c>
+      <c r="F106" t="s">
+        <v>118</v>
+      </c>
+      <c r="G106" t="s">
+        <v>130</v>
+      </c>
+      <c r="H106" t="s">
+        <v>44</v>
+      </c>
+      <c r="I106" t="s">
+        <v>119</v>
+      </c>
+      <c r="K106" t="s">
+        <v>46</v>
+      </c>
+      <c r="L106" s="2">
+        <v>-1385.1284584980301</v>
+      </c>
+      <c r="M106">
+        <v>1</v>
+      </c>
+      <c r="N106" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="107" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>316</v>
+      </c>
+      <c r="B107" s="1">
+        <v>46054</v>
+      </c>
+      <c r="C107" t="s">
+        <v>117</v>
+      </c>
+      <c r="E107">
+        <v>12021155076.9526</v>
+      </c>
+      <c r="F107" t="s">
+        <v>118</v>
+      </c>
+      <c r="G107" t="s">
+        <v>43</v>
+      </c>
+      <c r="H107" t="s">
+        <v>44</v>
+      </c>
+      <c r="I107" t="s">
+        <v>119</v>
+      </c>
+      <c r="K107" t="s">
+        <v>46</v>
+      </c>
+      <c r="L107" s="2">
+        <v>-1405.6324110672001</v>
+      </c>
+      <c r="M107">
+        <v>1</v>
+      </c>
+      <c r="N107" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="108" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>317</v>
+      </c>
+      <c r="B108" s="1">
+        <v>46054</v>
+      </c>
+      <c r="C108" t="s">
+        <v>117</v>
+      </c>
+      <c r="E108">
+        <v>12058590398.5993</v>
+      </c>
+      <c r="F108" t="s">
+        <v>118</v>
+      </c>
+      <c r="G108" t="s">
+        <v>59</v>
+      </c>
+      <c r="H108" t="s">
+        <v>44</v>
+      </c>
+      <c r="I108" t="s">
+        <v>119</v>
+      </c>
+      <c r="K108" t="s">
+        <v>46</v>
+      </c>
+      <c r="L108" s="2">
+        <v>-1426.1363636363701</v>
+      </c>
+      <c r="M108">
+        <v>1</v>
+      </c>
+      <c r="N108" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="109" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>318</v>
+      </c>
+      <c r="B109" s="1">
+        <v>46055</v>
+      </c>
+      <c r="C109" t="s">
+        <v>82</v>
+      </c>
+      <c r="E109">
+        <v>12096025720.245899</v>
+      </c>
+      <c r="F109" t="s">
+        <v>110</v>
+      </c>
+      <c r="G109" t="s">
+        <v>59</v>
+      </c>
+      <c r="H109" t="s">
+        <v>60</v>
+      </c>
+      <c r="J109" t="s">
+        <v>111</v>
+      </c>
+      <c r="K109" t="s">
+        <v>46</v>
+      </c>
+      <c r="L109" s="2">
+        <v>-1446.6403162055401</v>
+      </c>
+      <c r="M109">
+        <v>1</v>
+      </c>
+      <c r="N109" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="110" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>319</v>
+      </c>
+      <c r="B110" s="1">
+        <v>46055</v>
+      </c>
+      <c r="C110" t="s">
+        <v>82</v>
+      </c>
+      <c r="E110">
+        <v>12133461041.8925</v>
+      </c>
+      <c r="F110" t="s">
+        <v>83</v>
+      </c>
+      <c r="G110" t="s">
+        <v>43</v>
+      </c>
+      <c r="H110" t="s">
+        <v>60</v>
+      </c>
+      <c r="J110" t="s">
+        <v>70</v>
+      </c>
+      <c r="K110" t="s">
+        <v>46</v>
+      </c>
+      <c r="L110" s="2">
+        <v>-1467.1442687747101</v>
+      </c>
+      <c r="M110">
+        <v>1</v>
+      </c>
+      <c r="N110" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="111" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>320</v>
+      </c>
+      <c r="B111" s="1">
+        <v>46055</v>
+      </c>
+      <c r="C111" t="s">
+        <v>82</v>
+      </c>
+      <c r="E111">
+        <v>12170896363.539101</v>
+      </c>
+      <c r="F111" t="s">
+        <v>95</v>
+      </c>
+      <c r="G111" t="s">
+        <v>43</v>
+      </c>
+      <c r="H111" t="s">
+        <v>44</v>
+      </c>
+      <c r="I111" t="s">
+        <v>84</v>
+      </c>
+      <c r="K111" t="s">
+        <v>46</v>
+      </c>
+      <c r="L111" s="2">
+        <v>-1487.6482213438801</v>
+      </c>
+      <c r="M111">
+        <v>1</v>
+      </c>
+      <c r="N111" t="s">
+        <v>96</v>
+      </c>
+      <c r="O111" t="s">
+        <v>97</v>
+      </c>
+      <c r="P111" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q111" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="112" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>321</v>
+      </c>
+      <c r="B112" s="1">
+        <v>46055</v>
+      </c>
+      <c r="C112" t="s">
+        <v>82</v>
+      </c>
+      <c r="E112">
+        <v>12208331685.185699</v>
+      </c>
+      <c r="F112" t="s">
+        <v>83</v>
+      </c>
+      <c r="G112" t="s">
+        <v>43</v>
+      </c>
+      <c r="H112" t="s">
+        <v>44</v>
+      </c>
+      <c r="I112" t="s">
+        <v>84</v>
+      </c>
+      <c r="K112" t="s">
+        <v>46</v>
+      </c>
+      <c r="L112" s="2">
+        <v>-1508.1521739130501</v>
+      </c>
+      <c r="M112">
+        <v>1</v>
+      </c>
+      <c r="N112" t="s">
+        <v>85</v>
+      </c>
+      <c r="O112" t="s">
+        <v>86</v>
+      </c>
+      <c r="P112" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q112" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="113" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>322</v>
+      </c>
+      <c r="B113" s="1">
+        <v>46056</v>
+      </c>
+      <c r="C113" t="s">
+        <v>68</v>
+      </c>
+      <c r="E113">
+        <v>12245767006.8323</v>
+      </c>
+      <c r="F113" t="s">
+        <v>69</v>
+      </c>
+      <c r="G113" t="s">
+        <v>43</v>
+      </c>
+      <c r="H113" t="s">
+        <v>60</v>
+      </c>
+      <c r="J113" t="s">
+        <v>70</v>
+      </c>
+      <c r="K113" t="s">
+        <v>46</v>
+      </c>
+      <c r="L113" s="2">
+        <v>-1528.6561264822201</v>
+      </c>
+      <c r="M113">
+        <v>1</v>
+      </c>
+      <c r="N113" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="114" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>323</v>
+      </c>
+      <c r="B114" s="1">
+        <v>46056</v>
+      </c>
+      <c r="C114" t="s">
+        <v>68</v>
+      </c>
+      <c r="E114">
+        <v>12283202328.479</v>
+      </c>
+      <c r="F114" t="s">
+        <v>69</v>
+      </c>
+      <c r="G114" t="s">
+        <v>43</v>
+      </c>
+      <c r="H114" t="s">
+        <v>60</v>
+      </c>
+      <c r="J114" t="s">
+        <v>70</v>
+      </c>
+      <c r="K114" t="s">
+        <v>46</v>
+      </c>
+      <c r="L114" s="2">
+        <v>-1549.1600790513901</v>
+      </c>
+      <c r="M114">
+        <v>1</v>
+      </c>
+      <c r="N114" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="115" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>324</v>
+      </c>
+      <c r="B115" s="1">
+        <v>46056</v>
+      </c>
+      <c r="C115" t="s">
+        <v>56</v>
+      </c>
+      <c r="D115" t="s">
+        <v>57</v>
+      </c>
+      <c r="E115">
+        <v>12320637650.125601</v>
+      </c>
+      <c r="F115" t="s">
+        <v>58</v>
+      </c>
+      <c r="G115" t="s">
+        <v>59</v>
+      </c>
+      <c r="H115" t="s">
+        <v>60</v>
+      </c>
+      <c r="J115" t="s">
+        <v>61</v>
+      </c>
+      <c r="K115" t="s">
+        <v>46</v>
+      </c>
+      <c r="L115" s="2">
+        <v>-1569.6640316205601</v>
+      </c>
+      <c r="M115">
+        <v>1</v>
+      </c>
+      <c r="N115" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="116" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>325</v>
+      </c>
+      <c r="B116" s="1">
+        <v>46056</v>
+      </c>
+      <c r="C116" t="s">
+        <v>41</v>
+      </c>
+      <c r="E116">
+        <v>12358072971.7722</v>
+      </c>
+      <c r="F116" t="s">
+        <v>42</v>
+      </c>
+      <c r="G116" t="s">
+        <v>43</v>
+      </c>
+      <c r="H116" t="s">
+        <v>416</v>
+      </c>
+      <c r="I116" t="s">
+        <v>45</v>
+      </c>
+      <c r="K116" t="s">
+        <v>46</v>
+      </c>
+      <c r="L116" s="2">
+        <v>-1590.1679841897301</v>
+      </c>
+      <c r="M116">
+        <v>1</v>
+      </c>
+      <c r="N116" t="s">
+        <v>47</v>
+      </c>
+      <c r="O116" t="s">
+        <v>48</v>
+      </c>
+      <c r="P116" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="117" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>326</v>
+      </c>
+      <c r="B117" s="1">
+        <v>46043</v>
+      </c>
+      <c r="C117" t="s">
+        <v>225</v>
+      </c>
+      <c r="E117">
+        <v>5259278475</v>
+      </c>
+      <c r="F117" t="s">
+        <v>226</v>
+      </c>
+      <c r="G117" t="s">
+        <v>176</v>
+      </c>
+      <c r="H117" t="s">
+        <v>44</v>
+      </c>
+      <c r="I117" t="s">
+        <v>227</v>
+      </c>
+      <c r="K117" t="s">
+        <v>46</v>
+      </c>
+      <c r="L117" s="2">
+        <v>-1610.6719367589001</v>
+      </c>
+      <c r="M117">
+        <v>1</v>
+      </c>
+      <c r="N117" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="118" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>327</v>
+      </c>
+      <c r="B118" s="1">
+        <v>46044</v>
+      </c>
+      <c r="C118" t="s">
+        <v>117</v>
+      </c>
+      <c r="E118">
+        <v>4786546584</v>
+      </c>
+      <c r="F118" t="s">
+        <v>219</v>
+      </c>
+      <c r="G118" t="s">
+        <v>176</v>
+      </c>
+      <c r="H118" t="s">
+        <v>44</v>
+      </c>
+      <c r="I118" t="s">
+        <v>201</v>
+      </c>
+      <c r="K118" t="s">
+        <v>46</v>
+      </c>
+      <c r="L118" s="2">
+        <v>-1631.1758893280701</v>
+      </c>
+      <c r="M118">
+        <v>1</v>
+      </c>
+      <c r="N118" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="119" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>328</v>
+      </c>
+      <c r="B119" s="1">
+        <v>46047</v>
+      </c>
+      <c r="C119" t="s">
+        <v>117</v>
+      </c>
+      <c r="E119" t="s">
+        <v>208</v>
+      </c>
+      <c r="F119" t="s">
+        <v>209</v>
+      </c>
+      <c r="G119" t="s">
+        <v>194</v>
+      </c>
+      <c r="H119" t="s">
+        <v>44</v>
+      </c>
+      <c r="I119" t="s">
+        <v>210</v>
+      </c>
+      <c r="K119" t="s">
+        <v>46</v>
+      </c>
+      <c r="L119" s="2">
+        <v>-1651.6798418972401</v>
+      </c>
+      <c r="M119">
+        <v>1</v>
+      </c>
+      <c r="N119" t="s">
+        <v>211</v>
+      </c>
+      <c r="O119" t="s">
+        <v>212</v>
+      </c>
+      <c r="P119" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="120" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>329</v>
+      </c>
+      <c r="B120" s="1">
+        <v>46048</v>
+      </c>
+      <c r="C120" t="s">
+        <v>117</v>
+      </c>
+      <c r="E120">
+        <v>12395508293.4188</v>
+      </c>
+      <c r="F120" t="s">
+        <v>200</v>
+      </c>
+      <c r="G120" t="s">
+        <v>43</v>
+      </c>
+      <c r="H120" t="s">
+        <v>44</v>
+      </c>
+      <c r="I120" t="s">
+        <v>201</v>
+      </c>
+      <c r="K120" t="s">
+        <v>46</v>
+      </c>
+      <c r="L120" s="2">
+        <v>-1672.1837944664101</v>
+      </c>
+      <c r="M120">
+        <v>1</v>
+      </c>
+      <c r="N120" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="121" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>330</v>
+      </c>
+      <c r="B121" s="1">
+        <v>46048</v>
+      </c>
+      <c r="C121" t="s">
+        <v>192</v>
+      </c>
+      <c r="E121">
+        <v>12432943615.065399</v>
+      </c>
+      <c r="F121" t="s">
+        <v>193</v>
+      </c>
+      <c r="G121" t="s">
+        <v>194</v>
+      </c>
+      <c r="H121" t="s">
+        <v>44</v>
+      </c>
+      <c r="I121" t="s">
+        <v>195</v>
+      </c>
+      <c r="K121" t="s">
+        <v>46</v>
+      </c>
+      <c r="L121" s="2">
+        <v>-1692.6877470355801</v>
+      </c>
+      <c r="M121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>331</v>
+      </c>
+      <c r="B122" s="1">
+        <v>46048</v>
+      </c>
+      <c r="C122" t="s">
+        <v>56</v>
+      </c>
+      <c r="D122" t="s">
+        <v>184</v>
+      </c>
+      <c r="E122">
+        <v>12470378936.712</v>
+      </c>
+      <c r="F122" t="s">
+        <v>185</v>
+      </c>
+      <c r="G122" t="s">
+        <v>130</v>
+      </c>
+      <c r="H122" t="s">
+        <v>44</v>
+      </c>
+      <c r="I122" t="s">
+        <v>186</v>
+      </c>
+      <c r="K122" t="s">
+        <v>46</v>
+      </c>
+      <c r="L122" s="2">
+        <v>-1713.1916996047501</v>
+      </c>
+      <c r="M122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>332</v>
+      </c>
+      <c r="B123" s="1">
+        <v>46050</v>
+      </c>
+      <c r="C123" t="s">
+        <v>174</v>
+      </c>
+      <c r="E123">
+        <v>12507814258.3587</v>
+      </c>
+      <c r="F123" t="s">
+        <v>175</v>
+      </c>
+      <c r="G123" t="s">
+        <v>176</v>
+      </c>
+      <c r="H123" t="s">
+        <v>60</v>
+      </c>
+      <c r="J123" t="s">
+        <v>177</v>
+      </c>
+      <c r="K123" t="s">
+        <v>46</v>
+      </c>
+      <c r="L123" s="2">
+        <v>-1733.6956521739201</v>
+      </c>
+      <c r="M123">
+        <v>1</v>
+      </c>
+      <c r="N123" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="124" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>333</v>
+      </c>
+      <c r="B124" s="1">
+        <v>46050</v>
+      </c>
+      <c r="C124" t="s">
+        <v>159</v>
+      </c>
+      <c r="E124">
+        <v>12545249580.005301</v>
+      </c>
+      <c r="F124" t="s">
+        <v>160</v>
+      </c>
+      <c r="G124" t="s">
+        <v>130</v>
+      </c>
+      <c r="H124" t="s">
+        <v>60</v>
+      </c>
+      <c r="J124" t="s">
+        <v>152</v>
+      </c>
+      <c r="K124" t="s">
+        <v>46</v>
+      </c>
+      <c r="L124" s="2">
+        <v>-1754.19960474309</v>
+      </c>
+      <c r="M124">
+        <v>1</v>
+      </c>
+      <c r="N124" t="s">
+        <v>162</v>
+      </c>
+      <c r="O124" t="s">
+        <v>163</v>
+      </c>
+      <c r="P124" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="125" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>334</v>
+      </c>
+      <c r="B125" s="1">
+        <v>46051</v>
+      </c>
+      <c r="C125" t="s">
+        <v>159</v>
+      </c>
+      <c r="E125">
+        <v>12582684901.651899</v>
+      </c>
+      <c r="F125" t="s">
+        <v>160</v>
+      </c>
+      <c r="G125" t="s">
+        <v>130</v>
+      </c>
+      <c r="H125" t="s">
+        <v>418</v>
+      </c>
+      <c r="I125" t="s">
+        <v>161</v>
+      </c>
+      <c r="K125" t="s">
+        <v>46</v>
+      </c>
+      <c r="L125" s="2">
+        <v>-1774.70355731225</v>
+      </c>
+      <c r="M125">
+        <v>1</v>
+      </c>
+      <c r="N125" t="s">
+        <v>162</v>
+      </c>
+      <c r="O125" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="126" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>335</v>
+      </c>
+      <c r="B126" s="1">
+        <v>46053</v>
+      </c>
+      <c r="C126" t="s">
+        <v>150</v>
+      </c>
+      <c r="E126">
+        <v>12620120223.2985</v>
+      </c>
+      <c r="F126" t="s">
+        <v>151</v>
+      </c>
+      <c r="G126" t="s">
+        <v>130</v>
+      </c>
+      <c r="H126" t="s">
+        <v>419</v>
+      </c>
+      <c r="J126" t="s">
+        <v>152</v>
+      </c>
+      <c r="K126" t="s">
+        <v>46</v>
+      </c>
+      <c r="L126" s="2">
+        <v>-1795.20750988142</v>
+      </c>
+      <c r="M126">
+        <v>1</v>
+      </c>
+      <c r="N126" t="s">
+        <v>153</v>
+      </c>
+      <c r="O126" t="s">
+        <v>153</v>
+      </c>
+      <c r="P126" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="127" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>336</v>
+      </c>
+      <c r="B127" s="1">
+        <v>46053</v>
+      </c>
+      <c r="C127" t="s">
+        <v>142</v>
+      </c>
+      <c r="E127">
+        <v>12657555544.945101</v>
+      </c>
+      <c r="F127" t="s">
+        <v>143</v>
+      </c>
+      <c r="G127" t="s">
+        <v>130</v>
+      </c>
+      <c r="H127" t="s">
+        <v>44</v>
+      </c>
+      <c r="I127" t="s">
+        <v>144</v>
+      </c>
+      <c r="K127" t="s">
+        <v>46</v>
+      </c>
+      <c r="L127" s="2">
+        <v>-1815.71146245059</v>
+      </c>
+      <c r="M127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>337</v>
+      </c>
+      <c r="B128" s="1">
+        <v>46053</v>
+      </c>
+      <c r="C128" t="s">
+        <v>56</v>
+      </c>
+      <c r="D128" t="s">
+        <v>134</v>
+      </c>
+      <c r="E128">
+        <v>12694990866.5917</v>
+      </c>
+      <c r="F128" t="s">
+        <v>135</v>
+      </c>
+      <c r="G128" t="s">
+        <v>43</v>
+      </c>
+      <c r="H128" t="s">
+        <v>44</v>
+      </c>
+      <c r="I128" t="s">
+        <v>136</v>
+      </c>
+      <c r="K128" t="s">
+        <v>46</v>
+      </c>
+      <c r="L128" s="2">
+        <v>-1836.21541501976</v>
+      </c>
+      <c r="M128">
+        <v>1</v>
+      </c>
+      <c r="N128" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="129" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>338</v>
+      </c>
+      <c r="B129" s="1">
+        <v>46054</v>
+      </c>
+      <c r="C129" t="s">
+        <v>117</v>
+      </c>
+      <c r="E129">
+        <v>12732426188.2384</v>
+      </c>
+      <c r="F129" t="s">
+        <v>118</v>
+      </c>
+      <c r="G129" t="s">
+        <v>130</v>
+      </c>
+      <c r="H129" t="s">
+        <v>44</v>
+      </c>
+      <c r="I129" t="s">
+        <v>119</v>
+      </c>
+      <c r="K129" t="s">
+        <v>46</v>
+      </c>
+      <c r="L129" s="2">
+        <v>-1856.71936758893</v>
+      </c>
+      <c r="M129">
+        <v>1</v>
+      </c>
+      <c r="N129" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="130" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>339</v>
+      </c>
+      <c r="B130" s="1">
+        <v>46054</v>
+      </c>
+      <c r="C130" t="s">
+        <v>117</v>
+      </c>
+      <c r="E130">
+        <v>12769861509.885</v>
+      </c>
+      <c r="F130" t="s">
+        <v>118</v>
+      </c>
+      <c r="G130" t="s">
+        <v>43</v>
+      </c>
+      <c r="H130" t="s">
+        <v>44</v>
+      </c>
+      <c r="I130" t="s">
+        <v>119</v>
+      </c>
+      <c r="K130" t="s">
+        <v>46</v>
+      </c>
+      <c r="L130" s="2">
+        <v>-1877.2233201581</v>
+      </c>
+      <c r="M130">
+        <v>1</v>
+      </c>
+      <c r="N130" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="131" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>340</v>
+      </c>
+      <c r="B131" s="1">
+        <v>46054</v>
+      </c>
+      <c r="C131" t="s">
+        <v>117</v>
+      </c>
+      <c r="E131">
+        <v>12807296831.531601</v>
+      </c>
+      <c r="F131" t="s">
+        <v>118</v>
+      </c>
+      <c r="G131" t="s">
+        <v>59</v>
+      </c>
+      <c r="H131" t="s">
+        <v>44</v>
+      </c>
+      <c r="I131" t="s">
+        <v>119</v>
+      </c>
+      <c r="K131" t="s">
+        <v>46</v>
+      </c>
+      <c r="L131" s="2">
+        <v>-1897.72727272727</v>
+      </c>
+      <c r="M131">
+        <v>1</v>
+      </c>
+      <c r="N131" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="132" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>341</v>
+      </c>
+      <c r="B132" s="1">
+        <v>46055</v>
+      </c>
+      <c r="C132" t="s">
+        <v>82</v>
+      </c>
+      <c r="E132">
+        <v>12844732153.1782</v>
+      </c>
+      <c r="F132" t="s">
+        <v>110</v>
+      </c>
+      <c r="G132" t="s">
+        <v>59</v>
+      </c>
+      <c r="H132" t="s">
+        <v>60</v>
+      </c>
+      <c r="J132" t="s">
+        <v>111</v>
+      </c>
+      <c r="K132" t="s">
+        <v>46</v>
+      </c>
+      <c r="L132" s="2">
+        <v>-1918.23122529644</v>
+      </c>
+      <c r="M132">
+        <v>1</v>
+      </c>
+      <c r="N132" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="133" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>342</v>
+      </c>
+      <c r="B133" s="1">
+        <v>46055</v>
+      </c>
+      <c r="C133" t="s">
+        <v>82</v>
+      </c>
+      <c r="E133">
+        <v>12882167474.8248</v>
+      </c>
+      <c r="F133" t="s">
+        <v>83</v>
+      </c>
+      <c r="G133" t="s">
+        <v>43</v>
+      </c>
+      <c r="H133" t="s">
+        <v>60</v>
+      </c>
+      <c r="J133" t="s">
+        <v>70</v>
+      </c>
+      <c r="K133" t="s">
+        <v>46</v>
+      </c>
+      <c r="L133" s="2">
+        <v>-1938.73517786561</v>
+      </c>
+      <c r="M133">
+        <v>1</v>
+      </c>
+      <c r="N133" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="134" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>343</v>
+      </c>
+      <c r="B134" s="1">
+        <v>46055</v>
+      </c>
+      <c r="C134" t="s">
+        <v>82</v>
+      </c>
+      <c r="E134">
+        <v>12919602796.471399</v>
+      </c>
+      <c r="F134" t="s">
+        <v>95</v>
+      </c>
+      <c r="G134" t="s">
+        <v>43</v>
+      </c>
+      <c r="H134" t="s">
+        <v>44</v>
+      </c>
+      <c r="I134" t="s">
+        <v>84</v>
+      </c>
+      <c r="K134" t="s">
+        <v>46</v>
+      </c>
+      <c r="L134" s="2">
+        <v>-1959.23913043478</v>
+      </c>
+      <c r="M134">
+        <v>1</v>
+      </c>
+      <c r="N134" t="s">
+        <v>96</v>
+      </c>
+      <c r="O134" t="s">
+        <v>97</v>
+      </c>
+      <c r="P134" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q134" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="135" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>344</v>
+      </c>
+      <c r="B135" s="1">
+        <v>46055</v>
+      </c>
+      <c r="C135" t="s">
+        <v>82</v>
+      </c>
+      <c r="E135">
+        <v>12957038118.118</v>
+      </c>
+      <c r="F135" t="s">
+        <v>83</v>
+      </c>
+      <c r="G135" t="s">
+        <v>43</v>
+      </c>
+      <c r="H135" t="s">
+        <v>44</v>
+      </c>
+      <c r="I135" t="s">
+        <v>84</v>
+      </c>
+      <c r="K135" t="s">
+        <v>46</v>
+      </c>
+      <c r="L135" s="2">
+        <v>-1979.74308300395</v>
+      </c>
+      <c r="M135">
+        <v>1</v>
+      </c>
+      <c r="N135" t="s">
+        <v>85</v>
+      </c>
+      <c r="O135" t="s">
+        <v>86</v>
+      </c>
+      <c r="P135" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q135" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="136" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>345</v>
+      </c>
+      <c r="B136" s="1">
+        <v>46056</v>
+      </c>
+      <c r="C136" t="s">
+        <v>68</v>
+      </c>
+      <c r="E136">
+        <v>12994473439.7647</v>
+      </c>
+      <c r="F136" t="s">
+        <v>69</v>
+      </c>
+      <c r="G136" t="s">
+        <v>43</v>
+      </c>
+      <c r="H136" t="s">
+        <v>60</v>
+      </c>
+      <c r="J136" t="s">
+        <v>70</v>
+      </c>
+      <c r="K136" t="s">
+        <v>46</v>
+      </c>
+      <c r="L136" s="2">
+        <v>-2000.24703557312</v>
+      </c>
+      <c r="M136">
+        <v>1</v>
+      </c>
+      <c r="N136" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="137" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>346</v>
+      </c>
+      <c r="B137" s="1">
+        <v>46056</v>
+      </c>
+      <c r="C137" t="s">
+        <v>68</v>
+      </c>
+      <c r="E137">
+        <v>13031908761.411301</v>
+      </c>
+      <c r="F137" t="s">
+        <v>69</v>
+      </c>
+      <c r="G137" t="s">
+        <v>43</v>
+      </c>
+      <c r="H137" t="s">
+        <v>60</v>
+      </c>
+      <c r="J137" t="s">
+        <v>70</v>
+      </c>
+      <c r="K137" t="s">
+        <v>46</v>
+      </c>
+      <c r="L137" s="2">
+        <v>-2020.75098814229</v>
+      </c>
+      <c r="M137">
+        <v>1</v>
+      </c>
+      <c r="N137" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="138" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>347</v>
+      </c>
+      <c r="B138" s="1">
+        <v>46056</v>
+      </c>
+      <c r="C138" t="s">
+        <v>56</v>
+      </c>
+      <c r="D138" t="s">
+        <v>57</v>
+      </c>
+      <c r="E138">
+        <v>13069344083.057899</v>
+      </c>
+      <c r="F138" t="s">
+        <v>58</v>
+      </c>
+      <c r="G138" t="s">
+        <v>59</v>
+      </c>
+      <c r="H138" t="s">
+        <v>60</v>
+      </c>
+      <c r="J138" t="s">
+        <v>61</v>
+      </c>
+      <c r="K138" t="s">
+        <v>46</v>
+      </c>
+      <c r="L138" s="2">
+        <v>-2041.25494071146</v>
+      </c>
+      <c r="M138">
+        <v>1</v>
+      </c>
+      <c r="N138" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="139" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>348</v>
+      </c>
+      <c r="B139" s="1">
+        <v>46056</v>
+      </c>
+      <c r="C139" t="s">
+        <v>41</v>
+      </c>
+      <c r="E139">
+        <v>13106779404.7045</v>
+      </c>
+      <c r="F139" t="s">
+        <v>42</v>
+      </c>
+      <c r="G139" t="s">
+        <v>43</v>
+      </c>
+      <c r="H139" t="s">
+        <v>418</v>
+      </c>
+      <c r="I139" t="s">
+        <v>45</v>
+      </c>
+      <c r="K139" t="s">
+        <v>46</v>
+      </c>
+      <c r="L139" s="2">
+        <v>-2061.7588932806302</v>
+      </c>
+      <c r="M139">
+        <v>1</v>
+      </c>
+      <c r="N139" t="s">
+        <v>47</v>
+      </c>
+      <c r="O139" t="s">
+        <v>48</v>
+      </c>
+      <c r="P139" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="140" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>349</v>
+      </c>
+      <c r="B140" s="1">
+        <v>46043</v>
+      </c>
+      <c r="C140" t="s">
+        <v>225</v>
+      </c>
+      <c r="E140">
+        <v>4313814693</v>
+      </c>
+      <c r="F140" t="s">
+        <v>226</v>
+      </c>
+      <c r="G140" t="s">
+        <v>176</v>
+      </c>
+      <c r="H140" t="s">
+        <v>44</v>
+      </c>
+      <c r="I140" t="s">
+        <v>227</v>
+      </c>
+      <c r="K140" t="s">
+        <v>46</v>
+      </c>
+      <c r="L140" s="2">
+        <v>-2082.2628458498002</v>
+      </c>
+      <c r="M140">
+        <v>1</v>
+      </c>
+      <c r="N140" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="141" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>350</v>
+      </c>
+      <c r="B141" s="1">
+        <v>46044</v>
+      </c>
+      <c r="C141" t="s">
+        <v>117</v>
+      </c>
+      <c r="E141">
+        <v>3841082802</v>
+      </c>
+      <c r="F141" t="s">
+        <v>219</v>
+      </c>
+      <c r="G141" t="s">
+        <v>176</v>
+      </c>
+      <c r="H141" t="s">
+        <v>44</v>
+      </c>
+      <c r="I141" t="s">
+        <v>201</v>
+      </c>
+      <c r="K141" t="s">
+        <v>46</v>
+      </c>
+      <c r="L141" s="2">
+        <v>-2102.7667984189702</v>
+      </c>
+      <c r="M141">
+        <v>1</v>
+      </c>
+      <c r="N141" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="142" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>351</v>
+      </c>
+      <c r="B142" s="1">
+        <v>46047</v>
+      </c>
+      <c r="C142" t="s">
+        <v>117</v>
+      </c>
+      <c r="E142" t="s">
+        <v>208</v>
+      </c>
+      <c r="F142" t="s">
+        <v>209</v>
+      </c>
+      <c r="G142" t="s">
+        <v>194</v>
+      </c>
+      <c r="H142" t="s">
+        <v>44</v>
+      </c>
+      <c r="I142" t="s">
+        <v>210</v>
+      </c>
+      <c r="K142" t="s">
+        <v>46</v>
+      </c>
+      <c r="L142" s="2">
+        <v>-2123.2707509881402</v>
+      </c>
+      <c r="M142">
+        <v>1</v>
+      </c>
+      <c r="N142" t="s">
+        <v>211</v>
+      </c>
+      <c r="O142" t="s">
+        <v>212</v>
+      </c>
+      <c r="P142" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="143" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>352</v>
+      </c>
+      <c r="B143" s="1">
+        <v>46048</v>
+      </c>
+      <c r="C143" t="s">
+        <v>117</v>
+      </c>
+      <c r="E143">
+        <v>13144214726.351101</v>
+      </c>
+      <c r="F143" t="s">
+        <v>200</v>
+      </c>
+      <c r="G143" t="s">
+        <v>43</v>
+      </c>
+      <c r="H143" t="s">
+        <v>44</v>
+      </c>
+      <c r="I143" t="s">
+        <v>201</v>
+      </c>
+      <c r="K143" t="s">
+        <v>46</v>
+      </c>
+      <c r="L143" s="2">
+        <v>-2143.7747035573102</v>
+      </c>
+      <c r="M143">
+        <v>1</v>
+      </c>
+      <c r="N143" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="144" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>353</v>
+      </c>
+      <c r="B144" s="1">
+        <v>46048</v>
+      </c>
+      <c r="C144" t="s">
+        <v>192</v>
+      </c>
+      <c r="E144">
+        <v>13181650047.9977</v>
+      </c>
+      <c r="F144" t="s">
+        <v>193</v>
+      </c>
+      <c r="G144" t="s">
+        <v>194</v>
+      </c>
+      <c r="H144" t="s">
+        <v>44</v>
+      </c>
+      <c r="I144" t="s">
+        <v>195</v>
+      </c>
+      <c r="K144" t="s">
+        <v>46</v>
+      </c>
+      <c r="L144" s="2">
+        <v>-2164.2786561264802</v>
+      </c>
+      <c r="M144">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>354</v>
+      </c>
+      <c r="B145" s="1">
+        <v>46048</v>
+      </c>
+      <c r="C145" t="s">
+        <v>56</v>
+      </c>
+      <c r="D145" t="s">
+        <v>184</v>
+      </c>
+      <c r="E145">
+        <v>13219085369.6444</v>
+      </c>
+      <c r="F145" t="s">
+        <v>185</v>
+      </c>
+      <c r="G145" t="s">
+        <v>130</v>
+      </c>
+      <c r="H145" t="s">
+        <v>44</v>
+      </c>
+      <c r="I145" t="s">
+        <v>186</v>
+      </c>
+      <c r="K145" t="s">
+        <v>46</v>
+      </c>
+      <c r="L145" s="2">
+        <v>-2184.7826086956502</v>
+      </c>
+      <c r="M145">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>355</v>
+      </c>
+      <c r="B146" s="1">
+        <v>46050</v>
+      </c>
+      <c r="C146" t="s">
+        <v>174</v>
+      </c>
+      <c r="E146">
+        <v>13256520691.291</v>
+      </c>
+      <c r="F146" t="s">
+        <v>175</v>
+      </c>
+      <c r="G146" t="s">
+        <v>176</v>
+      </c>
+      <c r="H146" t="s">
+        <v>60</v>
+      </c>
+      <c r="J146" t="s">
+        <v>177</v>
+      </c>
+      <c r="K146" t="s">
+        <v>46</v>
+      </c>
+      <c r="L146" s="2">
+        <v>-2205.2865612648202</v>
+      </c>
+      <c r="M146">
+        <v>1</v>
+      </c>
+      <c r="N146" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="147" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>356</v>
+      </c>
+      <c r="B147" s="1">
+        <v>46050</v>
+      </c>
+      <c r="C147" t="s">
+        <v>159</v>
+      </c>
+      <c r="E147">
+        <v>13293956012.937599</v>
+      </c>
+      <c r="F147" t="s">
+        <v>160</v>
+      </c>
+      <c r="G147" t="s">
+        <v>130</v>
+      </c>
+      <c r="H147" t="s">
+        <v>60</v>
+      </c>
+      <c r="J147" t="s">
+        <v>152</v>
+      </c>
+      <c r="K147" t="s">
+        <v>46</v>
+      </c>
+      <c r="L147" s="2">
+        <v>-2225.7905138339902</v>
+      </c>
+      <c r="M147">
+        <v>1</v>
+      </c>
+      <c r="N147" t="s">
+        <v>162</v>
+      </c>
+      <c r="O147" t="s">
+        <v>163</v>
+      </c>
+      <c r="P147" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="148" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>357</v>
+      </c>
+      <c r="B148" s="1">
+        <v>46051</v>
+      </c>
+      <c r="C148" t="s">
+        <v>159</v>
+      </c>
+      <c r="E148">
+        <v>13331391334.5842</v>
+      </c>
+      <c r="F148" t="s">
+        <v>160</v>
+      </c>
+      <c r="G148" t="s">
+        <v>130</v>
+      </c>
+      <c r="H148" t="s">
+        <v>420</v>
+      </c>
+      <c r="I148" t="s">
+        <v>161</v>
+      </c>
+      <c r="K148" t="s">
+        <v>46</v>
+      </c>
+      <c r="L148" s="2">
+        <v>-2246.2944664031602</v>
+      </c>
+      <c r="M148">
+        <v>1</v>
+      </c>
+      <c r="N148" t="s">
+        <v>162</v>
+      </c>
+      <c r="O148" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="149" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>358</v>
+      </c>
+      <c r="B149" s="1">
+        <v>46053</v>
+      </c>
+      <c r="C149" t="s">
+        <v>150</v>
+      </c>
+      <c r="E149">
+        <v>13368826656.230801</v>
+      </c>
+      <c r="F149" t="s">
+        <v>151</v>
+      </c>
+      <c r="G149" t="s">
+        <v>130</v>
+      </c>
+      <c r="H149" t="s">
+        <v>421</v>
+      </c>
+      <c r="J149" t="s">
+        <v>152</v>
+      </c>
+      <c r="K149" t="s">
+        <v>46</v>
+      </c>
+      <c r="L149" s="2">
+        <v>-2266.7984189723302</v>
+      </c>
+      <c r="M149">
+        <v>1</v>
+      </c>
+      <c r="N149" t="s">
+        <v>153</v>
+      </c>
+      <c r="O149" t="s">
+        <v>153</v>
+      </c>
+      <c r="P149" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="150" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>359</v>
+      </c>
+      <c r="B150" s="1">
+        <v>46053</v>
+      </c>
+      <c r="C150" t="s">
+        <v>142</v>
+      </c>
+      <c r="E150">
+        <v>13406261977.877399</v>
+      </c>
+      <c r="F150" t="s">
+        <v>143</v>
+      </c>
+      <c r="G150" t="s">
+        <v>130</v>
+      </c>
+      <c r="H150" t="s">
+        <v>44</v>
+      </c>
+      <c r="I150" t="s">
+        <v>144</v>
+      </c>
+      <c r="K150" t="s">
+        <v>46</v>
+      </c>
+      <c r="L150" s="2">
+        <v>-2287.3023715415002</v>
+      </c>
+      <c r="M150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
+        <v>360</v>
+      </c>
+      <c r="B151" s="1">
+        <v>46053</v>
+      </c>
+      <c r="C151" t="s">
+        <v>56</v>
+      </c>
+      <c r="D151" t="s">
+        <v>134</v>
+      </c>
+      <c r="E151">
+        <v>13443697299.524099</v>
+      </c>
+      <c r="F151" t="s">
+        <v>135</v>
+      </c>
+      <c r="G151" t="s">
+        <v>43</v>
+      </c>
+      <c r="H151" t="s">
+        <v>44</v>
+      </c>
+      <c r="I151" t="s">
+        <v>136</v>
+      </c>
+      <c r="K151" t="s">
+        <v>46</v>
+      </c>
+      <c r="L151" s="2">
+        <v>-2307.8063241106702</v>
+      </c>
+      <c r="M151">
+        <v>1</v>
+      </c>
+      <c r="N151" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="152" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>361</v>
+      </c>
+      <c r="B152" s="1">
+        <v>46054</v>
+      </c>
+      <c r="C152" t="s">
+        <v>117</v>
+      </c>
+      <c r="E152">
+        <v>13481132621.1707</v>
+      </c>
+      <c r="F152" t="s">
+        <v>118</v>
+      </c>
+      <c r="G152" t="s">
+        <v>130</v>
+      </c>
+      <c r="H152" t="s">
+        <v>44</v>
+      </c>
+      <c r="I152" t="s">
+        <v>119</v>
+      </c>
+      <c r="K152" t="s">
+        <v>46</v>
+      </c>
+      <c r="L152" s="2">
+        <v>-2328.3102766798402</v>
+      </c>
+      <c r="M152">
+        <v>1</v>
+      </c>
+      <c r="N152" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="153" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
+        <v>362</v>
+      </c>
+      <c r="B153" s="1">
+        <v>46054</v>
+      </c>
+      <c r="C153" t="s">
+        <v>117</v>
+      </c>
+      <c r="E153">
+        <v>13518567942.817301</v>
+      </c>
+      <c r="F153" t="s">
+        <v>118</v>
+      </c>
+      <c r="G153" t="s">
+        <v>43</v>
+      </c>
+      <c r="H153" t="s">
+        <v>44</v>
+      </c>
+      <c r="I153" t="s">
+        <v>119</v>
+      </c>
+      <c r="K153" t="s">
+        <v>46</v>
+      </c>
+      <c r="L153" s="2">
+        <v>-2348.8142292490102</v>
+      </c>
+      <c r="M153">
+        <v>1</v>
+      </c>
+      <c r="N153" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="154" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
+        <v>363</v>
+      </c>
+      <c r="B154" s="1">
+        <v>46054</v>
+      </c>
+      <c r="C154" t="s">
+        <v>117</v>
+      </c>
+      <c r="E154">
+        <v>13556003264.4639</v>
+      </c>
+      <c r="F154" t="s">
+        <v>118</v>
+      </c>
+      <c r="G154" t="s">
+        <v>59</v>
+      </c>
+      <c r="H154" t="s">
+        <v>44</v>
+      </c>
+      <c r="I154" t="s">
+        <v>119</v>
+      </c>
+      <c r="K154" t="s">
+        <v>46</v>
+      </c>
+      <c r="L154" s="2">
+        <v>-2369.3181818181802</v>
+      </c>
+      <c r="M154">
+        <v>1</v>
+      </c>
+      <c r="N154" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="155" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
+        <v>364</v>
+      </c>
+      <c r="B155" s="1">
+        <v>46055</v>
+      </c>
+      <c r="C155" t="s">
+        <v>82</v>
+      </c>
+      <c r="E155">
+        <v>13593438586.1105</v>
+      </c>
+      <c r="F155" t="s">
+        <v>110</v>
+      </c>
+      <c r="G155" t="s">
+        <v>59</v>
+      </c>
+      <c r="H155" t="s">
+        <v>60</v>
+      </c>
+      <c r="J155" t="s">
+        <v>111</v>
+      </c>
+      <c r="K155" t="s">
+        <v>46</v>
+      </c>
+      <c r="L155" s="2">
+        <v>-2389.8221343873502</v>
+      </c>
+      <c r="M155">
+        <v>1</v>
+      </c>
+      <c r="N155" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="156" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
+        <v>365</v>
+      </c>
+      <c r="B156" s="1">
+        <v>46055</v>
+      </c>
+      <c r="C156" t="s">
+        <v>82</v>
+      </c>
+      <c r="E156">
+        <v>13630873907.757099</v>
+      </c>
+      <c r="F156" t="s">
+        <v>83</v>
+      </c>
+      <c r="G156" t="s">
+        <v>43</v>
+      </c>
+      <c r="H156" t="s">
+        <v>60</v>
+      </c>
+      <c r="J156" t="s">
+        <v>70</v>
+      </c>
+      <c r="K156" t="s">
+        <v>46</v>
+      </c>
+      <c r="L156" s="2">
+        <v>-2410.3260869565202</v>
+      </c>
+      <c r="M156">
+        <v>1</v>
+      </c>
+      <c r="N156" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="157" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
+        <v>366</v>
+      </c>
+      <c r="B157" s="1">
+        <v>46055</v>
+      </c>
+      <c r="C157" t="s">
+        <v>82</v>
+      </c>
+      <c r="E157">
+        <v>13668309229.403799</v>
+      </c>
+      <c r="F157" t="s">
+        <v>95</v>
+      </c>
+      <c r="G157" t="s">
+        <v>43</v>
+      </c>
+      <c r="H157" t="s">
+        <v>44</v>
+      </c>
+      <c r="I157" t="s">
+        <v>84</v>
+      </c>
+      <c r="K157" t="s">
+        <v>46</v>
+      </c>
+      <c r="L157" s="2">
+        <v>-2430.8300395256902</v>
+      </c>
+      <c r="M157">
+        <v>1</v>
+      </c>
+      <c r="N157" t="s">
+        <v>96</v>
+      </c>
+      <c r="O157" t="s">
+        <v>97</v>
+      </c>
+      <c r="P157" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q157" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="158" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
+        <v>367</v>
+      </c>
+      <c r="B158" s="1">
+        <v>46055</v>
+      </c>
+      <c r="C158" t="s">
+        <v>82</v>
+      </c>
+      <c r="E158">
+        <v>13705744551.0504</v>
+      </c>
+      <c r="F158" t="s">
+        <v>83</v>
+      </c>
+      <c r="G158" t="s">
+        <v>43</v>
+      </c>
+      <c r="H158" t="s">
+        <v>44</v>
+      </c>
+      <c r="I158" t="s">
+        <v>84</v>
+      </c>
+      <c r="K158" t="s">
+        <v>46</v>
+      </c>
+      <c r="L158" s="2">
+        <v>-2451.3339920948602</v>
+      </c>
+      <c r="M158">
+        <v>1</v>
+      </c>
+      <c r="N158" t="s">
+        <v>85</v>
+      </c>
+      <c r="O158" t="s">
+        <v>86</v>
+      </c>
+      <c r="P158" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q158" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="159" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
+        <v>368</v>
+      </c>
+      <c r="B159" s="1">
+        <v>46056</v>
+      </c>
+      <c r="C159" t="s">
+        <v>68</v>
+      </c>
+      <c r="E159">
+        <v>13743179872.697001</v>
+      </c>
+      <c r="F159" t="s">
+        <v>69</v>
+      </c>
+      <c r="G159" t="s">
+        <v>43</v>
+      </c>
+      <c r="H159" t="s">
+        <v>60</v>
+      </c>
+      <c r="J159" t="s">
+        <v>70</v>
+      </c>
+      <c r="K159" t="s">
+        <v>46</v>
+      </c>
+      <c r="L159" s="2">
+        <v>-2471.8379446640301</v>
+      </c>
+      <c r="M159">
+        <v>1</v>
+      </c>
+      <c r="N159" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="160" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
+        <v>369</v>
+      </c>
+      <c r="B160" s="1">
+        <v>46056</v>
+      </c>
+      <c r="C160" t="s">
+        <v>68</v>
+      </c>
+      <c r="E160">
+        <v>13780615194.343599</v>
+      </c>
+      <c r="F160" t="s">
+        <v>69</v>
+      </c>
+      <c r="G160" t="s">
+        <v>43</v>
+      </c>
+      <c r="H160" t="s">
+        <v>60</v>
+      </c>
+      <c r="J160" t="s">
+        <v>70</v>
+      </c>
+      <c r="K160" t="s">
+        <v>46</v>
+      </c>
+      <c r="L160" s="2">
+        <v>-2492.3418972332001</v>
+      </c>
+      <c r="M160">
+        <v>1</v>
+      </c>
+      <c r="N160" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="161" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
+        <v>370</v>
+      </c>
+      <c r="B161" s="1">
+        <v>46056</v>
+      </c>
+      <c r="C161" t="s">
+        <v>56</v>
+      </c>
+      <c r="D161" t="s">
+        <v>57</v>
+      </c>
+      <c r="E161">
+        <v>13818050515.9902</v>
+      </c>
+      <c r="F161" t="s">
+        <v>58</v>
+      </c>
+      <c r="G161" t="s">
+        <v>59</v>
+      </c>
+      <c r="H161" t="s">
+        <v>60</v>
+      </c>
+      <c r="J161" t="s">
+        <v>61</v>
+      </c>
+      <c r="K161" t="s">
+        <v>46</v>
+      </c>
+      <c r="L161" s="2">
+        <v>-2512.8458498023701</v>
+      </c>
+      <c r="M161">
+        <v>1</v>
+      </c>
+      <c r="N161" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="162" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
+        <v>371</v>
+      </c>
+      <c r="B162" s="1">
+        <v>46056</v>
+      </c>
+      <c r="C162" t="s">
+        <v>41</v>
+      </c>
+      <c r="E162">
+        <v>13855485837.636801</v>
+      </c>
+      <c r="F162" t="s">
+        <v>42</v>
+      </c>
+      <c r="G162" t="s">
+        <v>43</v>
+      </c>
+      <c r="H162" t="s">
+        <v>420</v>
+      </c>
+      <c r="I162" t="s">
+        <v>45</v>
+      </c>
+      <c r="K162" t="s">
+        <v>46</v>
+      </c>
+      <c r="L162" s="2">
+        <v>-2533.3498023715401</v>
+      </c>
+      <c r="M162">
+        <v>1</v>
+      </c>
+      <c r="N162" t="s">
+        <v>47</v>
+      </c>
+      <c r="O162" t="s">
+        <v>48</v>
+      </c>
+      <c r="P162" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="163" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
+        <v>372</v>
+      </c>
+      <c r="B163" s="1">
+        <v>46043</v>
+      </c>
+      <c r="C163" t="s">
+        <v>225</v>
+      </c>
+      <c r="E163">
+        <v>3368350911</v>
+      </c>
+      <c r="F163" t="s">
+        <v>226</v>
+      </c>
+      <c r="G163" t="s">
+        <v>176</v>
+      </c>
+      <c r="H163" t="s">
+        <v>44</v>
+      </c>
+      <c r="I163" t="s">
+        <v>227</v>
+      </c>
+      <c r="K163" t="s">
+        <v>46</v>
+      </c>
+      <c r="L163" s="2">
+        <v>-2553.8537549407101</v>
+      </c>
+      <c r="M163">
+        <v>1</v>
+      </c>
+      <c r="N163" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="164" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A164" t="s">
+        <v>373</v>
+      </c>
+      <c r="B164" s="1">
+        <v>46044</v>
+      </c>
+      <c r="C164" t="s">
+        <v>117</v>
+      </c>
+      <c r="E164">
+        <v>2895619020</v>
+      </c>
+      <c r="F164" t="s">
+        <v>219</v>
+      </c>
+      <c r="G164" t="s">
+        <v>176</v>
+      </c>
+      <c r="H164" t="s">
+        <v>44</v>
+      </c>
+      <c r="I164" t="s">
+        <v>201</v>
+      </c>
+      <c r="K164" t="s">
+        <v>46</v>
+      </c>
+      <c r="L164" s="2">
+        <v>-2574.3577075098801</v>
+      </c>
+      <c r="M164">
+        <v>1</v>
+      </c>
+      <c r="N164" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="165" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
+        <v>374</v>
+      </c>
+      <c r="B165" s="1">
+        <v>46047</v>
+      </c>
+      <c r="C165" t="s">
+        <v>117</v>
+      </c>
+      <c r="E165" t="s">
+        <v>208</v>
+      </c>
+      <c r="F165" t="s">
+        <v>209</v>
+      </c>
+      <c r="G165" t="s">
+        <v>194</v>
+      </c>
+      <c r="H165" t="s">
+        <v>44</v>
+      </c>
+      <c r="I165" t="s">
+        <v>210</v>
+      </c>
+      <c r="K165" t="s">
+        <v>46</v>
+      </c>
+      <c r="L165" s="2">
+        <v>-2594.8616600790501</v>
+      </c>
+      <c r="M165">
+        <v>1</v>
+      </c>
+      <c r="N165" t="s">
+        <v>211</v>
+      </c>
+      <c r="O165" t="s">
+        <v>212</v>
+      </c>
+      <c r="P165" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="166" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A166" t="s">
+        <v>375</v>
+      </c>
+      <c r="B166" s="1">
+        <v>46048</v>
+      </c>
+      <c r="C166" t="s">
+        <v>117</v>
+      </c>
+      <c r="E166">
+        <v>13892921159.283501</v>
+      </c>
+      <c r="F166" t="s">
+        <v>200</v>
+      </c>
+      <c r="G166" t="s">
+        <v>43</v>
+      </c>
+      <c r="H166" t="s">
+        <v>44</v>
+      </c>
+      <c r="I166" t="s">
+        <v>201</v>
+      </c>
+      <c r="K166" t="s">
+        <v>46</v>
+      </c>
+      <c r="L166" s="2">
+        <v>-2615.3656126482201</v>
+      </c>
+      <c r="M166">
+        <v>1</v>
+      </c>
+      <c r="N166" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="167" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A167" t="s">
+        <v>376</v>
+      </c>
+      <c r="B167" s="1">
+        <v>46048</v>
+      </c>
+      <c r="C167" t="s">
+        <v>192</v>
+      </c>
+      <c r="E167">
+        <v>13930356480.930099</v>
+      </c>
+      <c r="F167" t="s">
+        <v>193</v>
+      </c>
+      <c r="G167" t="s">
+        <v>194</v>
+      </c>
+      <c r="H167" t="s">
+        <v>44</v>
+      </c>
+      <c r="I167" t="s">
+        <v>195</v>
+      </c>
+      <c r="K167" t="s">
+        <v>46</v>
+      </c>
+      <c r="L167" s="2">
+        <v>-2635.8695652173901</v>
+      </c>
+      <c r="M167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A168" t="s">
+        <v>377</v>
+      </c>
+      <c r="B168" s="1">
+        <v>46048</v>
+      </c>
+      <c r="C168" t="s">
+        <v>56</v>
+      </c>
+      <c r="D168" t="s">
+        <v>184</v>
+      </c>
+      <c r="E168">
+        <v>13967791802.5767</v>
+      </c>
+      <c r="F168" t="s">
+        <v>185</v>
+      </c>
+      <c r="G168" t="s">
+        <v>130</v>
+      </c>
+      <c r="H168" t="s">
+        <v>44</v>
+      </c>
+      <c r="I168" t="s">
+        <v>186</v>
+      </c>
+      <c r="K168" t="s">
+        <v>46</v>
+      </c>
+      <c r="L168" s="2">
+        <v>-2656.3735177865601</v>
+      </c>
+      <c r="M168">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A169" t="s">
+        <v>378</v>
+      </c>
+      <c r="B169" s="1">
+        <v>46050</v>
+      </c>
+      <c r="C169" t="s">
+        <v>174</v>
+      </c>
+      <c r="E169">
+        <v>14005227124.223301</v>
+      </c>
+      <c r="F169" t="s">
+        <v>175</v>
+      </c>
+      <c r="G169" t="s">
+        <v>176</v>
+      </c>
+      <c r="H169" t="s">
+        <v>60</v>
+      </c>
+      <c r="J169" t="s">
+        <v>177</v>
+      </c>
+      <c r="K169" t="s">
+        <v>46</v>
+      </c>
+      <c r="L169" s="2">
+        <v>-2676.8774703557301</v>
+      </c>
+      <c r="M169">
+        <v>1</v>
+      </c>
+      <c r="N169" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="170" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A170" t="s">
+        <v>379</v>
+      </c>
+      <c r="B170" s="1">
+        <v>46050</v>
+      </c>
+      <c r="C170" t="s">
+        <v>159</v>
+      </c>
+      <c r="E170">
+        <v>14042662445.8699</v>
+      </c>
+      <c r="F170" t="s">
+        <v>160</v>
+      </c>
+      <c r="G170" t="s">
+        <v>130</v>
+      </c>
+      <c r="H170" t="s">
+        <v>60</v>
+      </c>
+      <c r="J170" t="s">
+        <v>152</v>
+      </c>
+      <c r="K170" t="s">
+        <v>46</v>
+      </c>
+      <c r="L170" s="2">
+        <v>-2697.3814229249001</v>
+      </c>
+      <c r="M170">
+        <v>1</v>
+      </c>
+      <c r="N170" t="s">
+        <v>162</v>
+      </c>
+      <c r="O170" t="s">
+        <v>163</v>
+      </c>
+      <c r="P170" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="171" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A171" t="s">
+        <v>380</v>
+      </c>
+      <c r="B171" s="1">
+        <v>46051</v>
+      </c>
+      <c r="C171" t="s">
+        <v>159</v>
+      </c>
+      <c r="E171">
+        <v>14080097767.5165</v>
+      </c>
+      <c r="F171" t="s">
+        <v>160</v>
+      </c>
+      <c r="G171" t="s">
+        <v>130</v>
+      </c>
+      <c r="H171" t="s">
+        <v>422</v>
+      </c>
+      <c r="I171" t="s">
+        <v>161</v>
+      </c>
+      <c r="K171" t="s">
+        <v>46</v>
+      </c>
+      <c r="L171" s="2">
+        <v>-2717.8853754940701</v>
+      </c>
+      <c r="M171">
+        <v>1</v>
+      </c>
+      <c r="N171" t="s">
+        <v>162</v>
+      </c>
+      <c r="O171" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="172" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A172" t="s">
+        <v>381</v>
+      </c>
+      <c r="B172" s="1">
+        <v>46053</v>
+      </c>
+      <c r="C172" t="s">
+        <v>150</v>
+      </c>
+      <c r="E172">
+        <v>14117533089.1632</v>
+      </c>
+      <c r="F172" t="s">
+        <v>151</v>
+      </c>
+      <c r="G172" t="s">
+        <v>130</v>
+      </c>
+      <c r="H172" t="s">
+        <v>423</v>
+      </c>
+      <c r="J172" t="s">
+        <v>152</v>
+      </c>
+      <c r="K172" t="s">
+        <v>46</v>
+      </c>
+      <c r="L172" s="2">
+        <v>-2738.3893280632401</v>
+      </c>
+      <c r="M172">
+        <v>1</v>
+      </c>
+      <c r="N172" t="s">
+        <v>153</v>
+      </c>
+      <c r="O172" t="s">
+        <v>153</v>
+      </c>
+      <c r="P172" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="173" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A173" t="s">
+        <v>382</v>
+      </c>
+      <c r="B173" s="1">
+        <v>46053</v>
+      </c>
+      <c r="C173" t="s">
+        <v>142</v>
+      </c>
+      <c r="E173">
+        <v>14154968410.809799</v>
+      </c>
+      <c r="F173" t="s">
+        <v>143</v>
+      </c>
+      <c r="G173" t="s">
+        <v>130</v>
+      </c>
+      <c r="H173" t="s">
+        <v>44</v>
+      </c>
+      <c r="I173" t="s">
+        <v>144</v>
+      </c>
+      <c r="K173" t="s">
+        <v>46</v>
+      </c>
+      <c r="L173" s="2">
+        <v>-2758.8932806324101</v>
+      </c>
+      <c r="M173">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A174" t="s">
+        <v>383</v>
+      </c>
+      <c r="B174" s="1">
+        <v>46053</v>
+      </c>
+      <c r="C174" t="s">
+        <v>56</v>
+      </c>
+      <c r="D174" t="s">
+        <v>134</v>
+      </c>
+      <c r="E174">
+        <v>14192403732.4564</v>
+      </c>
+      <c r="F174" t="s">
+        <v>135</v>
+      </c>
+      <c r="G174" t="s">
+        <v>43</v>
+      </c>
+      <c r="H174" t="s">
+        <v>44</v>
+      </c>
+      <c r="I174" t="s">
+        <v>136</v>
+      </c>
+      <c r="K174" t="s">
+        <v>46</v>
+      </c>
+      <c r="L174" s="2">
+        <v>-2779.3972332015801</v>
+      </c>
+      <c r="M174">
+        <v>1</v>
+      </c>
+      <c r="N174" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="175" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A175" t="s">
+        <v>384</v>
+      </c>
+      <c r="B175" s="1">
+        <v>46054</v>
+      </c>
+      <c r="C175" t="s">
+        <v>117</v>
+      </c>
+      <c r="E175">
+        <v>14229839054.103001</v>
+      </c>
+      <c r="F175" t="s">
+        <v>118</v>
+      </c>
+      <c r="G175" t="s">
+        <v>130</v>
+      </c>
+      <c r="H175" t="s">
+        <v>44</v>
+      </c>
+      <c r="I175" t="s">
+        <v>119</v>
+      </c>
+      <c r="K175" t="s">
+        <v>46</v>
+      </c>
+      <c r="L175" s="2">
+        <v>-2799.9011857707501</v>
+      </c>
+      <c r="M175">
+        <v>1</v>
+      </c>
+      <c r="N175" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="176" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A176" t="s">
+        <v>385</v>
+      </c>
+      <c r="B176" s="1">
+        <v>46054</v>
+      </c>
+      <c r="C176" t="s">
+        <v>117</v>
+      </c>
+      <c r="E176">
+        <v>14267274375.749599</v>
+      </c>
+      <c r="F176" t="s">
+        <v>118</v>
+      </c>
+      <c r="G176" t="s">
+        <v>43</v>
+      </c>
+      <c r="H176" t="s">
+        <v>44</v>
+      </c>
+      <c r="I176" t="s">
+        <v>119</v>
+      </c>
+      <c r="K176" t="s">
+        <v>46</v>
+      </c>
+      <c r="L176" s="2">
+        <v>-2820.4051383399201</v>
+      </c>
+      <c r="M176">
+        <v>1</v>
+      </c>
+      <c r="N176" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="177" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A177" t="s">
+        <v>386</v>
+      </c>
+      <c r="B177" s="1">
+        <v>46054</v>
+      </c>
+      <c r="C177" t="s">
+        <v>117</v>
+      </c>
+      <c r="E177">
+        <v>14304709697.3962</v>
+      </c>
+      <c r="F177" t="s">
+        <v>118</v>
+      </c>
+      <c r="G177" t="s">
+        <v>59</v>
+      </c>
+      <c r="H177" t="s">
+        <v>44</v>
+      </c>
+      <c r="I177" t="s">
+        <v>119</v>
+      </c>
+      <c r="K177" t="s">
+        <v>46</v>
+      </c>
+      <c r="L177" s="2">
+        <v>-2840.9090909090901</v>
+      </c>
+      <c r="M177">
+        <v>1</v>
+      </c>
+      <c r="N177" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="178" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A178" t="s">
+        <v>387</v>
+      </c>
+      <c r="B178" s="1">
+        <v>46055</v>
+      </c>
+      <c r="C178" t="s">
+        <v>82</v>
+      </c>
+      <c r="E178">
+        <v>14342145019.0429</v>
+      </c>
+      <c r="F178" t="s">
+        <v>110</v>
+      </c>
+      <c r="G178" t="s">
+        <v>59</v>
+      </c>
+      <c r="H178" t="s">
+        <v>60</v>
+      </c>
+      <c r="J178" t="s">
+        <v>111</v>
+      </c>
+      <c r="K178" t="s">
+        <v>46</v>
+      </c>
+      <c r="L178" s="2">
+        <v>-2861.4130434782601</v>
+      </c>
+      <c r="M178">
+        <v>1</v>
+      </c>
+      <c r="N178" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="179" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A179" t="s">
+        <v>388</v>
+      </c>
+      <c r="B179" s="1">
+        <v>46055</v>
+      </c>
+      <c r="C179" t="s">
+        <v>82</v>
+      </c>
+      <c r="E179">
+        <v>14379580340.689501</v>
+      </c>
+      <c r="F179" t="s">
+        <v>83</v>
+      </c>
+      <c r="G179" t="s">
+        <v>43</v>
+      </c>
+      <c r="H179" t="s">
+        <v>60</v>
+      </c>
+      <c r="J179" t="s">
+        <v>70</v>
+      </c>
+      <c r="K179" t="s">
+        <v>46</v>
+      </c>
+      <c r="L179" s="2">
+        <v>-2881.9169960474301</v>
+      </c>
+      <c r="M179">
+        <v>1</v>
+      </c>
+      <c r="N179" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="180" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A180" t="s">
+        <v>389</v>
+      </c>
+      <c r="B180" s="1">
+        <v>46055</v>
+      </c>
+      <c r="C180" t="s">
+        <v>82</v>
+      </c>
+      <c r="E180">
+        <v>14417015662.3361</v>
+      </c>
+      <c r="F180" t="s">
+        <v>95</v>
+      </c>
+      <c r="G180" t="s">
+        <v>43</v>
+      </c>
+      <c r="H180" t="s">
+        <v>44</v>
+      </c>
+      <c r="I180" t="s">
+        <v>84</v>
+      </c>
+      <c r="K180" t="s">
+        <v>46</v>
+      </c>
+      <c r="L180" s="2">
+        <v>-2902.4209486166001</v>
+      </c>
+      <c r="M180">
+        <v>1</v>
+      </c>
+      <c r="N180" t="s">
+        <v>96</v>
+      </c>
+      <c r="O180" t="s">
+        <v>97</v>
+      </c>
+      <c r="P180" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q180" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="181" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A181" t="s">
+        <v>390</v>
+      </c>
+      <c r="B181" s="1">
+        <v>46055</v>
+      </c>
+      <c r="C181" t="s">
+        <v>82</v>
+      </c>
+      <c r="E181">
+        <v>14454450983.9827</v>
+      </c>
+      <c r="F181" t="s">
+        <v>83</v>
+      </c>
+      <c r="G181" t="s">
+        <v>43</v>
+      </c>
+      <c r="H181" t="s">
+        <v>44</v>
+      </c>
+      <c r="I181" t="s">
+        <v>84</v>
+      </c>
+      <c r="K181" t="s">
+        <v>46</v>
+      </c>
+      <c r="L181" s="2">
+        <v>-2922.9249011857701</v>
+      </c>
+      <c r="M181">
+        <v>1</v>
+      </c>
+      <c r="N181" t="s">
+        <v>85</v>
+      </c>
+      <c r="O181" t="s">
+        <v>86</v>
+      </c>
+      <c r="P181" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q181" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="182" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A182" t="s">
+        <v>391</v>
+      </c>
+      <c r="B182" s="1">
+        <v>46056</v>
+      </c>
+      <c r="C182" t="s">
+        <v>68</v>
+      </c>
+      <c r="E182">
+        <v>14491886305.629299</v>
+      </c>
+      <c r="F182" t="s">
+        <v>69</v>
+      </c>
+      <c r="G182" t="s">
+        <v>43</v>
+      </c>
+      <c r="H182" t="s">
+        <v>60</v>
+      </c>
+      <c r="J182" t="s">
+        <v>70</v>
+      </c>
+      <c r="K182" t="s">
+        <v>46</v>
+      </c>
+      <c r="L182" s="2">
+        <v>-2943.4288537549401</v>
+      </c>
+      <c r="M182">
+        <v>1</v>
+      </c>
+      <c r="N182" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="183" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A183" t="s">
+        <v>392</v>
+      </c>
+      <c r="B183" s="1">
+        <v>46056</v>
+      </c>
+      <c r="C183" t="s">
+        <v>68</v>
+      </c>
+      <c r="E183">
+        <v>14529321627.2759</v>
+      </c>
+      <c r="F183" t="s">
+        <v>69</v>
+      </c>
+      <c r="G183" t="s">
+        <v>43</v>
+      </c>
+      <c r="H183" t="s">
+        <v>60</v>
+      </c>
+      <c r="J183" t="s">
+        <v>70</v>
+      </c>
+      <c r="K183" t="s">
+        <v>46</v>
+      </c>
+      <c r="L183" s="2">
+        <v>-2963.9328063241101</v>
+      </c>
+      <c r="M183">
+        <v>1</v>
+      </c>
+      <c r="N183" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="184" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A184" t="s">
+        <v>393</v>
+      </c>
+      <c r="B184" s="1">
+        <v>46056</v>
+      </c>
+      <c r="C184" t="s">
+        <v>56</v>
+      </c>
+      <c r="D184" t="s">
+        <v>57</v>
+      </c>
+      <c r="E184">
+        <v>14566756948.9226</v>
+      </c>
+      <c r="F184" t="s">
+        <v>58</v>
+      </c>
+      <c r="G184" t="s">
+        <v>59</v>
+      </c>
+      <c r="H184" t="s">
+        <v>60</v>
+      </c>
+      <c r="J184" t="s">
+        <v>61</v>
+      </c>
+      <c r="K184" t="s">
+        <v>46</v>
+      </c>
+      <c r="L184" s="2">
+        <v>-2984.4367588932801</v>
+      </c>
+      <c r="M184">
+        <v>1</v>
+      </c>
+      <c r="N184" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="185" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A185" t="s">
+        <v>394</v>
+      </c>
+      <c r="B185" s="1">
+        <v>46056</v>
+      </c>
+      <c r="C185" t="s">
+        <v>41</v>
+      </c>
+      <c r="E185">
+        <v>14604192270.569201</v>
+      </c>
+      <c r="F185" t="s">
+        <v>42</v>
+      </c>
+      <c r="G185" t="s">
+        <v>43</v>
+      </c>
+      <c r="H185" t="s">
+        <v>422</v>
+      </c>
+      <c r="I185" t="s">
+        <v>45</v>
+      </c>
+      <c r="K185" t="s">
+        <v>46</v>
+      </c>
+      <c r="L185" s="2">
+        <v>-3004.9407114624501</v>
+      </c>
+      <c r="M185">
+        <v>1</v>
+      </c>
+      <c r="N185" t="s">
+        <v>47</v>
+      </c>
+      <c r="O185" t="s">
+        <v>48</v>
+      </c>
+      <c r="P185" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="186" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A186" t="s">
+        <v>395</v>
+      </c>
+      <c r="B186" s="1">
+        <v>46043</v>
+      </c>
+      <c r="C186" t="s">
+        <v>225</v>
+      </c>
+      <c r="E186">
+        <v>2422887129</v>
+      </c>
+      <c r="F186" t="s">
+        <v>226</v>
+      </c>
+      <c r="G186" t="s">
+        <v>176</v>
+      </c>
+      <c r="H186" t="s">
+        <v>44</v>
+      </c>
+      <c r="I186" t="s">
+        <v>227</v>
+      </c>
+      <c r="K186" t="s">
+        <v>46</v>
+      </c>
+      <c r="L186" s="2">
+        <v>-3025.4446640316201</v>
+      </c>
+      <c r="M186">
+        <v>1</v>
+      </c>
+      <c r="N186" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="187" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A187" t="s">
+        <v>396</v>
+      </c>
+      <c r="B187" s="1">
+        <v>46044</v>
+      </c>
+      <c r="C187" t="s">
+        <v>117</v>
+      </c>
+      <c r="E187">
+        <v>1950155238</v>
+      </c>
+      <c r="F187" t="s">
+        <v>219</v>
+      </c>
+      <c r="G187" t="s">
+        <v>176</v>
+      </c>
+      <c r="H187" t="s">
+        <v>44</v>
+      </c>
+      <c r="I187" t="s">
+        <v>201</v>
+      </c>
+      <c r="K187" t="s">
+        <v>46</v>
+      </c>
+      <c r="L187" s="2">
+        <v>-3045.94861660079</v>
+      </c>
+      <c r="M187">
+        <v>1</v>
+      </c>
+      <c r="N187" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="188" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A188" t="s">
+        <v>397</v>
+      </c>
+      <c r="B188" s="1">
+        <v>46047</v>
+      </c>
+      <c r="C188" t="s">
+        <v>117</v>
+      </c>
+      <c r="E188" t="s">
+        <v>208</v>
+      </c>
+      <c r="F188" t="s">
+        <v>209</v>
+      </c>
+      <c r="G188" t="s">
+        <v>194</v>
+      </c>
+      <c r="H188" t="s">
+        <v>44</v>
+      </c>
+      <c r="I188" t="s">
+        <v>210</v>
+      </c>
+      <c r="K188" t="s">
+        <v>46</v>
+      </c>
+      <c r="L188" s="2">
+        <v>-3066.45256916996</v>
+      </c>
+      <c r="M188">
+        <v>1</v>
+      </c>
+      <c r="N188" t="s">
+        <v>211</v>
+      </c>
+      <c r="O188" t="s">
+        <v>212</v>
+      </c>
+      <c r="P188" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="189" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A189" t="s">
+        <v>398</v>
+      </c>
+      <c r="B189" s="1">
+        <v>46048</v>
+      </c>
+      <c r="C189" t="s">
+        <v>117</v>
+      </c>
+      <c r="E189">
+        <v>14641627592.215799</v>
+      </c>
+      <c r="F189" t="s">
+        <v>200</v>
+      </c>
+      <c r="G189" t="s">
+        <v>43</v>
+      </c>
+      <c r="H189" t="s">
+        <v>44</v>
+      </c>
+      <c r="I189" t="s">
+        <v>201</v>
+      </c>
+      <c r="K189" t="s">
+        <v>46</v>
+      </c>
+      <c r="L189" s="2">
+        <v>-3086.95652173913</v>
+      </c>
+      <c r="M189">
+        <v>1</v>
+      </c>
+      <c r="N189" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="190" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A190" t="s">
+        <v>399</v>
+      </c>
+      <c r="B190" s="1">
+        <v>46048</v>
+      </c>
+      <c r="C190" t="s">
+        <v>192</v>
+      </c>
+      <c r="E190">
+        <v>14679062913.8624</v>
+      </c>
+      <c r="F190" t="s">
+        <v>193</v>
+      </c>
+      <c r="G190" t="s">
+        <v>194</v>
+      </c>
+      <c r="H190" t="s">
+        <v>44</v>
+      </c>
+      <c r="I190" t="s">
+        <v>195</v>
+      </c>
+      <c r="K190" t="s">
+        <v>46</v>
+      </c>
+      <c r="L190" s="2">
+        <v>-3107.4604743083</v>
+      </c>
+      <c r="M190">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A191" t="s">
+        <v>400</v>
+      </c>
+      <c r="B191" s="1">
+        <v>46048</v>
+      </c>
+      <c r="C191" t="s">
+        <v>56</v>
+      </c>
+      <c r="D191" t="s">
+        <v>184</v>
+      </c>
+      <c r="E191">
+        <v>14716498235.509001</v>
+      </c>
+      <c r="F191" t="s">
+        <v>185</v>
+      </c>
+      <c r="G191" t="s">
+        <v>130</v>
+      </c>
+      <c r="H191" t="s">
+        <v>44</v>
+      </c>
+      <c r="I191" t="s">
+        <v>186</v>
+      </c>
+      <c r="K191" t="s">
+        <v>46</v>
+      </c>
+      <c r="L191" s="2">
+        <v>-3127.96442687747</v>
+      </c>
+      <c r="M191">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A192" t="s">
+        <v>401</v>
+      </c>
+      <c r="B192" s="1">
+        <v>46050</v>
+      </c>
+      <c r="C192" t="s">
+        <v>174</v>
+      </c>
+      <c r="E192">
+        <v>14753933557.1556</v>
+      </c>
+      <c r="F192" t="s">
+        <v>175</v>
+      </c>
+      <c r="G192" t="s">
+        <v>176</v>
+      </c>
+      <c r="H192" t="s">
+        <v>60</v>
+      </c>
+      <c r="J192" t="s">
+        <v>177</v>
+      </c>
+      <c r="K192" t="s">
+        <v>46</v>
+      </c>
+      <c r="L192" s="2">
+        <v>-3148.46837944664</v>
+      </c>
+      <c r="M192">
+        <v>1</v>
+      </c>
+      <c r="N192" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="193" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A193" t="s">
+        <v>402</v>
+      </c>
+      <c r="B193" s="1">
+        <v>46050</v>
+      </c>
+      <c r="C193" t="s">
+        <v>159</v>
+      </c>
+      <c r="E193">
+        <v>14791368878.802299</v>
+      </c>
+      <c r="F193" t="s">
+        <v>160</v>
+      </c>
+      <c r="G193" t="s">
+        <v>130</v>
+      </c>
+      <c r="H193" t="s">
+        <v>60</v>
+      </c>
+      <c r="J193" t="s">
+        <v>152</v>
+      </c>
+      <c r="K193" t="s">
+        <v>46</v>
+      </c>
+      <c r="L193" s="2">
+        <v>-3168.97233201581</v>
+      </c>
+      <c r="M193">
+        <v>1</v>
+      </c>
+      <c r="N193" t="s">
+        <v>162</v>
+      </c>
+      <c r="O193" t="s">
+        <v>163</v>
+      </c>
+      <c r="P193" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="194" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A194" t="s">
+        <v>403</v>
+      </c>
+      <c r="B194" s="1">
+        <v>46051</v>
+      </c>
+      <c r="C194" t="s">
+        <v>159</v>
+      </c>
+      <c r="E194">
+        <v>14828804200.4489</v>
+      </c>
+      <c r="F194" t="s">
+        <v>160</v>
+      </c>
+      <c r="G194" t="s">
+        <v>130</v>
+      </c>
+      <c r="H194" t="s">
+        <v>424</v>
+      </c>
+      <c r="I194" t="s">
+        <v>161</v>
+      </c>
+      <c r="K194" t="s">
+        <v>46</v>
+      </c>
+      <c r="L194" s="2">
+        <v>-3189.47628458498</v>
+      </c>
+      <c r="M194">
+        <v>1</v>
+      </c>
+      <c r="N194" t="s">
+        <v>162</v>
+      </c>
+      <c r="O194" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="195" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A195" t="s">
+        <v>404</v>
+      </c>
+      <c r="B195" s="1">
+        <v>46053</v>
+      </c>
+      <c r="C195" t="s">
+        <v>150</v>
+      </c>
+      <c r="E195">
+        <v>14866239522.095501</v>
+      </c>
+      <c r="F195" t="s">
+        <v>151</v>
+      </c>
+      <c r="G195" t="s">
+        <v>130</v>
+      </c>
+      <c r="H195" t="s">
+        <v>425</v>
+      </c>
+      <c r="J195" t="s">
+        <v>152</v>
+      </c>
+      <c r="K195" t="s">
+        <v>46</v>
+      </c>
+      <c r="L195" s="2">
+        <v>-3209.98023715415</v>
+      </c>
+      <c r="M195">
+        <v>1</v>
+      </c>
+      <c r="N195" t="s">
+        <v>153</v>
+      </c>
+      <c r="O195" t="s">
+        <v>153</v>
+      </c>
+      <c r="P195" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="196" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A196" t="s">
+        <v>405</v>
+      </c>
+      <c r="B196" s="1">
+        <v>46053</v>
+      </c>
+      <c r="C196" t="s">
+        <v>142</v>
+      </c>
+      <c r="E196">
+        <v>14903674843.7421</v>
+      </c>
+      <c r="F196" t="s">
+        <v>143</v>
+      </c>
+      <c r="G196" t="s">
+        <v>130</v>
+      </c>
+      <c r="H196" t="s">
+        <v>44</v>
+      </c>
+      <c r="I196" t="s">
+        <v>144</v>
+      </c>
+      <c r="K196" t="s">
+        <v>46</v>
+      </c>
+      <c r="L196" s="2">
+        <v>-3230.48418972332</v>
+      </c>
+      <c r="M196">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A197" t="s">
+        <v>406</v>
+      </c>
+      <c r="B197" s="1">
+        <v>46053</v>
+      </c>
+      <c r="C197" t="s">
+        <v>56</v>
+      </c>
+      <c r="D197" t="s">
+        <v>134</v>
+      </c>
+      <c r="E197">
+        <v>14941110165.3887</v>
+      </c>
+      <c r="F197" t="s">
+        <v>135</v>
+      </c>
+      <c r="G197" t="s">
+        <v>43</v>
+      </c>
+      <c r="H197" t="s">
+        <v>44</v>
+      </c>
+      <c r="I197" t="s">
+        <v>136</v>
+      </c>
+      <c r="K197" t="s">
+        <v>46</v>
+      </c>
+      <c r="L197" s="2">
+        <v>-3250.98814229249</v>
+      </c>
+      <c r="M197">
+        <v>1</v>
+      </c>
+      <c r="N197" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="198" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A198" t="s">
+        <v>407</v>
+      </c>
+      <c r="B198" s="1">
+        <v>46054</v>
+      </c>
+      <c r="C198" t="s">
+        <v>117</v>
+      </c>
+      <c r="E198">
+        <v>14978545487.035299</v>
+      </c>
+      <c r="F198" t="s">
+        <v>118</v>
+      </c>
+      <c r="G198" t="s">
+        <v>130</v>
+      </c>
+      <c r="H198" t="s">
+        <v>44</v>
+      </c>
+      <c r="I198" t="s">
+        <v>119</v>
+      </c>
+      <c r="K198" t="s">
+        <v>46</v>
+      </c>
+      <c r="L198" s="2">
+        <v>-3271.49209486166</v>
+      </c>
+      <c r="M198">
+        <v>1</v>
+      </c>
+      <c r="N198" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="199" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A199" t="s">
+        <v>408</v>
+      </c>
+      <c r="B199" s="1">
+        <v>46054</v>
+      </c>
+      <c r="C199" t="s">
+        <v>117</v>
+      </c>
+      <c r="E199">
+        <v>15015980808.681999</v>
+      </c>
+      <c r="F199" t="s">
+        <v>118</v>
+      </c>
+      <c r="G199" t="s">
+        <v>43</v>
+      </c>
+      <c r="H199" t="s">
+        <v>44</v>
+      </c>
+      <c r="I199" t="s">
+        <v>119</v>
+      </c>
+      <c r="K199" t="s">
+        <v>46</v>
+      </c>
+      <c r="L199" s="2">
+        <v>-3291.99604743083</v>
+      </c>
+      <c r="M199">
+        <v>1</v>
+      </c>
+      <c r="N199" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="200" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A200" t="s">
+        <v>409</v>
+      </c>
+      <c r="B200" s="1">
+        <v>46054</v>
+      </c>
+      <c r="C200" t="s">
+        <v>117</v>
+      </c>
+      <c r="E200">
+        <v>15053416130.3286</v>
+      </c>
+      <c r="F200" t="s">
+        <v>118</v>
+      </c>
+      <c r="G200" t="s">
+        <v>59</v>
+      </c>
+      <c r="H200" t="s">
+        <v>44</v>
+      </c>
+      <c r="I200" t="s">
+        <v>119</v>
+      </c>
+      <c r="K200" t="s">
+        <v>46</v>
+      </c>
+      <c r="L200" s="2">
+        <v>-3312.5</v>
+      </c>
+      <c r="M200">
+        <v>1</v>
+      </c>
+      <c r="N200" t="s">
+        <v>120</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AN24">
+    <sortCondition ref="A2:A24"/>
+  </sortState>
+  <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/registrations.xlsx
+++ b/data/registrations.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1914" uniqueCount="432">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1914" uniqueCount="433">
   <si>
     <t>Registration No</t>
   </si>
@@ -1015,19 +1015,22 @@
     <t>Syed Idrees</t>
   </si>
   <si>
+    <t>gowtham</t>
+  </si>
+  <si>
+    <t>Barsa</t>
+  </si>
+  <si>
+    <t>Bhavishya Gowda</t>
+  </si>
+  <si>
+    <t>Dhruv Singh</t>
+  </si>
+  <si>
+    <t>Jahnavi</t>
+  </si>
+  <si>
     <t>Ananya</t>
-  </si>
-  <si>
-    <t>Barsa</t>
-  </si>
-  <si>
-    <t>Bhavishya Gowda</t>
-  </si>
-  <si>
-    <t>Dhruv Singh</t>
-  </si>
-  <si>
-    <t>Jahnavi</t>
   </si>
   <si>
     <t>Shalin</t>
@@ -1877,10 +1880,10 @@
         <v>46046.36974537037</v>
       </c>
       <c r="AE2" s="3" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AF2" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AG2">
         <v>250</v>
@@ -1889,19 +1892,19 @@
         <v>46043.59777777778</v>
       </c>
       <c r="AI2" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AK2" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AL2" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AM2" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AN2" s="3" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="3" spans="1:45">
@@ -1954,7 +1957,7 @@
         <v>46046.36947916666</v>
       </c>
       <c r="AE3" s="3" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AG3">
         <v>250</v>
@@ -1963,19 +1966,19 @@
         <v>46046.59512731482</v>
       </c>
       <c r="AI3" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AK3" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AL3" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AM3" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AN3" s="3" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="4" spans="1:45">
@@ -2019,7 +2022,7 @@
         <v>333</v>
       </c>
       <c r="P4" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Z4">
         <v>500</v>
@@ -2037,25 +2040,25 @@
         <v>46047.57050925926</v>
       </c>
       <c r="AE4" s="3" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AG4">
         <v>500</v>
       </c>
       <c r="AI4" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AK4" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AL4" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AM4" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AN4" s="3" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="5" spans="1:45">
@@ -2108,25 +2111,25 @@
         <v>46048.17354166666</v>
       </c>
       <c r="AE5" s="3" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AG5">
         <v>250</v>
       </c>
       <c r="AI5" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AK5" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AL5" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AM5" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AN5" s="3" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="6" spans="1:45">
@@ -2176,25 +2179,25 @@
         <v>46048.70457175926</v>
       </c>
       <c r="AE6" s="3" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AG6">
         <v>2000</v>
       </c>
       <c r="AI6" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AK6" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AL6" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AM6" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AN6" s="3" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="7" spans="1:45">
@@ -2247,25 +2250,25 @@
         <v>46048.73724537037</v>
       </c>
       <c r="AE7" s="3" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AG7">
         <v>1500</v>
       </c>
       <c r="AI7" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AK7" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AL7" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AM7" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AN7" s="3" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="8" spans="1:45">
@@ -2318,25 +2321,25 @@
         <v>46050.5496412037</v>
       </c>
       <c r="AE8" s="3" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AG8">
         <v>500</v>
       </c>
       <c r="AI8" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AK8" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AL8" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AM8" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AN8" s="3" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="9" spans="1:45">
@@ -2380,7 +2383,7 @@
         <v>334</v>
       </c>
       <c r="P9" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Z9">
         <v>500</v>
@@ -2395,25 +2398,25 @@
         <v>46050.5603125</v>
       </c>
       <c r="AE9" s="3" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AG9">
         <v>500</v>
       </c>
       <c r="AI9" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AK9" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AL9" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AM9" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AN9" s="3" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="10" spans="1:45">
@@ -2469,25 +2472,25 @@
         <v>46051.26159722222</v>
       </c>
       <c r="AE10" s="3" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AG10">
         <v>500</v>
       </c>
       <c r="AI10" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AK10" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AL10" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AM10" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AN10" s="3" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="11" spans="1:45">
@@ -2546,25 +2549,25 @@
         <v>46052.85017361111</v>
       </c>
       <c r="AE11" s="3" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AG11">
         <v>500</v>
       </c>
       <c r="AI11" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AK11" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AL11" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AM11" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AN11" s="3" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="12" spans="1:45">
@@ -2614,25 +2617,25 @@
         <v>46053.32211805556</v>
       </c>
       <c r="AE12" s="3" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AG12">
         <v>1500</v>
       </c>
       <c r="AI12" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AK12" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AL12" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AM12" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AN12" s="3" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="13" spans="1:45">
@@ -2688,25 +2691,25 @@
         <v>46053.68641203704</v>
       </c>
       <c r="AE13" s="3" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AG13">
         <v>250</v>
       </c>
       <c r="AI13" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AK13" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AL13" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AM13" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AN13" s="3" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="14" spans="1:45">
@@ -2759,25 +2762,25 @@
         <v>46054.20597222223</v>
       </c>
       <c r="AE14" s="3" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AG14">
         <v>250</v>
       </c>
       <c r="AI14" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AK14" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AL14" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AM14" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AN14" s="3" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="15" spans="1:45">
@@ -2830,25 +2833,25 @@
         <v>46054.20864583334</v>
       </c>
       <c r="AE15" s="3" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AG15">
         <v>250</v>
       </c>
       <c r="AI15" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AK15" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AL15" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AM15" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AN15" s="3" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="16" spans="1:45">
@@ -2901,10 +2904,10 @@
         <v>46055.22414351852</v>
       </c>
       <c r="AE16" s="3" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AF16" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AG16">
         <v>250</v>
@@ -2913,19 +2916,19 @@
         <v>46055.45304398148</v>
       </c>
       <c r="AI16" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AK16" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AL16" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AM16" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AN16" s="3" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="17" spans="1:40">
@@ -2978,10 +2981,10 @@
         <v>46055.33483796296</v>
       </c>
       <c r="AE17" s="3" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AF17" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AG17">
         <v>250</v>
@@ -2990,19 +2993,19 @@
         <v>46055.56552083333</v>
       </c>
       <c r="AI17" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AK17" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AL17" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AM17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AN17" s="3" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="18" spans="1:40">
@@ -3055,10 +3058,10 @@
         <v>46055.335625</v>
       </c>
       <c r="AE18" s="3" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AF18" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AG18">
         <v>250</v>
@@ -3067,19 +3070,19 @@
         <v>46055.56576388889</v>
       </c>
       <c r="AI18" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AK18" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AL18" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AM18" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AN18" s="3" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="19" spans="1:40">
@@ -3123,10 +3126,10 @@
         <v>335</v>
       </c>
       <c r="P19" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q19" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Z19">
         <v>500</v>
@@ -3141,10 +3144,10 @@
         <v>46055.34297453704</v>
       </c>
       <c r="AE19" s="3" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AF19" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AG19">
         <v>500</v>
@@ -3153,19 +3156,19 @@
         <v>46055.57255787037</v>
       </c>
       <c r="AI19" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AK19" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AL19" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AM19" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AN19" s="3" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="20" spans="1:40">
@@ -3209,10 +3212,10 @@
         <v>336</v>
       </c>
       <c r="P20" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q20" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Z20">
         <v>500</v>
@@ -3227,10 +3230,10 @@
         <v>46055.34579861111</v>
       </c>
       <c r="AE20" s="3" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AF20" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AG20">
         <v>500</v>
@@ -3239,19 +3242,19 @@
         <v>46055.57982638889</v>
       </c>
       <c r="AI20" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AK20" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AL20" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AM20" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AN20" s="3" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="21" spans="1:40">
@@ -3304,22 +3307,22 @@
         <v>46056.26671296296</v>
       </c>
       <c r="AE21" s="3" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AG21">
         <v>250</v>
       </c>
       <c r="AK21" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AL21" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AM21" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AN21" s="3" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="22" spans="1:40">
@@ -3372,10 +3375,10 @@
         <v>46056.27141203704</v>
       </c>
       <c r="AE22" s="3" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AF22" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AG22">
         <v>250</v>
@@ -3384,19 +3387,19 @@
         <v>46056.50103009259</v>
       </c>
       <c r="AI22" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AK22" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AL22" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AM22" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AN22" s="3" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="23" spans="1:40">
@@ -3452,22 +3455,22 @@
         <v>46056.2725</v>
       </c>
       <c r="AE23" s="3" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AG23">
         <v>250</v>
       </c>
       <c r="AK23" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AL23" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AM23" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AN23" s="3" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="24" spans="1:40">
@@ -3511,7 +3514,7 @@
         <v>337</v>
       </c>
       <c r="P24" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Z24">
         <v>500</v>
@@ -3526,22 +3529,22 @@
         <v>46056.33609953704</v>
       </c>
       <c r="AE24" s="3" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AG24">
         <v>500</v>
       </c>
       <c r="AK24" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AL24" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AM24" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AN24" s="3" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="25" spans="1:40">
@@ -3658,10 +3661,10 @@
         <v>319</v>
       </c>
       <c r="O27" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="P27" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="28" spans="1:40">
@@ -3854,7 +3857,7 @@
         <v>334</v>
       </c>
       <c r="P32" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -4249,10 +4252,10 @@
         <v>335</v>
       </c>
       <c r="P42" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q42" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="43" spans="1:17">
@@ -4296,10 +4299,10 @@
         <v>336</v>
       </c>
       <c r="P43" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q43" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="44" spans="1:17">
@@ -4460,7 +4463,7 @@
         <v>337</v>
       </c>
       <c r="P47" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="48" spans="1:17">
@@ -4577,10 +4580,10 @@
         <v>319</v>
       </c>
       <c r="O50" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="P50" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="51" spans="1:16">
@@ -4773,7 +4776,7 @@
         <v>334</v>
       </c>
       <c r="P55" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="56" spans="1:16">
@@ -5168,10 +5171,10 @@
         <v>335</v>
       </c>
       <c r="P65" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q65" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="66" spans="1:17">
@@ -5215,10 +5218,10 @@
         <v>336</v>
       </c>
       <c r="P66" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q66" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="67" spans="1:17">
@@ -5379,7 +5382,7 @@
         <v>337</v>
       </c>
       <c r="P70" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="71" spans="1:17">
@@ -5496,10 +5499,10 @@
         <v>319</v>
       </c>
       <c r="O73" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="P73" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="74" spans="1:17">
@@ -5692,7 +5695,7 @@
         <v>334</v>
       </c>
       <c r="P78" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="79" spans="1:17">
@@ -6087,10 +6090,10 @@
         <v>335</v>
       </c>
       <c r="P88" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q88" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="89" spans="1:17">
@@ -6134,10 +6137,10 @@
         <v>336</v>
       </c>
       <c r="P89" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q89" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="90" spans="1:17">
@@ -6298,7 +6301,7 @@
         <v>337</v>
       </c>
       <c r="P93" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="94" spans="1:17">
@@ -6415,10 +6418,10 @@
         <v>319</v>
       </c>
       <c r="O96" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="P96" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="97" spans="1:17">
@@ -6611,7 +6614,7 @@
         <v>334</v>
       </c>
       <c r="P101" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="102" spans="1:17">
@@ -7006,10 +7009,10 @@
         <v>335</v>
       </c>
       <c r="P111" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q111" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="112" spans="1:17">
@@ -7053,10 +7056,10 @@
         <v>336</v>
       </c>
       <c r="P112" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q112" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="113" spans="1:16">
@@ -7217,7 +7220,7 @@
         <v>337</v>
       </c>
       <c r="P116" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="117" spans="1:16">
@@ -7334,10 +7337,10 @@
         <v>319</v>
       </c>
       <c r="O119" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="P119" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="120" spans="1:16">
@@ -7530,7 +7533,7 @@
         <v>334</v>
       </c>
       <c r="P124" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="125" spans="1:16">
@@ -7925,10 +7928,10 @@
         <v>335</v>
       </c>
       <c r="P134" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q134" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="135" spans="1:17">
@@ -7972,10 +7975,10 @@
         <v>336</v>
       </c>
       <c r="P135" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q135" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="136" spans="1:17">
@@ -8136,7 +8139,7 @@
         <v>337</v>
       </c>
       <c r="P139" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="140" spans="1:17">
@@ -8253,10 +8256,10 @@
         <v>319</v>
       </c>
       <c r="O142" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="P142" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="143" spans="1:17">
@@ -8449,7 +8452,7 @@
         <v>334</v>
       </c>
       <c r="P147" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="148" spans="1:17">
@@ -8844,10 +8847,10 @@
         <v>335</v>
       </c>
       <c r="P157" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q157" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="158" spans="1:17">
@@ -8891,10 +8894,10 @@
         <v>336</v>
       </c>
       <c r="P158" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q158" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="159" spans="1:17">
@@ -9055,7 +9058,7 @@
         <v>337</v>
       </c>
       <c r="P162" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="163" spans="1:16">
@@ -9172,10 +9175,10 @@
         <v>319</v>
       </c>
       <c r="O165" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="P165" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="166" spans="1:16">
@@ -9368,7 +9371,7 @@
         <v>334</v>
       </c>
       <c r="P170" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="171" spans="1:16">
@@ -9763,10 +9766,10 @@
         <v>335</v>
       </c>
       <c r="P180" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q180" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="181" spans="1:17">
@@ -9810,10 +9813,10 @@
         <v>336</v>
       </c>
       <c r="P181" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q181" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="182" spans="1:17">
@@ -9974,7 +9977,7 @@
         <v>337</v>
       </c>
       <c r="P185" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="186" spans="1:17">
@@ -10091,10 +10094,10 @@
         <v>319</v>
       </c>
       <c r="O188" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="P188" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="189" spans="1:17">
@@ -10287,7 +10290,7 @@
         <v>334</v>
       </c>
       <c r="P193" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="194" spans="1:16">
